--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -626,17 +626,13 @@
         <v>55.64999999999996</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -671,11 +667,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="K8" t="n">
         <v>54.8</v>
       </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -708,17 +702,13 @@
         <v>55.39999999999996</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -751,17 +741,13 @@
         <v>55.37999999999995</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -794,17 +780,13 @@
         <v>55.34499999999996</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -843,9 +825,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -884,9 +864,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -925,9 +903,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -966,9 +942,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1007,9 +981,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1048,9 +1020,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1089,9 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,9 +1098,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1171,9 +1137,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,9 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1253,9 +1215,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1294,9 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1335,9 +1293,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1370,17 +1326,13 @@
         <v>54.93999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1413,17 +1365,13 @@
         <v>54.99499999999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1456,17 +1404,13 @@
         <v>55.00499999999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1505,9 +1449,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1546,9 +1488,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1587,9 +1527,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1622,17 +1560,13 @@
         <v>55.00499999999996</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,9 +1605,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1706,17 +1638,13 @@
         <v>55.02499999999996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1755,9 +1683,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1796,9 +1722,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1837,9 +1761,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1878,9 +1800,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1919,9 +1839,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,9 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2001,9 +1917,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,9 +1956,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,9 +1995,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,9 +2034,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2165,9 +2073,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,9 +2112,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2247,9 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,9 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,9 +2229,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,9 +2268,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,17 +2301,13 @@
         <v>55.22499999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,17 +2340,13 @@
         <v>55.215</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,17 +2379,13 @@
         <v>55.165</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2534,17 +2418,13 @@
         <v>55.16999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2577,17 +2457,13 @@
         <v>55.14999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>55</v>
-      </c>
-      <c r="K54" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,17 +2496,13 @@
         <v>55.15999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2663,17 +2535,13 @@
         <v>55.16499999999998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="K56" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,9 +2580,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2747,17 +2613,13 @@
         <v>55.18499999999997</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2796,9 +2658,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,9 +2697,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,17 +2730,13 @@
         <v>55.15999999999995</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="K61" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,9 +2775,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,9 +2814,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2997,17 +2847,13 @@
         <v>54.98999999999997</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,17 +2886,13 @@
         <v>54.92999999999996</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3083,17 +2925,13 @@
         <v>54.86499999999997</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,17 +2964,13 @@
         <v>54.85999999999996</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K67" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,17 +3003,13 @@
         <v>54.84999999999995</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,17 +3042,13 @@
         <v>54.86499999999995</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K69" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,17 +3081,13 @@
         <v>54.86999999999995</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,17 +3120,13 @@
         <v>54.87999999999994</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K71" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,17 +3159,13 @@
         <v>54.88499999999993</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,17 +3198,13 @@
         <v>54.87499999999993</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,17 +3237,13 @@
         <v>54.88499999999993</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,17 +3276,13 @@
         <v>54.86499999999993</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="K75" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,17 +3315,13 @@
         <v>54.85999999999994</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K76" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,17 +3354,13 @@
         <v>54.85499999999994</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K77" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,17 +3393,13 @@
         <v>54.86999999999995</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K78" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,9 +3438,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,9 +3477,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,9 +3516,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,9 +3555,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,19 +3591,17 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1.024197080291971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3850,11 +3630,15 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3669,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3708,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3955,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3990,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4025,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="C2" t="n">
-        <v>53.4</v>
+        <v>56.3</v>
       </c>
       <c r="D2" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="E2" t="n">
-        <v>53.4</v>
+        <v>56.3</v>
       </c>
       <c r="F2" t="n">
-        <v>11127.0958</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>56.01999999999997</v>
+        <v>55.24333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="D3" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="F3" t="n">
-        <v>231</v>
+        <v>11127.0958</v>
       </c>
       <c r="G3" t="n">
-        <v>56.02999999999997</v>
+        <v>55.25333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>54.8</v>
+        <v>55.9</v>
       </c>
       <c r="C4" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>54.8</v>
+        <v>55.9</v>
       </c>
       <c r="E4" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>14536.1276</v>
+        <v>231</v>
       </c>
       <c r="G4" t="n">
-        <v>55.98999999999997</v>
+        <v>55.29</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.5</v>
+        <v>54.8</v>
       </c>
       <c r="C5" t="n">
         <v>54.8</v>
@@ -547,13 +547,13 @@
         <v>54.8</v>
       </c>
       <c r="E5" t="n">
-        <v>53.5</v>
+        <v>54.8</v>
       </c>
       <c r="F5" t="n">
-        <v>59.875</v>
+        <v>14536.1276</v>
       </c>
       <c r="G5" t="n">
-        <v>55.79999999999998</v>
+        <v>55.32333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,32 +573,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C6" t="n">
-        <v>53.8</v>
+        <v>54.8</v>
       </c>
       <c r="D6" t="n">
         <v>54.8</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8</v>
+        <v>53.5</v>
       </c>
       <c r="F6" t="n">
-        <v>5616.363</v>
+        <v>59.875</v>
       </c>
       <c r="G6" t="n">
-        <v>55.70499999999997</v>
+        <v>55.355</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +614,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="C7" t="n">
-        <v>54.8</v>
+        <v>53.8</v>
       </c>
       <c r="D7" t="n">
         <v>54.8</v>
       </c>
       <c r="E7" t="n">
-        <v>54.8</v>
+        <v>53.8</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>5616.363</v>
       </c>
       <c r="G7" t="n">
-        <v>55.64999999999996</v>
+        <v>55.37</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +639,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,36 +653,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54.5</v>
+        <v>54.8</v>
       </c>
       <c r="C8" t="n">
-        <v>55.7</v>
+        <v>54.8</v>
       </c>
       <c r="D8" t="n">
-        <v>55.7</v>
+        <v>54.8</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5</v>
+        <v>54.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1153.4317</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>55.52999999999996</v>
+        <v>55.40833333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -684,22 +692,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53.8</v>
+        <v>54.5</v>
       </c>
       <c r="C9" t="n">
-        <v>53.8</v>
+        <v>55.7</v>
       </c>
       <c r="D9" t="n">
-        <v>53.8</v>
+        <v>55.7</v>
       </c>
       <c r="E9" t="n">
-        <v>53.8</v>
+        <v>54.5</v>
       </c>
       <c r="F9" t="n">
-        <v>671.735</v>
+        <v>1153.4317</v>
       </c>
       <c r="G9" t="n">
-        <v>55.39999999999996</v>
+        <v>55.45500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -723,22 +731,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>55.8</v>
+        <v>53.8</v>
       </c>
       <c r="C10" t="n">
-        <v>55.8</v>
+        <v>53.8</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8</v>
+        <v>53.8</v>
       </c>
       <c r="E10" t="n">
-        <v>55.8</v>
+        <v>53.8</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>671.735</v>
       </c>
       <c r="G10" t="n">
-        <v>55.37999999999995</v>
+        <v>55.47500000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +770,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C11" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="E11" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="F11" t="n">
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>55.34499999999996</v>
+        <v>55.52333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -801,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="C12" t="n">
         <v>55.9</v>
@@ -810,13 +818,13 @@
         <v>55.9</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>55.32999999999996</v>
+        <v>55.57333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -840,22 +848,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="C13" t="n">
-        <v>54.4</v>
+        <v>55.9</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4</v>
+        <v>55.9</v>
       </c>
       <c r="E13" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="F13" t="n">
-        <v>3274.3371</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>55.24499999999997</v>
+        <v>55.62333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -879,22 +887,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55.9</v>
+        <v>54.4</v>
       </c>
       <c r="C14" t="n">
-        <v>55.9</v>
+        <v>54.4</v>
       </c>
       <c r="D14" t="n">
-        <v>55.9</v>
+        <v>54.4</v>
       </c>
       <c r="E14" t="n">
-        <v>55.9</v>
+        <v>54.4</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>3274.3371</v>
       </c>
       <c r="G14" t="n">
-        <v>55.25499999999997</v>
+        <v>55.64833333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,22 +926,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="C15" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="D15" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="E15" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="F15" t="n">
-        <v>4555.2091</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>55.19499999999997</v>
+        <v>55.69833333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -957,22 +965,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="C16" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="D16" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="E16" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="F16" t="n">
-        <v>39.6925</v>
+        <v>4555.2091</v>
       </c>
       <c r="G16" t="n">
-        <v>55.18499999999997</v>
+        <v>55.745</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,22 +1004,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>54.3</v>
+        <v>55.3</v>
       </c>
       <c r="C17" t="n">
-        <v>54.3</v>
+        <v>55.3</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3</v>
+        <v>55.3</v>
       </c>
       <c r="E17" t="n">
-        <v>54.3</v>
+        <v>55.3</v>
       </c>
       <c r="F17" t="n">
-        <v>19.7966</v>
+        <v>39.6925</v>
       </c>
       <c r="G17" t="n">
-        <v>55.13499999999997</v>
+        <v>55.785</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1035,22 +1043,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="C18" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="D18" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="E18" t="n">
-        <v>55.3</v>
+        <v>54.3</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>19.7966</v>
       </c>
       <c r="G18" t="n">
-        <v>55.12499999999996</v>
+        <v>55.81500000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1077,19 +1085,19 @@
         <v>55.3</v>
       </c>
       <c r="C19" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D19" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E19" t="n">
         <v>55.3</v>
       </c>
       <c r="F19" t="n">
-        <v>18254.0001</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>55.09499999999996</v>
+        <v>55.85666666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1113,22 +1121,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="C20" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="D20" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="E20" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>18254.0001</v>
       </c>
       <c r="G20" t="n">
-        <v>55.08499999999996</v>
+        <v>55.90500000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1152,22 +1160,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="C21" t="n">
-        <v>54.1</v>
+        <v>55.7</v>
       </c>
       <c r="D21" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="E21" t="n">
-        <v>54.1</v>
+        <v>55.7</v>
       </c>
       <c r="F21" t="n">
-        <v>41148.7903</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>55.01499999999997</v>
+        <v>55.96000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1191,22 +1199,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C22" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="D22" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E22" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="F22" t="n">
-        <v>6249.154</v>
+        <v>41148.7903</v>
       </c>
       <c r="G22" t="n">
-        <v>54.97499999999997</v>
+        <v>55.96166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1230,22 +1238,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C23" t="n">
-        <v>54.2</v>
+        <v>54.7</v>
       </c>
       <c r="D23" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="E23" t="n">
-        <v>54.2</v>
+        <v>54.7</v>
       </c>
       <c r="F23" t="n">
-        <v>58269.4272</v>
+        <v>6249.154</v>
       </c>
       <c r="G23" t="n">
-        <v>54.89999999999996</v>
+        <v>55.91666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1269,22 +1277,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C24" t="n">
         <v>54.2</v>
       </c>
-      <c r="C24" t="n">
-        <v>54.8</v>
-      </c>
       <c r="D24" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="E24" t="n">
         <v>54.2</v>
       </c>
       <c r="F24" t="n">
-        <v>6503.988</v>
+        <v>58269.4272</v>
       </c>
       <c r="G24" t="n">
-        <v>54.86999999999997</v>
+        <v>55.86333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1308,22 +1316,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.9</v>
+        <v>54.2</v>
       </c>
       <c r="C25" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="D25" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="E25" t="n">
-        <v>54.9</v>
+        <v>54.2</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>6503.988</v>
       </c>
       <c r="G25" t="n">
-        <v>54.93999999999998</v>
+        <v>55.82166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1347,22 +1355,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.6</v>
+        <v>54.9</v>
       </c>
       <c r="C26" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D26" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E26" t="n">
-        <v>55.6</v>
+        <v>54.9</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>54.99499999999997</v>
+        <v>55.79333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1386,22 +1394,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="C27" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="D27" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="E27" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="F27" t="n">
-        <v>4185.6904</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>55.00499999999997</v>
+        <v>55.76666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1425,22 +1433,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="C28" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="D28" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="E28" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
-        <v>15115.088</v>
+        <v>4185.6904</v>
       </c>
       <c r="G28" t="n">
-        <v>55.03999999999998</v>
+        <v>55.76</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1464,22 +1472,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>54.6</v>
+        <v>55.2</v>
       </c>
       <c r="C29" t="n">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="D29" t="n">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="E29" t="n">
-        <v>54.6</v>
+        <v>55.2</v>
       </c>
       <c r="F29" t="n">
-        <v>19.7967</v>
+        <v>15115.088</v>
       </c>
       <c r="G29" t="n">
-        <v>55.07999999999997</v>
+        <v>55.73166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1503,22 +1511,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="C30" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="D30" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="E30" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>19.7967</v>
       </c>
       <c r="G30" t="n">
-        <v>55.06999999999997</v>
+        <v>55.69</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1542,22 +1550,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="C31" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="D31" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="E31" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1952.0548</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>55.00499999999996</v>
+        <v>55.67166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1581,22 +1589,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="C32" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="D32" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="E32" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>1952.0548</v>
       </c>
       <c r="G32" t="n">
-        <v>54.98499999999997</v>
+        <v>55.66833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1620,22 +1628,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="C33" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="D33" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="E33" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="F33" t="n">
-        <v>1149.2697</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>55.02499999999996</v>
+        <v>55.65666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1659,22 +1667,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="C34" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="D34" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="E34" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="F34" t="n">
-        <v>3416</v>
+        <v>1149.2697</v>
       </c>
       <c r="G34" t="n">
-        <v>54.99999999999996</v>
+        <v>55.60833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1698,22 +1706,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C35" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D35" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E35" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1972</v>
+        <v>3416</v>
       </c>
       <c r="G35" t="n">
-        <v>55.05999999999997</v>
+        <v>55.565</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1749,10 +1757,10 @@
         <v>55.5</v>
       </c>
       <c r="F36" t="n">
-        <v>796</v>
+        <v>1972</v>
       </c>
       <c r="G36" t="n">
-        <v>55.06999999999997</v>
+        <v>55.53333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1776,22 +1784,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C37" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="D37" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="E37" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F37" t="n">
-        <v>2688</v>
+        <v>796</v>
       </c>
       <c r="G37" t="n">
-        <v>55.12499999999998</v>
+        <v>55.52333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1827,10 +1835,10 @@
         <v>55.4</v>
       </c>
       <c r="F38" t="n">
-        <v>6265.1555</v>
+        <v>2688</v>
       </c>
       <c r="G38" t="n">
-        <v>55.12999999999998</v>
+        <v>55.51000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1866,10 +1874,10 @@
         <v>55.4</v>
       </c>
       <c r="F39" t="n">
-        <v>2661.6829</v>
+        <v>6265.1555</v>
       </c>
       <c r="G39" t="n">
-        <v>55.13499999999999</v>
+        <v>55.49333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1893,22 +1901,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C40" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D40" t="n">
         <v>55.4</v>
       </c>
       <c r="E40" t="n">
-        <v>54.5</v>
+        <v>55.4</v>
       </c>
       <c r="F40" t="n">
-        <v>48976.9015</v>
+        <v>2661.6829</v>
       </c>
       <c r="G40" t="n">
-        <v>55.11499999999999</v>
+        <v>55.47833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1932,22 +1940,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D41" t="n">
         <v>55.4</v>
       </c>
-      <c r="C41" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>55.5</v>
-      </c>
       <c r="E41" t="n">
-        <v>55.4</v>
+        <v>54.5</v>
       </c>
       <c r="F41" t="n">
-        <v>13055.5084</v>
+        <v>48976.9015</v>
       </c>
       <c r="G41" t="n">
-        <v>55.13999999999999</v>
+        <v>55.45833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1971,7 +1979,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C42" t="n">
         <v>55.5</v>
@@ -1980,13 +1988,13 @@
         <v>55.5</v>
       </c>
       <c r="E42" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F42" t="n">
-        <v>15982.0787</v>
+        <v>13055.5084</v>
       </c>
       <c r="G42" t="n">
-        <v>55.17499999999999</v>
+        <v>55.45333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2022,10 +2030,10 @@
         <v>55.5</v>
       </c>
       <c r="F43" t="n">
-        <v>1458.2386</v>
+        <v>15982.0787</v>
       </c>
       <c r="G43" t="n">
-        <v>55.22999999999998</v>
+        <v>55.45</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2061,10 +2069,10 @@
         <v>55.5</v>
       </c>
       <c r="F44" t="n">
-        <v>713.7686</v>
+        <v>1458.2386</v>
       </c>
       <c r="G44" t="n">
-        <v>55.29499999999998</v>
+        <v>55.45333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2100,10 +2108,10 @@
         <v>55.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>713.7686</v>
       </c>
       <c r="G45" t="n">
-        <v>55.32499999999997</v>
+        <v>55.41333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2127,22 +2135,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="C46" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D46" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E46" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="n">
-        <v>55.32499999999997</v>
+        <v>55.40666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2166,22 +2174,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
       <c r="C47" t="n">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
       <c r="D47" t="n">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
       <c r="E47" t="n">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
       <c r="F47" t="n">
-        <v>5263.67</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>55.31999999999998</v>
+        <v>55.37833333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2205,22 +2213,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="C48" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="D48" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="E48" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="F48" t="n">
-        <v>13798.8271</v>
+        <v>5263.67</v>
       </c>
       <c r="G48" t="n">
-        <v>55.28499999999998</v>
+        <v>55.36333333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2247,19 +2255,19 @@
         <v>54.5</v>
       </c>
       <c r="C49" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="D49" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="E49" t="n">
         <v>54.5</v>
       </c>
       <c r="F49" t="n">
-        <v>5186</v>
+        <v>13798.8271</v>
       </c>
       <c r="G49" t="n">
-        <v>55.27999999999999</v>
+        <v>55.32333333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2286,19 +2294,19 @@
         <v>54.5</v>
       </c>
       <c r="C50" t="n">
-        <v>54.5</v>
+        <v>55.1</v>
       </c>
       <c r="D50" t="n">
-        <v>54.5</v>
+        <v>55.1</v>
       </c>
       <c r="E50" t="n">
         <v>54.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1855</v>
+        <v>5186</v>
       </c>
       <c r="G50" t="n">
-        <v>55.22499999999999</v>
+        <v>55.28666666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2322,22 +2330,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="C51" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="D51" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="E51" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="F51" t="n">
-        <v>15921.3639</v>
+        <v>1855</v>
       </c>
       <c r="G51" t="n">
-        <v>55.215</v>
+        <v>55.25999999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2373,10 +2381,10 @@
         <v>54.4</v>
       </c>
       <c r="F52" t="n">
-        <v>36714.3224</v>
+        <v>15921.3639</v>
       </c>
       <c r="G52" t="n">
-        <v>55.165</v>
+        <v>55.21333333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2400,22 +2408,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="C53" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="D53" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="E53" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="F53" t="n">
-        <v>10.11</v>
+        <v>36714.3224</v>
       </c>
       <c r="G53" t="n">
-        <v>55.16999999999999</v>
+        <v>55.18333333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2439,22 +2447,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="C54" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="D54" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="E54" t="n">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="F54" t="n">
-        <v>60682.99692365</v>
+        <v>10.11</v>
       </c>
       <c r="G54" t="n">
-        <v>55.14999999999999</v>
+        <v>55.16999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2478,22 +2486,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C55" t="n">
-        <v>55.7</v>
+        <v>54.9</v>
       </c>
       <c r="D55" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="E55" t="n">
-        <v>55.7</v>
+        <v>54.6</v>
       </c>
       <c r="F55" t="n">
-        <v>10.18</v>
+        <v>60682.99692365</v>
       </c>
       <c r="G55" t="n">
-        <v>55.15999999999999</v>
+        <v>55.15666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2517,22 +2525,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C56" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="D56" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="E56" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="F56" t="n">
-        <v>3590.0397</v>
+        <v>10.18</v>
       </c>
       <c r="G56" t="n">
-        <v>55.16499999999998</v>
+        <v>55.16</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2559,19 +2567,19 @@
         <v>55.6</v>
       </c>
       <c r="C57" t="n">
-        <v>55.6</v>
+        <v>54.9</v>
       </c>
       <c r="D57" t="n">
         <v>55.6</v>
       </c>
       <c r="E57" t="n">
-        <v>55.6</v>
+        <v>54.9</v>
       </c>
       <c r="F57" t="n">
-        <v>10.11</v>
+        <v>3590.0397</v>
       </c>
       <c r="G57" t="n">
-        <v>55.17499999999998</v>
+        <v>55.15</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2607,10 +2615,10 @@
         <v>55.6</v>
       </c>
       <c r="F58" t="n">
-        <v>120.3237</v>
+        <v>10.11</v>
       </c>
       <c r="G58" t="n">
-        <v>55.18499999999997</v>
+        <v>55.15166666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2634,22 +2642,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="C59" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="D59" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="E59" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="F59" t="n">
-        <v>947.9999</v>
+        <v>120.3237</v>
       </c>
       <c r="G59" t="n">
-        <v>55.14499999999996</v>
+        <v>55.15166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2673,22 +2681,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="C60" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="D60" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="E60" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="F60" t="n">
-        <v>11.18</v>
+        <v>947.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>55.15999999999995</v>
+        <v>55.13</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2712,22 +2720,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C61" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D61" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E61" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="F61" t="n">
-        <v>10.1</v>
+        <v>11.18</v>
       </c>
       <c r="G61" t="n">
-        <v>55.15999999999995</v>
+        <v>55.12499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2751,22 +2759,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="C62" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="D62" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="E62" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="F62" t="n">
-        <v>3106.3249</v>
+        <v>10.1</v>
       </c>
       <c r="G62" t="n">
-        <v>55.10499999999996</v>
+        <v>55.10999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2802,10 +2810,10 @@
         <v>54.4</v>
       </c>
       <c r="F63" t="n">
-        <v>3567.326</v>
+        <v>3106.3249</v>
       </c>
       <c r="G63" t="n">
-        <v>55.04999999999997</v>
+        <v>55.12666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2829,22 +2837,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="C64" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="D64" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="E64" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="F64" t="n">
-        <v>5836.932</v>
+        <v>3567.326</v>
       </c>
       <c r="G64" t="n">
-        <v>54.98999999999997</v>
+        <v>55.11666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2880,10 +2888,10 @@
         <v>54.3</v>
       </c>
       <c r="F65" t="n">
-        <v>966.9999</v>
+        <v>5836.932</v>
       </c>
       <c r="G65" t="n">
-        <v>54.92999999999996</v>
+        <v>55.10833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2919,10 +2927,10 @@
         <v>54.3</v>
       </c>
       <c r="F66" t="n">
-        <v>967</v>
+        <v>966.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>54.86499999999997</v>
+        <v>55.09999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2946,22 +2954,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="C67" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="D67" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="E67" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>967</v>
       </c>
       <c r="G67" t="n">
-        <v>54.85999999999996</v>
+        <v>55.10833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2985,22 +2993,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.3</v>
+        <v>54.8</v>
       </c>
       <c r="C68" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="D68" t="n">
-        <v>54.3</v>
+        <v>54.8</v>
       </c>
       <c r="E68" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="F68" t="n">
-        <v>15456.3147</v>
+        <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>54.84999999999995</v>
+        <v>55.10833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3024,22 +3032,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="C69" t="n">
-        <v>54.8</v>
+        <v>54</v>
       </c>
       <c r="D69" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="E69" t="n">
-        <v>54.8</v>
+        <v>54</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>15456.3147</v>
       </c>
       <c r="G69" t="n">
-        <v>54.86499999999995</v>
+        <v>55.08</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3063,22 +3071,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="C70" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="D70" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="E70" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="F70" t="n">
-        <v>13142.5959</v>
+        <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>54.86999999999995</v>
+        <v>55.09666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3105,19 +3113,19 @@
         <v>54.6</v>
       </c>
       <c r="C71" t="n">
-        <v>55.1</v>
+        <v>54</v>
       </c>
       <c r="D71" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="E71" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>13142.5959</v>
       </c>
       <c r="G71" t="n">
-        <v>54.87999999999994</v>
+        <v>55.06666666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3141,22 +3149,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C72" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D72" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E72" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="F72" t="n">
-        <v>7800</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>54.88499999999993</v>
+        <v>55.05333333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3180,22 +3188,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="C73" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D73" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="E73" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1107.77</v>
+        <v>7800</v>
       </c>
       <c r="G73" t="n">
-        <v>54.87499999999993</v>
+        <v>55.04166666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3219,22 +3227,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C74" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D74" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E74" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F74" t="n">
-        <v>911.7141</v>
+        <v>1107.77</v>
       </c>
       <c r="G74" t="n">
-        <v>54.88499999999993</v>
+        <v>55.05333333333331</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3258,22 +3266,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C75" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="D75" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="E75" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F75" t="n">
-        <v>13046.3749</v>
+        <v>911.7141</v>
       </c>
       <c r="G75" t="n">
-        <v>54.86499999999993</v>
+        <v>55.04166666666664</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3297,22 +3305,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C76" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D76" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E76" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="F76" t="n">
-        <v>1478</v>
+        <v>13046.3749</v>
       </c>
       <c r="G76" t="n">
-        <v>54.85999999999994</v>
+        <v>55.03666666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3339,19 +3347,19 @@
         <v>55.5</v>
       </c>
       <c r="C77" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="D77" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="E77" t="n">
         <v>55.5</v>
       </c>
       <c r="F77" t="n">
-        <v>22894.0086</v>
+        <v>1478</v>
       </c>
       <c r="G77" t="n">
-        <v>54.85499999999994</v>
+        <v>55.03999999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3375,22 +3383,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C78" t="n">
         <v>55.9</v>
       </c>
-      <c r="C78" t="n">
-        <v>56.2</v>
-      </c>
       <c r="D78" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="E78" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="F78" t="n">
-        <v>11503.64307635</v>
+        <v>22894.0086</v>
       </c>
       <c r="G78" t="n">
-        <v>54.86999999999995</v>
+        <v>55.06666666666664</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3414,22 +3422,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C79" t="n">
         <v>56.2</v>
       </c>
-      <c r="C79" t="n">
-        <v>54.7</v>
-      </c>
       <c r="D79" t="n">
-        <v>56.7</v>
+        <v>56.2</v>
       </c>
       <c r="E79" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="F79" t="n">
-        <v>21305.0836</v>
+        <v>11503.64307635</v>
       </c>
       <c r="G79" t="n">
-        <v>54.94999999999995</v>
+        <v>55.08166666666664</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3453,22 +3461,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>56.7</v>
+        <v>56.2</v>
       </c>
       <c r="C80" t="n">
-        <v>56.7</v>
+        <v>54.7</v>
       </c>
       <c r="D80" t="n">
         <v>56.7</v>
       </c>
       <c r="E80" t="n">
-        <v>56.7</v>
+        <v>54.7</v>
       </c>
       <c r="F80" t="n">
-        <v>11</v>
+        <v>21305.0836</v>
       </c>
       <c r="G80" t="n">
-        <v>55.00499999999996</v>
+        <v>55.06999999999996</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3504,10 +3512,10 @@
         <v>56.7</v>
       </c>
       <c r="F81" t="n">
-        <v>10.7054</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>55.06999999999996</v>
+        <v>55.08666666666663</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3534,19 +3542,19 @@
         <v>56.7</v>
       </c>
       <c r="C82" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="D82" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="E82" t="n">
         <v>56.7</v>
       </c>
       <c r="F82" t="n">
-        <v>413.2946</v>
+        <v>10.7054</v>
       </c>
       <c r="G82" t="n">
-        <v>55.18499999999996</v>
+        <v>55.12999999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3570,22 +3578,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>57.3</v>
+        <v>56.7</v>
       </c>
       <c r="C83" t="n">
-        <v>56.4</v>
+        <v>57.2</v>
       </c>
       <c r="D83" t="n">
-        <v>57.3</v>
+        <v>57.2</v>
       </c>
       <c r="E83" t="n">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1637.9999</v>
+        <v>413.2946</v>
       </c>
       <c r="G83" t="n">
-        <v>55.32999999999995</v>
+        <v>55.17166666666663</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3612,19 +3620,19 @@
         <v>57.3</v>
       </c>
       <c r="C84" t="n">
-        <v>57.3</v>
+        <v>56.4</v>
       </c>
       <c r="D84" t="n">
         <v>57.3</v>
       </c>
       <c r="E84" t="n">
-        <v>57.3</v>
+        <v>56.4</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>1637.9999</v>
       </c>
       <c r="G84" t="n">
-        <v>55.47999999999995</v>
+        <v>55.2083333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3648,98 +3656,94 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>56.3</v>
+        <v>57.3</v>
       </c>
       <c r="C85" t="n">
-        <v>57.2</v>
+        <v>57.3</v>
       </c>
       <c r="D85" t="n">
-        <v>57.2</v>
+        <v>57.3</v>
       </c>
       <c r="E85" t="n">
-        <v>56.2</v>
+        <v>57.3</v>
       </c>
       <c r="F85" t="n">
-        <v>7580</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>55.57999999999995</v>
+        <v>55.24999999999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>57.3</v>
+        <v>56.3</v>
       </c>
       <c r="C86" t="n">
-        <v>57.4</v>
+        <v>57.2</v>
       </c>
       <c r="D86" t="n">
-        <v>57.4</v>
+        <v>57.2</v>
       </c>
       <c r="E86" t="n">
-        <v>57.3</v>
+        <v>56.2</v>
       </c>
       <c r="F86" t="n">
-        <v>340</v>
+        <v>7580</v>
       </c>
       <c r="G86" t="n">
-        <v>55.72999999999995</v>
+        <v>55.2783333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>56.2</v>
+        <v>57.3</v>
       </c>
       <c r="C87" t="n">
-        <v>57.3</v>
+        <v>57.4</v>
       </c>
       <c r="D87" t="n">
         <v>57.4</v>
       </c>
       <c r="E87" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="F87" t="n">
-        <v>6095.9999</v>
+        <v>340</v>
       </c>
       <c r="G87" t="n">
-        <v>55.79999999999995</v>
+        <v>55.3083333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3759,22 +3763,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>56.7</v>
+        <v>56.2</v>
       </c>
       <c r="C88" t="n">
-        <v>56.7</v>
+        <v>57.3</v>
       </c>
       <c r="D88" t="n">
-        <v>56.7</v>
+        <v>57.4</v>
       </c>
       <c r="E88" t="n">
-        <v>55.7</v>
+        <v>56</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>6095.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>55.91999999999996</v>
+        <v>55.34499999999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3794,22 +3798,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>55.9</v>
+        <v>56.7</v>
       </c>
       <c r="C89" t="n">
-        <v>56.2</v>
+        <v>56.7</v>
       </c>
       <c r="D89" t="n">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
       <c r="E89" t="n">
         <v>55.7</v>
       </c>
       <c r="F89" t="n">
-        <v>22036</v>
+        <v>31</v>
       </c>
       <c r="G89" t="n">
-        <v>55.97499999999997</v>
+        <v>55.3683333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3829,28 +3833,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C90" t="n">
         <v>56.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>56.3</v>
       </c>
       <c r="D90" t="n">
         <v>56.3</v>
       </c>
       <c r="E90" t="n">
-        <v>56.2</v>
+        <v>55.7</v>
       </c>
       <c r="F90" t="n">
-        <v>6932</v>
+        <v>22036</v>
       </c>
       <c r="G90" t="n">
-        <v>56.05499999999997</v>
+        <v>55.39499999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3864,22 +3868,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C91" t="n">
         <v>56.3</v>
       </c>
-      <c r="C91" t="n">
-        <v>56.6</v>
-      </c>
       <c r="D91" t="n">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="E91" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="F91" t="n">
-        <v>12834.5873</v>
+        <v>6932</v>
       </c>
       <c r="G91" t="n">
-        <v>56.13999999999997</v>
+        <v>55.40666666666664</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3899,22 +3903,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="C92" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="D92" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="E92" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="F92" t="n">
-        <v>3227</v>
+        <v>12834.5873</v>
       </c>
       <c r="G92" t="n">
-        <v>56.23499999999998</v>
+        <v>55.43999999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3946,10 +3950,10 @@
         <v>56.4</v>
       </c>
       <c r="F93" t="n">
-        <v>1076</v>
+        <v>3227</v>
       </c>
       <c r="G93" t="n">
-        <v>56.29999999999999</v>
+        <v>55.45666666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3969,22 +3973,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="C94" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="D94" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="E94" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>1076</v>
       </c>
       <c r="G94" t="n">
-        <v>56.36499999999999</v>
+        <v>55.47666666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4004,22 +4008,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="C95" t="n">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
       <c r="D95" t="n">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
       <c r="E95" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="F95" t="n">
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>56.42999999999999</v>
+        <v>55.49499999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4039,22 +4043,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C96" t="n">
         <v>56.7</v>
       </c>
-      <c r="C96" t="n">
-        <v>57.3</v>
-      </c>
       <c r="D96" t="n">
-        <v>57.3</v>
+        <v>56.7</v>
       </c>
       <c r="E96" t="n">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="F96" t="n">
-        <v>12257.7801</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>56.48999999999999</v>
+        <v>55.51499999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4074,22 +4078,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
       <c r="C97" t="n">
-        <v>56.2</v>
+        <v>57.3</v>
       </c>
       <c r="D97" t="n">
-        <v>56.4</v>
+        <v>57.3</v>
       </c>
       <c r="E97" t="n">
-        <v>56.2</v>
+        <v>56.7</v>
       </c>
       <c r="F97" t="n">
-        <v>4147.7967</v>
+        <v>12257.7801</v>
       </c>
       <c r="G97" t="n">
-        <v>56.53499999999999</v>
+        <v>55.54499999999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4109,22 +4113,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>57.1</v>
+        <v>56.4</v>
       </c>
       <c r="C98" t="n">
-        <v>57.2</v>
+        <v>56.2</v>
       </c>
       <c r="D98" t="n">
-        <v>57.3</v>
+        <v>56.4</v>
       </c>
       <c r="E98" t="n">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="F98" t="n">
-        <v>8612</v>
+        <v>4147.7967</v>
       </c>
       <c r="G98" t="n">
-        <v>56.59499999999998</v>
+        <v>55.5583333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4144,22 +4148,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>56.3</v>
+        <v>57.1</v>
       </c>
       <c r="C99" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="D99" t="n">
-        <v>57</v>
+        <v>57.3</v>
       </c>
       <c r="E99" t="n">
         <v>56.3</v>
       </c>
       <c r="F99" t="n">
-        <v>6555.5205</v>
+        <v>8612</v>
       </c>
       <c r="G99" t="n">
-        <v>56.59999999999998</v>
+        <v>55.5883333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4179,22 +4183,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>56.1</v>
+        <v>56.3</v>
       </c>
       <c r="C100" t="n">
-        <v>56.1</v>
+        <v>57</v>
       </c>
       <c r="D100" t="n">
-        <v>56.1</v>
+        <v>57</v>
       </c>
       <c r="E100" t="n">
-        <v>56.1</v>
+        <v>56.3</v>
       </c>
       <c r="F100" t="n">
-        <v>822.8908</v>
+        <v>6555.5205</v>
       </c>
       <c r="G100" t="n">
-        <v>56.56999999999997</v>
+        <v>55.61499999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4214,22 +4218,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C101" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="D101" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="E101" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="F101" t="n">
-        <v>4264.9999</v>
+        <v>822.8908</v>
       </c>
       <c r="G101" t="n">
-        <v>56.52999999999997</v>
+        <v>55.63166666666663</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4261,10 +4265,10 @@
         <v>55.9</v>
       </c>
       <c r="F102" t="n">
-        <v>800</v>
+        <v>4264.9999</v>
       </c>
       <c r="G102" t="n">
-        <v>56.48999999999997</v>
+        <v>55.6383333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4287,19 +4291,19 @@
         <v>55.9</v>
       </c>
       <c r="C103" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="D103" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="E103" t="n">
         <v>55.9</v>
       </c>
       <c r="F103" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>56.41999999999998</v>
+        <v>55.64499999999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4319,22 +4323,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C104" t="n">
-        <v>55.7</v>
+        <v>56</v>
       </c>
       <c r="D104" t="n">
-        <v>55.7</v>
+        <v>56</v>
       </c>
       <c r="E104" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="F104" t="n">
-        <v>5916.8841</v>
+        <v>400</v>
       </c>
       <c r="G104" t="n">
-        <v>56.33999999999999</v>
+        <v>55.6533333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4354,22 +4358,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="C105" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="D105" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="E105" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>5916.8841</v>
       </c>
       <c r="G105" t="n">
-        <v>56.38999999999999</v>
+        <v>55.65666666666663</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4389,7 +4393,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>55.9</v>
+        <v>57.3</v>
       </c>
       <c r="C106" t="n">
         <v>57.3</v>
@@ -4398,13 +4402,13 @@
         <v>57.3</v>
       </c>
       <c r="E106" t="n">
-        <v>55.9</v>
+        <v>57.3</v>
       </c>
       <c r="F106" t="n">
-        <v>1369.7575</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>56.31999999999999</v>
+        <v>55.68666666666663</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4424,22 +4428,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="C107" t="n">
-        <v>56.2</v>
+        <v>57.3</v>
       </c>
       <c r="D107" t="n">
-        <v>56.2</v>
+        <v>57.3</v>
       </c>
       <c r="E107" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="F107" t="n">
-        <v>857.2066</v>
+        <v>1369.7575</v>
       </c>
       <c r="G107" t="n">
-        <v>56.31999999999999</v>
+        <v>55.71499999999997</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4459,22 +4463,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>57.2</v>
+        <v>56.2</v>
       </c>
       <c r="C108" t="n">
-        <v>57.2</v>
+        <v>56.2</v>
       </c>
       <c r="D108" t="n">
-        <v>57.2</v>
+        <v>56.2</v>
       </c>
       <c r="E108" t="n">
-        <v>57.2</v>
+        <v>56.2</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>857.2066</v>
       </c>
       <c r="G108" t="n">
-        <v>56.34499999999999</v>
+        <v>55.73666666666664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4494,22 +4498,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="C109" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="D109" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="E109" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="F109" t="n">
-        <v>6188</v>
+        <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>56.34999999999999</v>
+        <v>55.78166666666663</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4529,22 +4533,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="C110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="D110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="E110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>6188</v>
       </c>
       <c r="G110" t="n">
-        <v>56.37499999999999</v>
+        <v>55.79666666666663</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4564,22 +4568,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
       <c r="C111" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
       <c r="D111" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
       <c r="E111" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
       <c r="F111" t="n">
         <v>11</v>
       </c>
       <c r="G111" t="n">
-        <v>56.41499999999998</v>
+        <v>55.83333333333329</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4599,22 +4603,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>56</v>
+        <v>57.1</v>
       </c>
       <c r="C112" t="n">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="D112" t="n">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="E112" t="n">
-        <v>56</v>
+        <v>57.1</v>
       </c>
       <c r="F112" t="n">
-        <v>7468.9999</v>
+        <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>56.39499999999998</v>
+        <v>55.87833333333329</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4634,22 +4638,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="C113" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="D113" t="n">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="E113" t="n">
         <v>56</v>
       </c>
       <c r="F113" t="n">
-        <v>60408.2792</v>
+        <v>7468.9999</v>
       </c>
       <c r="G113" t="n">
-        <v>56.38999999999997</v>
+        <v>55.92499999999995</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4669,22 +4673,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="C114" t="n">
         <v>56</v>
       </c>
       <c r="D114" t="n">
-        <v>56</v>
+        <v>57.1</v>
       </c>
       <c r="E114" t="n">
         <v>56</v>
       </c>
       <c r="F114" t="n">
-        <v>353</v>
+        <v>60408.2792</v>
       </c>
       <c r="G114" t="n">
-        <v>56.36499999999997</v>
+        <v>55.93666666666662</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4716,10 +4720,10 @@
         <v>56</v>
       </c>
       <c r="F115" t="n">
-        <v>4665.3723</v>
+        <v>353</v>
       </c>
       <c r="G115" t="n">
-        <v>56.33499999999998</v>
+        <v>55.95499999999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4751,10 +4755,10 @@
         <v>56</v>
       </c>
       <c r="F116" t="n">
-        <v>2827.5994</v>
+        <v>4665.3723</v>
       </c>
       <c r="G116" t="n">
-        <v>56.29999999999998</v>
+        <v>55.95999999999995</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4769,6 +4773,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>56</v>
+      </c>
+      <c r="C117" t="n">
+        <v>56</v>
+      </c>
+      <c r="D117" t="n">
+        <v>56</v>
+      </c>
+      <c r="E117" t="n">
+        <v>56</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2827.5994</v>
+      </c>
+      <c r="G117" t="n">
+        <v>55.97833333333328</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="C2" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="D2" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="E2" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>56.1</v>
+        <v>-314792.1124</v>
       </c>
       <c r="H2" t="n">
-        <v>55.24333333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>53.4</v>
+        <v>58.1</v>
       </c>
       <c r="D3" t="n">
-        <v>55.6</v>
+        <v>58.1</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>11127.0958</v>
+        <v>70723.5903</v>
       </c>
       <c r="G3" t="n">
-        <v>55.94</v>
+        <v>-244068.5221</v>
       </c>
       <c r="H3" t="n">
-        <v>55.25333333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55.9</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>55.9</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>55.81333333333334</v>
+        <v>-244118.5221</v>
       </c>
       <c r="H4" t="n">
-        <v>55.29</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="C5" t="n">
-        <v>54.8</v>
+        <v>57.4</v>
       </c>
       <c r="D5" t="n">
-        <v>54.8</v>
+        <v>57.4</v>
       </c>
       <c r="E5" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="F5" t="n">
-        <v>14536.1276</v>
+        <v>6323.2071</v>
       </c>
       <c r="G5" t="n">
-        <v>55.64666666666667</v>
+        <v>-250441.7292</v>
       </c>
       <c r="H5" t="n">
-        <v>55.32333333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53.5</v>
+        <v>57.9</v>
       </c>
       <c r="C6" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="D6" t="n">
-        <v>54.8</v>
+        <v>57.9</v>
       </c>
       <c r="E6" t="n">
-        <v>53.5</v>
+        <v>56.1</v>
       </c>
       <c r="F6" t="n">
-        <v>59.875</v>
+        <v>11862.9568</v>
       </c>
       <c r="G6" t="n">
-        <v>55.56</v>
+        <v>-262304.686</v>
       </c>
       <c r="H6" t="n">
-        <v>55.355</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="C7" t="n">
-        <v>53.8</v>
+        <v>56.2</v>
       </c>
       <c r="D7" t="n">
-        <v>54.8</v>
+        <v>56.2</v>
       </c>
       <c r="E7" t="n">
-        <v>53.8</v>
+        <v>56.2</v>
       </c>
       <c r="F7" t="n">
-        <v>5616.363</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>55.33333333333333</v>
+        <v>-261304.686</v>
       </c>
       <c r="H7" t="n">
-        <v>55.37</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54.8</v>
+        <v>56.3</v>
       </c>
       <c r="C8" t="n">
-        <v>54.8</v>
+        <v>56.4</v>
       </c>
       <c r="D8" t="n">
-        <v>54.8</v>
+        <v>57.9</v>
       </c>
       <c r="E8" t="n">
-        <v>54.8</v>
+        <v>56.2</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>16002.2997</v>
       </c>
       <c r="G8" t="n">
-        <v>55.23999999999999</v>
+        <v>-245302.3863</v>
       </c>
       <c r="H8" t="n">
-        <v>55.40833333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="C9" t="n">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="D9" t="n">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="E9" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1153.4317</v>
+        <v>5037.25</v>
       </c>
       <c r="G9" t="n">
-        <v>55.21333333333332</v>
+        <v>-250339.6363</v>
       </c>
       <c r="H9" t="n">
-        <v>55.45500000000001</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53.8</v>
+        <v>56.3</v>
       </c>
       <c r="C10" t="n">
-        <v>53.8</v>
+        <v>56.3</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8</v>
+        <v>56.3</v>
       </c>
       <c r="E10" t="n">
-        <v>53.8</v>
+        <v>56.3</v>
       </c>
       <c r="F10" t="n">
-        <v>671.735</v>
+        <v>17733.3968</v>
       </c>
       <c r="G10" t="n">
-        <v>55.08666666666665</v>
+        <v>-250339.6363</v>
       </c>
       <c r="H10" t="n">
-        <v>55.47500000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -792,24 +760,21 @@
         <v>55.8</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="n">
-        <v>55.10666666666665</v>
+        <v>-251839.6363</v>
       </c>
       <c r="H11" t="n">
-        <v>55.52333333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C12" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="E12" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>35544.3761</v>
       </c>
       <c r="G12" t="n">
-        <v>55.13333333333331</v>
+        <v>-287384.0124</v>
       </c>
       <c r="H12" t="n">
-        <v>55.57333333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="C13" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="E13" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>5905.8618</v>
       </c>
       <c r="G13" t="n">
-        <v>55.15999999999998</v>
+        <v>-293289.8742</v>
       </c>
       <c r="H13" t="n">
-        <v>55.62333333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>54.4</v>
+        <v>55.6</v>
       </c>
       <c r="C14" t="n">
-        <v>54.4</v>
+        <v>57.9</v>
       </c>
       <c r="D14" t="n">
-        <v>54.4</v>
+        <v>57.9</v>
       </c>
       <c r="E14" t="n">
-        <v>54.4</v>
+        <v>55.6</v>
       </c>
       <c r="F14" t="n">
-        <v>3274.3371</v>
+        <v>25016.88530034</v>
       </c>
       <c r="G14" t="n">
-        <v>55.07999999999997</v>
+        <v>-268272.98889966</v>
       </c>
       <c r="H14" t="n">
-        <v>55.64833333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>55.9</v>
+        <v>57.3</v>
       </c>
       <c r="C15" t="n">
         <v>55.9</v>
       </c>
       <c r="D15" t="n">
-        <v>55.9</v>
+        <v>57.3</v>
       </c>
       <c r="E15" t="n">
         <v>55.9</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>1600</v>
       </c>
       <c r="G15" t="n">
-        <v>55.07999999999997</v>
+        <v>-269872.98889966</v>
       </c>
       <c r="H15" t="n">
-        <v>55.69833333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>54.3</v>
+        <v>56.4</v>
       </c>
       <c r="C16" t="n">
-        <v>55.7</v>
+        <v>57.3</v>
       </c>
       <c r="D16" t="n">
-        <v>55.8</v>
+        <v>57.3</v>
       </c>
       <c r="E16" t="n">
-        <v>54.3</v>
+        <v>56.3</v>
       </c>
       <c r="F16" t="n">
-        <v>4555.2091</v>
+        <v>9099.128699999999</v>
       </c>
       <c r="G16" t="n">
-        <v>55.06666666666664</v>
+        <v>-260773.86019966</v>
       </c>
       <c r="H16" t="n">
-        <v>55.745</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="C17" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="D17" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="E17" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="F17" t="n">
-        <v>39.6925</v>
+        <v>3313.8145</v>
       </c>
       <c r="G17" t="n">
-        <v>54.99999999999998</v>
+        <v>-264087.67469966</v>
       </c>
       <c r="H17" t="n">
-        <v>55.785</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>54.3</v>
+        <v>56.9</v>
       </c>
       <c r="C18" t="n">
-        <v>54.3</v>
+        <v>56.9</v>
       </c>
       <c r="D18" t="n">
-        <v>54.3</v>
+        <v>56.9</v>
       </c>
       <c r="E18" t="n">
-        <v>54.3</v>
+        <v>56.9</v>
       </c>
       <c r="F18" t="n">
-        <v>19.7966</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>55.05999999999997</v>
+        <v>-264077.67469966</v>
       </c>
       <c r="H18" t="n">
-        <v>55.81500000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>55.3</v>
+        <v>56.4</v>
       </c>
       <c r="C19" t="n">
-        <v>55.3</v>
+        <v>57.3</v>
       </c>
       <c r="D19" t="n">
-        <v>55.3</v>
+        <v>57.3</v>
       </c>
       <c r="E19" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>1897.208</v>
       </c>
       <c r="G19" t="n">
-        <v>55.07999999999997</v>
+        <v>-262180.46669966</v>
       </c>
       <c r="H19" t="n">
-        <v>55.85666666666668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="C20" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="D20" t="n">
-        <v>55.4</v>
+        <v>56.2</v>
       </c>
       <c r="E20" t="n">
-        <v>55.3</v>
+        <v>56.1</v>
       </c>
       <c r="F20" t="n">
-        <v>18254.0001</v>
+        <v>28607.5437</v>
       </c>
       <c r="G20" t="n">
-        <v>55.11999999999998</v>
+        <v>-290788.01039966</v>
       </c>
       <c r="H20" t="n">
-        <v>55.90500000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>55.7</v>
+        <v>56.6</v>
       </c>
       <c r="C21" t="n">
-        <v>55.7</v>
+        <v>57.2</v>
       </c>
       <c r="D21" t="n">
-        <v>55.7</v>
+        <v>57.2</v>
       </c>
       <c r="E21" t="n">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>12974.9434</v>
       </c>
       <c r="G21" t="n">
-        <v>55.17999999999998</v>
+        <v>-277813.06699966</v>
       </c>
       <c r="H21" t="n">
-        <v>55.96000000000001</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="C22" t="n">
-        <v>54.1</v>
+        <v>56.2</v>
       </c>
       <c r="D22" t="n">
-        <v>54.9</v>
+        <v>56.2</v>
       </c>
       <c r="E22" t="n">
-        <v>54.1</v>
+        <v>56.1</v>
       </c>
       <c r="F22" t="n">
-        <v>41148.7903</v>
+        <v>8124.6412</v>
       </c>
       <c r="G22" t="n">
-        <v>55.19999999999998</v>
+        <v>-285937.70819966</v>
       </c>
       <c r="H22" t="n">
-        <v>55.96166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="C23" t="n">
-        <v>54.7</v>
+        <v>56.1</v>
       </c>
       <c r="D23" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="E23" t="n">
-        <v>54.7</v>
+        <v>56.1</v>
       </c>
       <c r="F23" t="n">
-        <v>6249.154</v>
+        <v>12812.0228</v>
       </c>
       <c r="G23" t="n">
-        <v>55.19333333333332</v>
+        <v>-298749.73099966</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91666666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="C24" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="D24" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="E24" t="n">
-        <v>54.2</v>
+        <v>55.7</v>
       </c>
       <c r="F24" t="n">
-        <v>58269.4272</v>
+        <v>300</v>
       </c>
       <c r="G24" t="n">
-        <v>55.09333333333333</v>
+        <v>-299049.73099966</v>
       </c>
       <c r="H24" t="n">
-        <v>55.86333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.2</v>
+        <v>55.5</v>
       </c>
       <c r="C25" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="D25" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="E25" t="n">
-        <v>54.2</v>
+        <v>55.5</v>
       </c>
       <c r="F25" t="n">
-        <v>6503.988</v>
+        <v>959.6482</v>
       </c>
       <c r="G25" t="n">
-        <v>55.15999999999999</v>
+        <v>-300009.37919966</v>
       </c>
       <c r="H25" t="n">
-        <v>55.82166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="C26" t="n">
         <v>55.5</v>
@@ -1359,27 +1282,24 @@
         <v>55.5</v>
       </c>
       <c r="E26" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>820.9999</v>
       </c>
       <c r="G26" t="n">
-        <v>55.13999999999999</v>
+        <v>-300009.37919966</v>
       </c>
       <c r="H26" t="n">
-        <v>55.79333333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="C27" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D27" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E27" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>6472.9956</v>
       </c>
       <c r="G27" t="n">
-        <v>55.12</v>
+        <v>-300009.37919966</v>
       </c>
       <c r="H27" t="n">
-        <v>55.76666666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="C28" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="D28" t="n">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
       <c r="E28" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F28" t="n">
-        <v>4185.6904</v>
+        <v>8873.730799999999</v>
       </c>
       <c r="G28" t="n">
-        <v>55.06666666666667</v>
+        <v>-291135.64839966</v>
       </c>
       <c r="H28" t="n">
-        <v>55.76</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="C29" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="D29" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="E29" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="F29" t="n">
-        <v>15115.088</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>55.12666666666667</v>
+        <v>-291124.64839966</v>
       </c>
       <c r="H29" t="n">
-        <v>55.73166666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="C30" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="D30" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="E30" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="F30" t="n">
-        <v>19.7967</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>55.04</v>
+        <v>-291124.64839966</v>
       </c>
       <c r="H30" t="n">
-        <v>55.69</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="C31" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="D31" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="E31" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>55.03333333333333</v>
+        <v>-291114.64839966</v>
       </c>
       <c r="H31" t="n">
-        <v>55.67166666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="C32" t="n">
-        <v>54.6</v>
+        <v>53.4</v>
       </c>
       <c r="D32" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="E32" t="n">
-        <v>54.6</v>
+        <v>53.4</v>
       </c>
       <c r="F32" t="n">
-        <v>1952.0548</v>
+        <v>11127.0958</v>
       </c>
       <c r="G32" t="n">
-        <v>54.98666666666667</v>
+        <v>-302241.74419966</v>
       </c>
       <c r="H32" t="n">
-        <v>55.66833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="C33" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="D33" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="E33" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="G33" t="n">
-        <v>55.06000000000001</v>
+        <v>-302010.74419966</v>
       </c>
       <c r="H33" t="n">
-        <v>55.65666666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="C34" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="D34" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="E34" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="F34" t="n">
-        <v>1149.2697</v>
+        <v>14536.1276</v>
       </c>
       <c r="G34" t="n">
-        <v>55.05333333333335</v>
+        <v>-316546.87179966</v>
       </c>
       <c r="H34" t="n">
-        <v>55.60833333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>55.4</v>
+        <v>53.5</v>
       </c>
       <c r="C35" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="D35" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="E35" t="n">
-        <v>55.4</v>
+        <v>53.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3416</v>
+        <v>59.875</v>
       </c>
       <c r="G35" t="n">
-        <v>55.05333333333335</v>
+        <v>-316546.87179966</v>
       </c>
       <c r="H35" t="n">
-        <v>55.565</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="C36" t="n">
-        <v>55.5</v>
+        <v>53.8</v>
       </c>
       <c r="D36" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="E36" t="n">
-        <v>55.5</v>
+        <v>53.8</v>
       </c>
       <c r="F36" t="n">
-        <v>1972</v>
+        <v>5616.363</v>
       </c>
       <c r="G36" t="n">
-        <v>55.04000000000001</v>
+        <v>-322163.23479966</v>
       </c>
       <c r="H36" t="n">
-        <v>55.53333333333333</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1664,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="C37" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="D37" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="E37" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="F37" t="n">
-        <v>796</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>55.13333333333334</v>
+        <v>-322152.23479966</v>
       </c>
       <c r="H37" t="n">
-        <v>55.52333333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1703,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>55.4</v>
+        <v>54.5</v>
       </c>
       <c r="C38" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="D38" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="E38" t="n">
-        <v>55.4</v>
+        <v>54.5</v>
       </c>
       <c r="F38" t="n">
-        <v>2688</v>
+        <v>1153.4317</v>
       </c>
       <c r="G38" t="n">
-        <v>55.18</v>
+        <v>-320998.80309966</v>
       </c>
       <c r="H38" t="n">
-        <v>55.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1742,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>55.4</v>
+        <v>53.8</v>
       </c>
       <c r="C39" t="n">
-        <v>55.4</v>
+        <v>53.8</v>
       </c>
       <c r="D39" t="n">
-        <v>55.4</v>
+        <v>53.8</v>
       </c>
       <c r="E39" t="n">
-        <v>55.4</v>
+        <v>53.8</v>
       </c>
       <c r="F39" t="n">
-        <v>6265.1555</v>
+        <v>671.735</v>
       </c>
       <c r="G39" t="n">
-        <v>55.26</v>
+        <v>-321670.53809966</v>
       </c>
       <c r="H39" t="n">
-        <v>55.49333333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1781,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C40" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="D40" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="E40" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.6829</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>55.3</v>
+        <v>-321659.53809966</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47833333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1820,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="C41" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="D41" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="E41" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="F41" t="n">
-        <v>48976.9015</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>55.27333333333333</v>
+        <v>-321648.53809966</v>
       </c>
       <c r="H41" t="n">
-        <v>55.45833333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1859,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C42" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="D42" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="E42" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F42" t="n">
-        <v>13055.5084</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>55.26666666666667</v>
+        <v>-321648.53809966</v>
       </c>
       <c r="H42" t="n">
-        <v>55.45333333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1898,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>55.5</v>
+        <v>54.4</v>
       </c>
       <c r="C43" t="n">
-        <v>55.5</v>
+        <v>54.4</v>
       </c>
       <c r="D43" t="n">
-        <v>55.5</v>
+        <v>54.4</v>
       </c>
       <c r="E43" t="n">
-        <v>55.5</v>
+        <v>54.4</v>
       </c>
       <c r="F43" t="n">
-        <v>15982.0787</v>
+        <v>3274.3371</v>
       </c>
       <c r="G43" t="n">
-        <v>55.29333333333333</v>
+        <v>-324922.87519966</v>
       </c>
       <c r="H43" t="n">
-        <v>55.45</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1937,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="C44" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="D44" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="E44" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="F44" t="n">
-        <v>1458.2386</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>55.30666666666666</v>
+        <v>-324911.87519966</v>
       </c>
       <c r="H44" t="n">
-        <v>55.45333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1976,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>55.5</v>
+        <v>54.3</v>
       </c>
       <c r="C45" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="D45" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="E45" t="n">
-        <v>55.5</v>
+        <v>54.3</v>
       </c>
       <c r="F45" t="n">
-        <v>713.7686</v>
+        <v>4555.2091</v>
       </c>
       <c r="G45" t="n">
-        <v>55.36666666666667</v>
+        <v>-329467.0842996599</v>
       </c>
       <c r="H45" t="n">
-        <v>55.41333333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2015,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C46" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="D46" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E46" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>39.6925</v>
       </c>
       <c r="G46" t="n">
-        <v>55.36</v>
+        <v>-329506.7767996599</v>
       </c>
       <c r="H46" t="n">
-        <v>55.40666666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2054,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="C47" t="n">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="D47" t="n">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="E47" t="n">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>19.7966</v>
       </c>
       <c r="G47" t="n">
-        <v>55.42666666666666</v>
+        <v>-329526.5733996599</v>
       </c>
       <c r="H47" t="n">
-        <v>55.37833333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2093,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="C48" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="D48" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="E48" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="F48" t="n">
-        <v>5263.67</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>55.39333333333333</v>
+        <v>-329515.5733996599</v>
       </c>
       <c r="H48" t="n">
-        <v>55.36333333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2132,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>54.5</v>
+        <v>55.3</v>
       </c>
       <c r="C49" t="n">
-        <v>54.5</v>
+        <v>55.4</v>
       </c>
       <c r="D49" t="n">
-        <v>54.5</v>
+        <v>55.4</v>
       </c>
       <c r="E49" t="n">
-        <v>54.5</v>
+        <v>55.3</v>
       </c>
       <c r="F49" t="n">
-        <v>13798.8271</v>
+        <v>18254.0001</v>
       </c>
       <c r="G49" t="n">
-        <v>55.34666666666666</v>
+        <v>-311261.5732996599</v>
       </c>
       <c r="H49" t="n">
-        <v>55.32333333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2171,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>54.5</v>
+        <v>55.7</v>
       </c>
       <c r="C50" t="n">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
       <c r="D50" t="n">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
       <c r="E50" t="n">
-        <v>54.5</v>
+        <v>55.7</v>
       </c>
       <c r="F50" t="n">
-        <v>5186</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>55.32666666666667</v>
+        <v>-311250.5732996599</v>
       </c>
       <c r="H50" t="n">
-        <v>55.28666666666665</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2210,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="C51" t="n">
-        <v>54.5</v>
+        <v>54.1</v>
       </c>
       <c r="D51" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="E51" t="n">
-        <v>54.5</v>
+        <v>54.1</v>
       </c>
       <c r="F51" t="n">
-        <v>1855</v>
+        <v>41148.7903</v>
       </c>
       <c r="G51" t="n">
-        <v>55.26</v>
+        <v>-352399.3635996599</v>
       </c>
       <c r="H51" t="n">
-        <v>55.25999999999998</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2249,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C52" t="n">
-        <v>54.4</v>
+        <v>54.7</v>
       </c>
       <c r="D52" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="E52" t="n">
-        <v>54.4</v>
+        <v>54.7</v>
       </c>
       <c r="F52" t="n">
-        <v>15921.3639</v>
+        <v>6249.154</v>
       </c>
       <c r="G52" t="n">
-        <v>55.18666666666666</v>
+        <v>-346150.20959966</v>
       </c>
       <c r="H52" t="n">
-        <v>55.21333333333332</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,33 +2291,34 @@
         <v>54.4</v>
       </c>
       <c r="C53" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="D53" t="n">
         <v>54.4</v>
       </c>
       <c r="E53" t="n">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="F53" t="n">
-        <v>36714.3224</v>
+        <v>58269.4272</v>
       </c>
       <c r="G53" t="n">
-        <v>55.12</v>
+        <v>-404419.6367996599</v>
       </c>
       <c r="H53" t="n">
-        <v>55.18333333333332</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2327,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.3</v>
+        <v>54.2</v>
       </c>
       <c r="C54" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="D54" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="E54" t="n">
-        <v>55.3</v>
+        <v>54.2</v>
       </c>
       <c r="F54" t="n">
-        <v>10.11</v>
+        <v>6503.988</v>
       </c>
       <c r="G54" t="n">
-        <v>55.11333333333333</v>
+        <v>-397915.6487996599</v>
       </c>
       <c r="H54" t="n">
-        <v>55.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2366,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="C55" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E55" t="n">
         <v>54.9</v>
       </c>
-      <c r="D55" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>54.6</v>
-      </c>
       <c r="F55" t="n">
-        <v>60682.99692365</v>
+        <v>22</v>
       </c>
       <c r="G55" t="n">
-        <v>55.08</v>
+        <v>-397893.6487996599</v>
       </c>
       <c r="H55" t="n">
-        <v>55.15666666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2405,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="C56" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="D56" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="E56" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="F56" t="n">
-        <v>10.18</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>55.12</v>
+        <v>-397882.6487996599</v>
       </c>
       <c r="H56" t="n">
-        <v>55.16</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2444,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>54.9</v>
+        <v>55.1</v>
       </c>
       <c r="D57" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E57" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F57" t="n">
-        <v>3590.0397</v>
+        <v>4185.6904</v>
       </c>
       <c r="G57" t="n">
-        <v>55.08</v>
+        <v>-402068.3391996599</v>
       </c>
       <c r="H57" t="n">
-        <v>55.15</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2483,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="C58" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="D58" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="E58" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="F58" t="n">
-        <v>10.11</v>
+        <v>15115.088</v>
       </c>
       <c r="G58" t="n">
-        <v>55.08666666666667</v>
+        <v>-386953.2511996599</v>
       </c>
       <c r="H58" t="n">
-        <v>55.15166666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2522,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="C59" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="D59" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="E59" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="F59" t="n">
-        <v>120.3237</v>
+        <v>19.7967</v>
       </c>
       <c r="G59" t="n">
-        <v>55.09333333333333</v>
+        <v>-386973.04789966</v>
       </c>
       <c r="H59" t="n">
-        <v>55.15166666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2561,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="C60" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="D60" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="E60" t="n">
-        <v>54.6</v>
+        <v>55.6</v>
       </c>
       <c r="F60" t="n">
-        <v>947.9999</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>55.03333333333333</v>
+        <v>-386963.04789966</v>
       </c>
       <c r="H60" t="n">
-        <v>55.13</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2600,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="C61" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="D61" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="E61" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="F61" t="n">
-        <v>11.18</v>
+        <v>1952.0548</v>
       </c>
       <c r="G61" t="n">
-        <v>55.04</v>
+        <v>-388915.1026996599</v>
       </c>
       <c r="H61" t="n">
-        <v>55.12499999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2730,24 +2651,25 @@
         <v>55.4</v>
       </c>
       <c r="F62" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>55.02666666666666</v>
+        <v>-388904.1026996599</v>
       </c>
       <c r="H62" t="n">
-        <v>55.10999999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2678,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="C63" t="n">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="D63" t="n">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="E63" t="n">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="F63" t="n">
-        <v>3106.3249</v>
+        <v>1149.2697</v>
       </c>
       <c r="G63" t="n">
-        <v>54.99333333333333</v>
+        <v>-390053.3723996599</v>
       </c>
       <c r="H63" t="n">
-        <v>55.12666666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2717,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="C64" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="D64" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="E64" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="F64" t="n">
-        <v>3567.326</v>
+        <v>3416</v>
       </c>
       <c r="G64" t="n">
-        <v>54.98666666666666</v>
+        <v>-386637.3723996599</v>
       </c>
       <c r="H64" t="n">
-        <v>55.11666666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2756,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="C65" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="D65" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="E65" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="F65" t="n">
-        <v>5836.932</v>
+        <v>1972</v>
       </c>
       <c r="G65" t="n">
-        <v>54.93333333333332</v>
+        <v>-384665.3723996599</v>
       </c>
       <c r="H65" t="n">
-        <v>55.10833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2795,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="C66" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="D66" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="E66" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="F66" t="n">
-        <v>966.9999</v>
+        <v>796</v>
       </c>
       <c r="G66" t="n">
-        <v>54.91999999999999</v>
+        <v>-384665.3723996599</v>
       </c>
       <c r="H66" t="n">
-        <v>55.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,40 +2834,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>54.3</v>
+        <v>55.4</v>
       </c>
       <c r="C67" t="n">
-        <v>54.3</v>
+        <v>55.4</v>
       </c>
       <c r="D67" t="n">
-        <v>54.3</v>
+        <v>55.4</v>
       </c>
       <c r="E67" t="n">
-        <v>54.3</v>
+        <v>55.4</v>
       </c>
       <c r="F67" t="n">
-        <v>967</v>
+        <v>2688</v>
       </c>
       <c r="G67" t="n">
-        <v>54.91333333333332</v>
+        <v>-387353.3723996599</v>
       </c>
       <c r="H67" t="n">
-        <v>55.10833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="L67" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,44 +2873,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="C68" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="D68" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="E68" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>6265.1555</v>
       </c>
       <c r="G68" t="n">
-        <v>54.93999999999998</v>
+        <v>-387353.3723996599</v>
       </c>
       <c r="H68" t="n">
-        <v>55.10833333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="L68" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,44 +2912,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54.3</v>
+        <v>55.4</v>
       </c>
       <c r="C69" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="D69" t="n">
-        <v>54.3</v>
+        <v>55.4</v>
       </c>
       <c r="E69" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="F69" t="n">
-        <v>15456.3147</v>
+        <v>2661.6829</v>
       </c>
       <c r="G69" t="n">
-        <v>54.85333333333332</v>
+        <v>-387353.3723996599</v>
       </c>
       <c r="H69" t="n">
-        <v>55.08</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L69" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,44 +2951,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.8</v>
+        <v>55.3</v>
       </c>
       <c r="C70" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="D70" t="n">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
       <c r="E70" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>48976.9015</v>
       </c>
       <c r="G70" t="n">
-        <v>54.84666666666666</v>
+        <v>-436330.2738996599</v>
       </c>
       <c r="H70" t="n">
-        <v>55.09666666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>54</v>
-      </c>
-      <c r="L70" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,44 +2990,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>54.6</v>
+        <v>55.4</v>
       </c>
       <c r="C71" t="n">
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="D71" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="F71" t="n">
-        <v>13142.5959</v>
+        <v>13055.5084</v>
       </c>
       <c r="G71" t="n">
-        <v>54.73333333333332</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H71" t="n">
-        <v>55.06666666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L71" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,44 +3029,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C72" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D72" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="E72" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>15982.0787</v>
       </c>
       <c r="G72" t="n">
-        <v>54.74666666666666</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H72" t="n">
-        <v>55.05333333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>54</v>
-      </c>
-      <c r="L72" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,44 +3068,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="C73" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D73" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="E73" t="n">
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="F73" t="n">
-        <v>7800</v>
+        <v>1458.2386</v>
       </c>
       <c r="G73" t="n">
-        <v>54.71999999999999</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H73" t="n">
-        <v>55.04166666666665</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="L73" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,44 +3107,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="C74" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D74" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="E74" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F74" t="n">
-        <v>1107.77</v>
+        <v>713.7686</v>
       </c>
       <c r="G74" t="n">
-        <v>54.68666666666665</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H74" t="n">
-        <v>55.05333333333331</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L74" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,44 +3146,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="C75" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D75" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="E75" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F75" t="n">
-        <v>911.7141</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="n">
-        <v>54.72666666666666</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H75" t="n">
-        <v>55.04166666666664</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="L75" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,44 +3185,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C76" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D76" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E76" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F76" t="n">
-        <v>13046.3749</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>54.71333333333332</v>
+        <v>-423263.7654996599</v>
       </c>
       <c r="H76" t="n">
-        <v>55.03666666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="L76" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,44 +3224,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="C77" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="D77" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="E77" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="F77" t="n">
-        <v>1478</v>
+        <v>5263.67</v>
       </c>
       <c r="G77" t="n">
-        <v>54.71999999999999</v>
+        <v>-428527.4354996599</v>
       </c>
       <c r="H77" t="n">
-        <v>55.03999999999998</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="L77" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,44 +3263,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="C78" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="D78" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="E78" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="F78" t="n">
-        <v>22894.0086</v>
+        <v>13798.8271</v>
       </c>
       <c r="G78" t="n">
-        <v>54.81999999999999</v>
+        <v>-442326.2625996599</v>
       </c>
       <c r="H78" t="n">
-        <v>55.06666666666664</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="L78" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,44 +3302,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="C79" t="n">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
       <c r="D79" t="n">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
       <c r="E79" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="F79" t="n">
-        <v>11503.64307635</v>
+        <v>5186</v>
       </c>
       <c r="G79" t="n">
-        <v>54.93999999999999</v>
+        <v>-437140.2625996599</v>
       </c>
       <c r="H79" t="n">
-        <v>55.08166666666664</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="L79" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,42 +3341,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>56.2</v>
+        <v>54.5</v>
       </c>
       <c r="C80" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="D80" t="n">
-        <v>56.7</v>
+        <v>54.5</v>
       </c>
       <c r="E80" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="F80" t="n">
-        <v>21305.0836</v>
+        <v>1855</v>
       </c>
       <c r="G80" t="n">
-        <v>54.96666666666667</v>
+        <v>-438995.2625996599</v>
       </c>
       <c r="H80" t="n">
-        <v>55.06999999999996</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,42 +3380,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="C81" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="D81" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="E81" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>15921.3639</v>
       </c>
       <c r="G81" t="n">
-        <v>55.12666666666667</v>
+        <v>-454916.6264996599</v>
       </c>
       <c r="H81" t="n">
-        <v>55.08666666666663</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,42 +3419,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="C82" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="D82" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="E82" t="n">
-        <v>56.7</v>
+        <v>54.4</v>
       </c>
       <c r="F82" t="n">
-        <v>10.7054</v>
+        <v>36714.3224</v>
       </c>
       <c r="G82" t="n">
-        <v>55.28666666666668</v>
+        <v>-454916.6264996599</v>
       </c>
       <c r="H82" t="n">
-        <v>55.12999999999997</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,42 +3458,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>56.7</v>
+        <v>55.3</v>
       </c>
       <c r="C83" t="n">
-        <v>57.2</v>
+        <v>55.3</v>
       </c>
       <c r="D83" t="n">
-        <v>57.2</v>
+        <v>55.3</v>
       </c>
       <c r="E83" t="n">
-        <v>56.7</v>
+        <v>55.3</v>
       </c>
       <c r="F83" t="n">
-        <v>413.2946</v>
+        <v>10.11</v>
       </c>
       <c r="G83" t="n">
-        <v>55.44666666666669</v>
+        <v>-454906.5164996599</v>
       </c>
       <c r="H83" t="n">
-        <v>55.17166666666663</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,42 +3497,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>57.3</v>
+        <v>55</v>
       </c>
       <c r="C84" t="n">
-        <v>56.4</v>
+        <v>54.9</v>
       </c>
       <c r="D84" t="n">
-        <v>57.3</v>
+        <v>55.8</v>
       </c>
       <c r="E84" t="n">
-        <v>56.4</v>
+        <v>54.6</v>
       </c>
       <c r="F84" t="n">
-        <v>1637.9999</v>
+        <v>60682.99692365</v>
       </c>
       <c r="G84" t="n">
-        <v>55.60666666666668</v>
+        <v>-515589.5134233099</v>
       </c>
       <c r="H84" t="n">
-        <v>55.2083333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,42 +3536,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="C85" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="D85" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="E85" t="n">
-        <v>57.3</v>
+        <v>55.7</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>10.18</v>
       </c>
       <c r="G85" t="n">
-        <v>55.77333333333335</v>
+        <v>-515579.3334233099</v>
       </c>
       <c r="H85" t="n">
-        <v>55.24999999999997</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,42 +3575,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="C86" t="n">
-        <v>57.2</v>
+        <v>54.9</v>
       </c>
       <c r="D86" t="n">
-        <v>57.2</v>
+        <v>55.6</v>
       </c>
       <c r="E86" t="n">
-        <v>56.2</v>
+        <v>54.9</v>
       </c>
       <c r="F86" t="n">
-        <v>7580</v>
+        <v>3590.0397</v>
       </c>
       <c r="G86" t="n">
-        <v>55.98666666666669</v>
+        <v>-519169.3731233099</v>
       </c>
       <c r="H86" t="n">
-        <v>55.2783333333333</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>55.7</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,42 +3616,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>57.3</v>
+        <v>55.6</v>
       </c>
       <c r="C87" t="n">
-        <v>57.4</v>
+        <v>55.6</v>
       </c>
       <c r="D87" t="n">
-        <v>57.4</v>
+        <v>55.6</v>
       </c>
       <c r="E87" t="n">
-        <v>57.3</v>
+        <v>55.6</v>
       </c>
       <c r="F87" t="n">
-        <v>340</v>
+        <v>10.11</v>
       </c>
       <c r="G87" t="n">
-        <v>56.14000000000001</v>
+        <v>-519159.2631233099</v>
       </c>
       <c r="H87" t="n">
-        <v>55.3083333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,43 +3655,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="C88" t="n">
-        <v>57.3</v>
+        <v>55.6</v>
       </c>
       <c r="D88" t="n">
-        <v>57.4</v>
+        <v>55.6</v>
       </c>
       <c r="E88" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="F88" t="n">
-        <v>6095.9999</v>
+        <v>120.3237</v>
       </c>
       <c r="G88" t="n">
-        <v>56.28000000000001</v>
+        <v>-519159.2631233099</v>
       </c>
       <c r="H88" t="n">
-        <v>55.34499999999998</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>55.6</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>1.050248618784531</v>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3898,36 +3696,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>56.7</v>
+        <v>54.6</v>
       </c>
       <c r="C89" t="n">
-        <v>56.7</v>
+        <v>54.6</v>
       </c>
       <c r="D89" t="n">
-        <v>56.7</v>
+        <v>54.6</v>
       </c>
       <c r="E89" t="n">
-        <v>55.7</v>
+        <v>54.6</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>947.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>56.38666666666668</v>
+        <v>-520107.2630233099</v>
       </c>
       <c r="H89" t="n">
-        <v>55.3683333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3936,36 +3735,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="C90" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="D90" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="E90" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="F90" t="n">
-        <v>22036</v>
+        <v>11.18</v>
       </c>
       <c r="G90" t="n">
-        <v>56.45333333333335</v>
+        <v>-520096.0830233099</v>
       </c>
       <c r="H90" t="n">
-        <v>55.39499999999997</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,36 +3774,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="C91" t="n">
-        <v>56.3</v>
+        <v>55.4</v>
       </c>
       <c r="D91" t="n">
-        <v>56.3</v>
+        <v>55.4</v>
       </c>
       <c r="E91" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="F91" t="n">
-        <v>6932</v>
+        <v>10.1</v>
       </c>
       <c r="G91" t="n">
-        <v>56.51333333333334</v>
+        <v>-520106.1830233099</v>
       </c>
       <c r="H91" t="n">
-        <v>55.40666666666664</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,36 +3813,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>56.3</v>
+        <v>54.4</v>
       </c>
       <c r="C92" t="n">
-        <v>56.6</v>
+        <v>54.4</v>
       </c>
       <c r="D92" t="n">
-        <v>56.6</v>
+        <v>54.4</v>
       </c>
       <c r="E92" t="n">
-        <v>56.3</v>
+        <v>54.4</v>
       </c>
       <c r="F92" t="n">
-        <v>12834.5873</v>
+        <v>3106.3249</v>
       </c>
       <c r="G92" t="n">
-        <v>56.58666666666668</v>
+        <v>-523212.5079233099</v>
       </c>
       <c r="H92" t="n">
-        <v>55.43999999999997</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,36 +3852,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>56.4</v>
+        <v>54.4</v>
       </c>
       <c r="C93" t="n">
-        <v>56.4</v>
+        <v>54.4</v>
       </c>
       <c r="D93" t="n">
-        <v>56.4</v>
+        <v>54.4</v>
       </c>
       <c r="E93" t="n">
-        <v>56.4</v>
+        <v>54.4</v>
       </c>
       <c r="F93" t="n">
-        <v>3227</v>
+        <v>3567.326</v>
       </c>
       <c r="G93" t="n">
-        <v>56.62000000000001</v>
+        <v>-523212.5079233099</v>
       </c>
       <c r="H93" t="n">
-        <v>55.45666666666664</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,36 +3891,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="C94" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="D94" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="E94" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="F94" t="n">
-        <v>1076</v>
+        <v>5836.932</v>
       </c>
       <c r="G94" t="n">
-        <v>56.63333333333334</v>
+        <v>-529049.43992331</v>
       </c>
       <c r="H94" t="n">
-        <v>55.47666666666665</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,36 +3932,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>56.5</v>
+        <v>54.3</v>
       </c>
       <c r="C95" t="n">
-        <v>56.5</v>
+        <v>54.3</v>
       </c>
       <c r="D95" t="n">
-        <v>56.5</v>
+        <v>54.3</v>
       </c>
       <c r="E95" t="n">
-        <v>56.5</v>
+        <v>54.3</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>966.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>56.75333333333334</v>
+        <v>-529049.43992331</v>
       </c>
       <c r="H95" t="n">
-        <v>55.49499999999998</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,36 +3971,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>56.6</v>
+        <v>54.3</v>
       </c>
       <c r="C96" t="n">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="D96" t="n">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="E96" t="n">
-        <v>56.6</v>
+        <v>54.3</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>967</v>
       </c>
       <c r="G96" t="n">
-        <v>56.75333333333334</v>
+        <v>-529049.43992331</v>
       </c>
       <c r="H96" t="n">
-        <v>55.51499999999997</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>54.3</v>
       </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,36 +4012,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>56.7</v>
+        <v>54.8</v>
       </c>
       <c r="C97" t="n">
-        <v>57.3</v>
+        <v>54.8</v>
       </c>
       <c r="D97" t="n">
-        <v>57.3</v>
+        <v>54.8</v>
       </c>
       <c r="E97" t="n">
-        <v>56.7</v>
+        <v>54.8</v>
       </c>
       <c r="F97" t="n">
-        <v>12257.7801</v>
+        <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>56.79333333333333</v>
+        <v>-529038.43992331</v>
       </c>
       <c r="H97" t="n">
-        <v>55.54499999999997</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>54.3</v>
       </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,36 +4053,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="C98" t="n">
-        <v>56.2</v>
+        <v>54</v>
       </c>
       <c r="D98" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="E98" t="n">
-        <v>56.2</v>
+        <v>54</v>
       </c>
       <c r="F98" t="n">
-        <v>4147.7967</v>
+        <v>15456.3147</v>
       </c>
       <c r="G98" t="n">
-        <v>56.72666666666667</v>
+        <v>-544494.7546233099</v>
       </c>
       <c r="H98" t="n">
-        <v>55.5583333333333</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>54.8</v>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,36 +4094,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>57.1</v>
+        <v>54.8</v>
       </c>
       <c r="C99" t="n">
-        <v>57.2</v>
+        <v>54.8</v>
       </c>
       <c r="D99" t="n">
-        <v>57.3</v>
+        <v>54.8</v>
       </c>
       <c r="E99" t="n">
-        <v>56.3</v>
+        <v>54.8</v>
       </c>
       <c r="F99" t="n">
-        <v>8612</v>
+        <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>56.78</v>
+        <v>-544483.7546233099</v>
       </c>
       <c r="H99" t="n">
-        <v>55.5883333333333</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,36 +4135,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>56.3</v>
+        <v>54.6</v>
       </c>
       <c r="C100" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D100" t="n">
-        <v>57</v>
+        <v>54.6</v>
       </c>
       <c r="E100" t="n">
-        <v>56.3</v>
+        <v>54</v>
       </c>
       <c r="F100" t="n">
-        <v>6555.5205</v>
+        <v>13142.5959</v>
       </c>
       <c r="G100" t="n">
-        <v>56.76000000000001</v>
+        <v>-557626.3505233099</v>
       </c>
       <c r="H100" t="n">
-        <v>55.61499999999997</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>54.8</v>
       </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,36 +4176,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>56.1</v>
+        <v>54.6</v>
       </c>
       <c r="C101" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="D101" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="E101" t="n">
-        <v>56.1</v>
+        <v>54.6</v>
       </c>
       <c r="F101" t="n">
-        <v>822.8908</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>56.68666666666667</v>
+        <v>-557615.3505233099</v>
       </c>
       <c r="H101" t="n">
-        <v>55.63166666666663</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,36 +4217,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="C102" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="D102" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="E102" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="F102" t="n">
-        <v>4264.9999</v>
+        <v>7800</v>
       </c>
       <c r="G102" t="n">
-        <v>56.58666666666667</v>
+        <v>-549815.3505233099</v>
       </c>
       <c r="H102" t="n">
-        <v>55.6383333333333</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>55.1</v>
       </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,36 +4258,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="C103" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D103" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="E103" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>1107.77</v>
       </c>
       <c r="G103" t="n">
-        <v>56.49333333333334</v>
+        <v>-550923.1205233099</v>
       </c>
       <c r="H103" t="n">
-        <v>55.64499999999997</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>55.2</v>
       </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,36 +4299,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="C104" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="D104" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="E104" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="F104" t="n">
-        <v>400</v>
+        <v>911.7141</v>
       </c>
       <c r="G104" t="n">
-        <v>56.44666666666667</v>
+        <v>-550011.4064233099</v>
       </c>
       <c r="H104" t="n">
-        <v>55.6533333333333</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>55.1</v>
       </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,36 +4340,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="C105" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="D105" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="E105" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="F105" t="n">
-        <v>5916.8841</v>
+        <v>13046.3749</v>
       </c>
       <c r="G105" t="n">
-        <v>56.41333333333333</v>
+        <v>-536965.0315233099</v>
       </c>
       <c r="H105" t="n">
-        <v>55.65666666666663</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>55.2</v>
       </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,36 +4381,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="C106" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="D106" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="E106" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>1478</v>
       </c>
       <c r="G106" t="n">
-        <v>56.48</v>
+        <v>-535487.0315233099</v>
       </c>
       <c r="H106" t="n">
-        <v>55.68666666666663</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>55.4</v>
       </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,36 +4422,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C107" t="n">
         <v>55.9</v>
       </c>
-      <c r="C107" t="n">
-        <v>57.3</v>
-      </c>
       <c r="D107" t="n">
-        <v>57.3</v>
+        <v>55.9</v>
       </c>
       <c r="E107" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="F107" t="n">
-        <v>1369.7575</v>
+        <v>22894.0086</v>
       </c>
       <c r="G107" t="n">
-        <v>56.52666666666666</v>
+        <v>-512593.0229233099</v>
       </c>
       <c r="H107" t="n">
-        <v>55.71499999999997</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>55.5</v>
       </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,7 +4463,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="C108" t="n">
         <v>56.2</v>
@@ -4629,27 +4472,30 @@
         <v>56.2</v>
       </c>
       <c r="E108" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="F108" t="n">
-        <v>857.2066</v>
+        <v>11503.64307635</v>
       </c>
       <c r="G108" t="n">
-        <v>56.51333333333334</v>
+        <v>-501089.3798469599</v>
       </c>
       <c r="H108" t="n">
-        <v>55.73666666666664</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>55.9</v>
       </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,36 +4504,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>57.2</v>
+        <v>56.2</v>
       </c>
       <c r="C109" t="n">
-        <v>57.2</v>
+        <v>54.7</v>
       </c>
       <c r="D109" t="n">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="E109" t="n">
-        <v>57.2</v>
+        <v>54.7</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>21305.0836</v>
       </c>
       <c r="G109" t="n">
-        <v>56.56666666666668</v>
+        <v>-522394.4634469599</v>
       </c>
       <c r="H109" t="n">
-        <v>55.78166666666663</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>56.2</v>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,36 +4545,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="C110" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="D110" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="E110" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F110" t="n">
-        <v>6188</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>56.53333333333334</v>
+        <v>-522383.4634469599</v>
       </c>
       <c r="H110" t="n">
-        <v>55.79666666666663</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>54.7</v>
       </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,24 +4598,27 @@
         <v>56.7</v>
       </c>
       <c r="F111" t="n">
-        <v>11</v>
+        <v>10.7054</v>
       </c>
       <c r="G111" t="n">
-        <v>56.53333333333334</v>
+        <v>-522383.4634469599</v>
       </c>
       <c r="H111" t="n">
-        <v>55.83333333333329</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>56.7</v>
       </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,36 +4627,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
       <c r="C112" t="n">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="D112" t="n">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="E112" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
       <c r="F112" t="n">
-        <v>11</v>
+        <v>413.2946</v>
       </c>
       <c r="G112" t="n">
-        <v>56.52000000000001</v>
+        <v>-521970.1688469599</v>
       </c>
       <c r="H112" t="n">
-        <v>55.87833333333329</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,36 +4666,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="C113" t="n">
-        <v>57.2</v>
+        <v>56.4</v>
       </c>
       <c r="D113" t="n">
-        <v>57.2</v>
+        <v>57.3</v>
       </c>
       <c r="E113" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="F113" t="n">
-        <v>7468.9999</v>
+        <v>1637.9999</v>
       </c>
       <c r="G113" t="n">
-        <v>56.58666666666668</v>
+        <v>-523608.1687469599</v>
       </c>
       <c r="H113" t="n">
-        <v>55.92499999999995</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,36 +4705,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>56.3</v>
+        <v>57.3</v>
       </c>
       <c r="C114" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="D114" t="n">
-        <v>57.1</v>
+        <v>57.3</v>
       </c>
       <c r="E114" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="F114" t="n">
-        <v>60408.2792</v>
+        <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>56.50666666666667</v>
+        <v>-523597.1687469599</v>
       </c>
       <c r="H114" t="n">
-        <v>55.93666666666662</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,36 +4744,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="C115" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="D115" t="n">
-        <v>56</v>
+        <v>57.2</v>
       </c>
       <c r="E115" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="F115" t="n">
-        <v>353</v>
+        <v>7580</v>
       </c>
       <c r="G115" t="n">
-        <v>56.44000000000001</v>
+        <v>-531177.1687469599</v>
       </c>
       <c r="H115" t="n">
-        <v>55.95499999999995</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,36 +4783,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="C116" t="n">
-        <v>56</v>
+        <v>57.4</v>
       </c>
       <c r="D116" t="n">
-        <v>56</v>
+        <v>57.4</v>
       </c>
       <c r="E116" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="F116" t="n">
-        <v>4665.3723</v>
+        <v>340</v>
       </c>
       <c r="G116" t="n">
-        <v>56.43333333333334</v>
+        <v>-530837.1687469599</v>
       </c>
       <c r="H116" t="n">
-        <v>55.95999999999995</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,74 +4822,70 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="C117" t="n">
-        <v>56</v>
+        <v>57.3</v>
       </c>
       <c r="D117" t="n">
-        <v>56</v>
+        <v>57.4</v>
       </c>
       <c r="E117" t="n">
         <v>56</v>
       </c>
       <c r="F117" t="n">
-        <v>2827.5994</v>
+        <v>6095.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>56.44000000000001</v>
+        <v>-536933.1686469599</v>
       </c>
       <c r="H117" t="n">
-        <v>55.97833333333328</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>55.9</v>
+        <v>56.7</v>
       </c>
       <c r="C118" t="n">
-        <v>55.9</v>
+        <v>56.7</v>
       </c>
       <c r="D118" t="n">
-        <v>55.9</v>
+        <v>56.7</v>
       </c>
       <c r="E118" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="F118" t="n">
-        <v>6051.5</v>
+        <v>31</v>
       </c>
       <c r="G118" t="n">
-        <v>56.44000000000001</v>
+        <v>-536964.1686469599</v>
       </c>
       <c r="H118" t="n">
-        <v>55.98333333333328</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,36 +4894,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="C119" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="D119" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="E119" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="F119" t="n">
-        <v>3436</v>
+        <v>22036</v>
       </c>
       <c r="G119" t="n">
-        <v>56.44000000000001</v>
+        <v>-559000.1686469599</v>
       </c>
       <c r="H119" t="n">
-        <v>55.98999999999996</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,36 +4929,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="C120" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="D120" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="E120" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="F120" t="n">
-        <v>590</v>
+        <v>6932</v>
       </c>
       <c r="G120" t="n">
-        <v>56.46000000000001</v>
+        <v>-552068.1686469599</v>
       </c>
       <c r="H120" t="n">
-        <v>56.01333333333329</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,36 +4964,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
       <c r="C121" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="D121" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="E121" t="n">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
       <c r="F121" t="n">
-        <v>8749</v>
+        <v>12834.5873</v>
       </c>
       <c r="G121" t="n">
-        <v>56.36666666666667</v>
+        <v>-539233.5813469599</v>
       </c>
       <c r="H121" t="n">
-        <v>56.0183333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,36 +4999,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>55.9</v>
+        <v>56.4</v>
       </c>
       <c r="C122" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="D122" t="n">
-        <v>55.9</v>
+        <v>56.4</v>
       </c>
       <c r="E122" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="F122" t="n">
-        <v>1222.9999</v>
+        <v>3227</v>
       </c>
       <c r="G122" t="n">
-        <v>56.26000000000001</v>
+        <v>-542460.5813469599</v>
       </c>
       <c r="H122" t="n">
-        <v>56.02333333333329</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,36 +5034,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="C123" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="D123" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="E123" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="F123" t="n">
-        <v>316</v>
+        <v>1076</v>
       </c>
       <c r="G123" t="n">
-        <v>56.24666666666668</v>
+        <v>-542460.5813469599</v>
       </c>
       <c r="H123" t="n">
-        <v>56.04999999999995</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,36 +5069,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="C124" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="D124" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="E124" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="F124" t="n">
-        <v>1160.7682</v>
+        <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>56.14666666666668</v>
+        <v>-542449.5813469599</v>
       </c>
       <c r="H124" t="n">
-        <v>56.07166666666662</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,36 +5104,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>55.5</v>
+        <v>56.6</v>
       </c>
       <c r="C125" t="n">
-        <v>51.7</v>
+        <v>56.7</v>
       </c>
       <c r="D125" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="E125" t="n">
-        <v>51.7</v>
+        <v>56.6</v>
       </c>
       <c r="F125" t="n">
-        <v>39716.7932</v>
+        <v>11</v>
       </c>
       <c r="G125" t="n">
-        <v>55.86000000000001</v>
+        <v>-542438.5813469599</v>
       </c>
       <c r="H125" t="n">
-        <v>56.02833333333328</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,36 +5139,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>55.2</v>
+        <v>56.7</v>
       </c>
       <c r="C126" t="n">
-        <v>55.2</v>
+        <v>57.3</v>
       </c>
       <c r="D126" t="n">
-        <v>55.2</v>
+        <v>57.3</v>
       </c>
       <c r="E126" t="n">
-        <v>55.2</v>
+        <v>56.7</v>
       </c>
       <c r="F126" t="n">
-        <v>3028</v>
+        <v>12257.7801</v>
       </c>
       <c r="G126" t="n">
-        <v>55.76000000000001</v>
+        <v>-530180.8012469599</v>
       </c>
       <c r="H126" t="n">
-        <v>56.04333333333327</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,36 +5174,1048 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>53</v>
+        <v>56.4</v>
       </c>
       <c r="C127" t="n">
-        <v>51.7</v>
+        <v>56.2</v>
       </c>
       <c r="D127" t="n">
-        <v>53</v>
+        <v>56.4</v>
       </c>
       <c r="E127" t="n">
-        <v>51.7</v>
+        <v>56.2</v>
       </c>
       <c r="F127" t="n">
-        <v>13594.236</v>
+        <v>4147.7967</v>
       </c>
       <c r="G127" t="n">
-        <v>55.40000000000001</v>
+        <v>-534328.5979469599</v>
       </c>
       <c r="H127" t="n">
-        <v>55.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8612</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-525716.5979469599</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>57</v>
+      </c>
+      <c r="D129" t="n">
+        <v>57</v>
+      </c>
+      <c r="E129" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6555.5205</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-532272.1184469599</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>822.8908</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-533095.0092469599</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4264.9999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-537360.00914696</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>800</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-537360.00914696</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>56</v>
+      </c>
+      <c r="D133" t="n">
+        <v>56</v>
+      </c>
+      <c r="E133" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-536960.00914696</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5916.8841</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-542876.89324696</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-542865.89324696</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1369.7575</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-542865.89324696</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>857.2066</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-543723.09984696</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-543712.09984696</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>56</v>
+      </c>
+      <c r="C139" t="n">
+        <v>56</v>
+      </c>
+      <c r="D139" t="n">
+        <v>56</v>
+      </c>
+      <c r="E139" t="n">
+        <v>56</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6188</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-549900.09984696</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-549889.09984696</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-549878.09984696</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>56</v>
+      </c>
+      <c r="C142" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>56</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7468.9999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-542409.09994696</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>56</v>
+      </c>
+      <c r="D143" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>56</v>
+      </c>
+      <c r="F143" t="n">
+        <v>60408.2792</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>56</v>
+      </c>
+      <c r="C144" t="n">
+        <v>56</v>
+      </c>
+      <c r="D144" t="n">
+        <v>56</v>
+      </c>
+      <c r="E144" t="n">
+        <v>56</v>
+      </c>
+      <c r="F144" t="n">
+        <v>353</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>56</v>
+      </c>
+      <c r="C145" t="n">
+        <v>56</v>
+      </c>
+      <c r="D145" t="n">
+        <v>56</v>
+      </c>
+      <c r="E145" t="n">
+        <v>56</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4665.3723</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>56</v>
+      </c>
+      <c r="C146" t="n">
+        <v>56</v>
+      </c>
+      <c r="D146" t="n">
+        <v>56</v>
+      </c>
+      <c r="E146" t="n">
+        <v>56</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2827.5994</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6051.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-608868.87914696</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>56</v>
+      </c>
+      <c r="C148" t="n">
+        <v>56</v>
+      </c>
+      <c r="D148" t="n">
+        <v>56</v>
+      </c>
+      <c r="E148" t="n">
+        <v>56</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3436</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-605432.87914696</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>56</v>
+      </c>
+      <c r="C149" t="n">
+        <v>56</v>
+      </c>
+      <c r="D149" t="n">
+        <v>56</v>
+      </c>
+      <c r="E149" t="n">
+        <v>56</v>
+      </c>
+      <c r="F149" t="n">
+        <v>590</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-605432.87914696</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C150" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8749</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-614181.87914696</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1222.9999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-615404.87904696</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>56</v>
+      </c>
+      <c r="C152" t="n">
+        <v>56</v>
+      </c>
+      <c r="D152" t="n">
+        <v>56</v>
+      </c>
+      <c r="E152" t="n">
+        <v>56</v>
+      </c>
+      <c r="F152" t="n">
+        <v>316</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-615088.87904696</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1160.7682</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-616249.6472469601</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>39716.7932</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-655966.44044696</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3028</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-652938.44044696</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>53</v>
+      </c>
+      <c r="C156" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>53</v>
+      </c>
+      <c r="E156" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>13594.236</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-666532.6764469601</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C2" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="D2" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="E2" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>-314792.1124</v>
+        <v>55.25499999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>54.3</v>
       </c>
       <c r="C3" t="n">
-        <v>58.1</v>
+        <v>55.7</v>
       </c>
       <c r="D3" t="n">
-        <v>58.1</v>
+        <v>55.8</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>54.3</v>
       </c>
       <c r="F3" t="n">
-        <v>70723.5903</v>
+        <v>4555.2091</v>
       </c>
       <c r="G3" t="n">
-        <v>-244068.5221</v>
+        <v>55.19499999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>55.3</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>55.3</v>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>55.3</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>55.3</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>39.6925</v>
       </c>
       <c r="G4" t="n">
-        <v>-244118.5221</v>
+        <v>55.18499999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57.1</v>
+        <v>54.3</v>
       </c>
       <c r="C5" t="n">
-        <v>57.4</v>
+        <v>54.3</v>
       </c>
       <c r="D5" t="n">
-        <v>57.4</v>
+        <v>54.3</v>
       </c>
       <c r="E5" t="n">
-        <v>57.1</v>
+        <v>54.3</v>
       </c>
       <c r="F5" t="n">
-        <v>6323.2071</v>
+        <v>19.7966</v>
       </c>
       <c r="G5" t="n">
-        <v>-250441.7292</v>
+        <v>55.13499999999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57.9</v>
+        <v>55.3</v>
       </c>
       <c r="C6" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D6" t="n">
-        <v>57.9</v>
+        <v>55.3</v>
       </c>
       <c r="E6" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="F6" t="n">
-        <v>11862.9568</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>-262304.686</v>
+        <v>55.12499999999996</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="C7" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="D7" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="E7" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>18254.0001</v>
       </c>
       <c r="G7" t="n">
-        <v>-261304.686</v>
+        <v>55.09499999999996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C8" t="n">
-        <v>56.4</v>
+        <v>55.7</v>
       </c>
       <c r="D8" t="n">
-        <v>57.9</v>
+        <v>55.7</v>
       </c>
       <c r="E8" t="n">
-        <v>56.2</v>
+        <v>55.7</v>
       </c>
       <c r="F8" t="n">
-        <v>16002.2997</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>-245302.3863</v>
+        <v>55.08499999999996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56.3</v>
+        <v>54.9</v>
       </c>
       <c r="C9" t="n">
-        <v>56.3</v>
+        <v>54.1</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3</v>
+        <v>54.9</v>
       </c>
       <c r="E9" t="n">
-        <v>56.3</v>
+        <v>54.1</v>
       </c>
       <c r="F9" t="n">
-        <v>5037.25</v>
+        <v>41148.7903</v>
       </c>
       <c r="G9" t="n">
-        <v>-250339.6363</v>
+        <v>55.01499999999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56.3</v>
+        <v>54.8</v>
       </c>
       <c r="C10" t="n">
-        <v>56.3</v>
+        <v>54.7</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3</v>
+        <v>54.8</v>
       </c>
       <c r="E10" t="n">
-        <v>56.3</v>
+        <v>54.7</v>
       </c>
       <c r="F10" t="n">
-        <v>17733.3968</v>
+        <v>6249.154</v>
       </c>
       <c r="G10" t="n">
-        <v>-250339.6363</v>
+        <v>54.97499999999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
       <c r="C11" t="n">
-        <v>55.8</v>
+        <v>54.2</v>
       </c>
       <c r="D11" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
       <c r="E11" t="n">
-        <v>55.8</v>
+        <v>54.2</v>
       </c>
       <c r="F11" t="n">
-        <v>1500</v>
+        <v>58269.4272</v>
       </c>
       <c r="G11" t="n">
-        <v>-251839.6363</v>
+        <v>54.89999999999996</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55.8</v>
+        <v>54.2</v>
       </c>
       <c r="C12" t="n">
-        <v>55.7</v>
+        <v>54.8</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8</v>
+        <v>54.8</v>
       </c>
       <c r="E12" t="n">
-        <v>55.7</v>
+        <v>54.2</v>
       </c>
       <c r="F12" t="n">
-        <v>35544.3761</v>
+        <v>6503.988</v>
       </c>
       <c r="G12" t="n">
-        <v>-287384.0124</v>
+        <v>54.86999999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>55.7</v>
+        <v>54.9</v>
       </c>
       <c r="C13" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="E13" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="F13" t="n">
-        <v>5905.8618</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>-293289.8742</v>
+        <v>54.93999999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -856,19 +873,19 @@
         <v>55.6</v>
       </c>
       <c r="C14" t="n">
-        <v>57.9</v>
+        <v>55.6</v>
       </c>
       <c r="D14" t="n">
-        <v>57.9</v>
+        <v>55.6</v>
       </c>
       <c r="E14" t="n">
         <v>55.6</v>
       </c>
       <c r="F14" t="n">
-        <v>25016.88530034</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>-268272.98889966</v>
+        <v>54.99499999999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57.3</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D15" t="n">
-        <v>57.3</v>
+        <v>55.1</v>
       </c>
       <c r="E15" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="F15" t="n">
-        <v>1600</v>
+        <v>4185.6904</v>
       </c>
       <c r="G15" t="n">
-        <v>-269872.98889966</v>
+        <v>55.00499999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>56.4</v>
+        <v>55.2</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3</v>
+        <v>55.3</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3</v>
+        <v>55.3</v>
       </c>
       <c r="E16" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="F16" t="n">
-        <v>9099.128699999999</v>
+        <v>15115.088</v>
       </c>
       <c r="G16" t="n">
-        <v>-260773.86019966</v>
+        <v>55.03999999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="C17" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="D17" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="E17" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="F17" t="n">
-        <v>3313.8145</v>
+        <v>19.7967</v>
       </c>
       <c r="G17" t="n">
-        <v>-264087.67469966</v>
+        <v>55.07999999999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>56.9</v>
+        <v>55.6</v>
       </c>
       <c r="C18" t="n">
-        <v>56.9</v>
+        <v>55.6</v>
       </c>
       <c r="D18" t="n">
-        <v>56.9</v>
+        <v>55.6</v>
       </c>
       <c r="E18" t="n">
-        <v>56.9</v>
+        <v>55.6</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-264077.67469966</v>
+        <v>55.06999999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>56.4</v>
+        <v>54.6</v>
       </c>
       <c r="C19" t="n">
-        <v>57.3</v>
+        <v>54.6</v>
       </c>
       <c r="D19" t="n">
-        <v>57.3</v>
+        <v>54.6</v>
       </c>
       <c r="E19" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="F19" t="n">
-        <v>1897.208</v>
+        <v>1952.0548</v>
       </c>
       <c r="G19" t="n">
-        <v>-262180.46669966</v>
+        <v>55.00499999999996</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,63 +1079,69 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="D20" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="E20" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="F20" t="n">
-        <v>28607.5437</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>-290788.01039966</v>
+        <v>54.98499999999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>54.6</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>56.6</v>
+        <v>55.2</v>
       </c>
       <c r="C21" t="n">
-        <v>57.2</v>
+        <v>55.2</v>
       </c>
       <c r="D21" t="n">
-        <v>57.2</v>
+        <v>55.2</v>
       </c>
       <c r="E21" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="F21" t="n">
-        <v>12974.9434</v>
+        <v>1149.2697</v>
       </c>
       <c r="G21" t="n">
-        <v>-277813.06699966</v>
+        <v>55.02499999999996</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1150,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="C22" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="D22" t="n">
-        <v>56.2</v>
+        <v>55.4</v>
       </c>
       <c r="E22" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="F22" t="n">
-        <v>8124.6412</v>
+        <v>3416</v>
       </c>
       <c r="G22" t="n">
-        <v>-285937.70819966</v>
+        <v>54.99999999999996</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1192,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="C23" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="D23" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="E23" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="F23" t="n">
-        <v>12812.0228</v>
+        <v>1972</v>
       </c>
       <c r="G23" t="n">
-        <v>-298749.73099966</v>
+        <v>55.05999999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1239,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="C24" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="D24" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="E24" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="F24" t="n">
-        <v>300</v>
+        <v>796</v>
       </c>
       <c r="G24" t="n">
-        <v>-299049.73099966</v>
+        <v>55.06999999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1275,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C25" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D25" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E25" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F25" t="n">
-        <v>959.6482</v>
+        <v>2688</v>
       </c>
       <c r="G25" t="n">
-        <v>-300009.37919966</v>
+        <v>55.12499999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1311,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C26" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D26" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E26" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F26" t="n">
-        <v>820.9999</v>
+        <v>6265.1555</v>
       </c>
       <c r="G26" t="n">
-        <v>-300009.37919966</v>
+        <v>55.12999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1347,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C27" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D27" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E27" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F27" t="n">
-        <v>6472.9956</v>
+        <v>2661.6829</v>
       </c>
       <c r="G27" t="n">
-        <v>-300009.37919966</v>
+        <v>55.13499999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,286 +1383,343 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C28" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D28" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="E28" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="F28" t="n">
-        <v>8873.730799999999</v>
+        <v>48976.9015</v>
       </c>
       <c r="G28" t="n">
-        <v>-291135.64839966</v>
+        <v>55.11499999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>55.4</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="C29" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="D29" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="E29" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>13055.5084</v>
       </c>
       <c r="G29" t="n">
-        <v>-291124.64839966</v>
+        <v>55.13999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="C30" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="D30" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="E30" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>15982.0787</v>
       </c>
       <c r="G30" t="n">
-        <v>-291124.64839966</v>
+        <v>55.17499999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>55.5</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C31" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="D31" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="E31" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1458.2386</v>
       </c>
       <c r="G31" t="n">
-        <v>-291114.64839966</v>
+        <v>55.22999999999998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>55.5</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="C32" t="n">
-        <v>53.4</v>
+        <v>55.5</v>
       </c>
       <c r="D32" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E32" t="n">
-        <v>53.4</v>
+        <v>55.5</v>
       </c>
       <c r="F32" t="n">
-        <v>11127.0958</v>
+        <v>713.7686</v>
       </c>
       <c r="G32" t="n">
-        <v>-302241.74419966</v>
+        <v>55.29499999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>55.5</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="D33" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="E33" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F33" t="n">
-        <v>231</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>-302010.74419966</v>
+        <v>55.32499999999997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>55.5</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>54.8</v>
+        <v>55.6</v>
       </c>
       <c r="C34" t="n">
-        <v>54.8</v>
+        <v>55.6</v>
       </c>
       <c r="D34" t="n">
-        <v>54.8</v>
+        <v>55.6</v>
       </c>
       <c r="E34" t="n">
-        <v>54.8</v>
+        <v>55.6</v>
       </c>
       <c r="F34" t="n">
-        <v>14536.1276</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>-316546.87179966</v>
+        <v>55.32499999999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>55.5</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.5</v>
+        <v>54.9</v>
       </c>
       <c r="C35" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D35" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E35" t="n">
-        <v>53.5</v>
+        <v>54.9</v>
       </c>
       <c r="F35" t="n">
-        <v>59.875</v>
+        <v>5263.67</v>
       </c>
       <c r="G35" t="n">
-        <v>-316546.87179966</v>
+        <v>55.31999999999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>55.6</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1626,19 +1729,19 @@
         <v>54.5</v>
       </c>
       <c r="C36" t="n">
-        <v>53.8</v>
+        <v>54.5</v>
       </c>
       <c r="D36" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="E36" t="n">
-        <v>53.8</v>
+        <v>54.5</v>
       </c>
       <c r="F36" t="n">
-        <v>5616.363</v>
+        <v>13798.8271</v>
       </c>
       <c r="G36" t="n">
-        <v>-322163.23479966</v>
+        <v>55.28499999999998</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1647,47 +1750,50 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="C37" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="D37" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="E37" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>5186</v>
       </c>
       <c r="G37" t="n">
-        <v>-322152.23479966</v>
+        <v>55.27999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>54.5</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1697,6 +1803,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1706,27 +1813,29 @@
         <v>54.5</v>
       </c>
       <c r="C38" t="n">
-        <v>55.7</v>
+        <v>54.5</v>
       </c>
       <c r="D38" t="n">
-        <v>55.7</v>
+        <v>54.5</v>
       </c>
       <c r="E38" t="n">
         <v>54.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1153.4317</v>
+        <v>1855</v>
       </c>
       <c r="G38" t="n">
-        <v>-320998.80309966</v>
+        <v>55.22499999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1736,36 +1845,39 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53.8</v>
+        <v>54.4</v>
       </c>
       <c r="C39" t="n">
-        <v>53.8</v>
+        <v>54.4</v>
       </c>
       <c r="D39" t="n">
-        <v>53.8</v>
+        <v>54.4</v>
       </c>
       <c r="E39" t="n">
-        <v>53.8</v>
+        <v>54.4</v>
       </c>
       <c r="F39" t="n">
-        <v>671.735</v>
+        <v>15921.3639</v>
       </c>
       <c r="G39" t="n">
-        <v>-321670.53809966</v>
+        <v>55.215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>54.5</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1775,36 +1887,39 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
       <c r="C40" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
       <c r="D40" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
       <c r="E40" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>36714.3224</v>
       </c>
       <c r="G40" t="n">
-        <v>-321659.53809966</v>
+        <v>55.165</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>54.4</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1814,36 +1929,39 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C41" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="D41" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="E41" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>10.11</v>
       </c>
       <c r="G41" t="n">
-        <v>-321648.53809966</v>
+        <v>55.16999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>54.4</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1853,28 +1971,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D42" t="n">
         <v>55.8</v>
       </c>
-      <c r="C42" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D42" t="n">
-        <v>55.9</v>
-      </c>
       <c r="E42" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>60682.99692365</v>
       </c>
       <c r="G42" t="n">
-        <v>-321648.53809966</v>
+        <v>55.14999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1892,28 +2011,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="C43" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="D43" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="E43" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="F43" t="n">
-        <v>3274.3371</v>
+        <v>10.18</v>
       </c>
       <c r="G43" t="n">
-        <v>-324922.87519966</v>
+        <v>55.15999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1931,28 +2051,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="C44" t="n">
-        <v>55.9</v>
+        <v>54.9</v>
       </c>
       <c r="D44" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="E44" t="n">
-        <v>55.9</v>
+        <v>54.9</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>3590.0397</v>
       </c>
       <c r="G44" t="n">
-        <v>-324911.87519966</v>
+        <v>55.16499999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1970,28 +2091,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>54.3</v>
+        <v>55.6</v>
       </c>
       <c r="C45" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="D45" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E45" t="n">
-        <v>54.3</v>
+        <v>55.6</v>
       </c>
       <c r="F45" t="n">
-        <v>4555.2091</v>
+        <v>10.11</v>
       </c>
       <c r="G45" t="n">
-        <v>-329467.0842996599</v>
+        <v>55.17499999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2009,28 +2131,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C46" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="D46" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="E46" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F46" t="n">
-        <v>39.6925</v>
+        <v>120.3237</v>
       </c>
       <c r="G46" t="n">
-        <v>-329506.7767996599</v>
+        <v>55.18499999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2048,28 +2171,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="C47" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="D47" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="E47" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="F47" t="n">
-        <v>19.7966</v>
+        <v>947.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>-329526.5733996599</v>
+        <v>55.14499999999996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2087,28 +2211,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C48" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="D48" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="E48" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>11.18</v>
       </c>
       <c r="G48" t="n">
-        <v>-329515.5733996599</v>
+        <v>55.15999999999995</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2126,13 +2251,14 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C49" t="n">
         <v>55.4</v>
@@ -2141,13 +2267,13 @@
         <v>55.4</v>
       </c>
       <c r="E49" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F49" t="n">
-        <v>18254.0001</v>
+        <v>10.1</v>
       </c>
       <c r="G49" t="n">
-        <v>-311261.5732996599</v>
+        <v>55.15999999999995</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2165,28 +2291,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="C50" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="D50" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="E50" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>3106.3249</v>
       </c>
       <c r="G50" t="n">
-        <v>-311250.5732996599</v>
+        <v>55.10499999999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2204,28 +2331,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="C51" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="D51" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="E51" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="F51" t="n">
-        <v>41148.7903</v>
+        <v>3567.326</v>
       </c>
       <c r="G51" t="n">
-        <v>-352399.3635996599</v>
+        <v>55.04999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2243,28 +2371,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="C52" t="n">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
       <c r="D52" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="E52" t="n">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
       <c r="F52" t="n">
-        <v>6249.154</v>
+        <v>5836.932</v>
       </c>
       <c r="G52" t="n">
-        <v>-346150.20959966</v>
+        <v>54.98999999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2282,28 +2411,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="C53" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="D53" t="n">
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="E53" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="F53" t="n">
-        <v>58269.4272</v>
+        <v>966.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>-404419.6367996599</v>
+        <v>54.92999999999996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2321,36 +2451,39 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="C54" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="D54" t="n">
-        <v>54.8</v>
+        <v>54.3</v>
       </c>
       <c r="E54" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="F54" t="n">
-        <v>6503.988</v>
+        <v>967</v>
       </c>
       <c r="G54" t="n">
-        <v>-397915.6487996599</v>
+        <v>54.86499999999997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>54.3</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2360,36 +2493,39 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C55" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="D55" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="E55" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F55" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>-397893.6487996599</v>
+        <v>54.85999999999996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>54.3</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2399,36 +2535,39 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="C56" t="n">
-        <v>55.6</v>
+        <v>54</v>
       </c>
       <c r="D56" t="n">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="E56" t="n">
-        <v>55.6</v>
+        <v>54</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>15456.3147</v>
       </c>
       <c r="G56" t="n">
-        <v>-397882.6487996599</v>
+        <v>54.84999999999995</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2438,36 +2577,39 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="C57" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="D57" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="E57" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="F57" t="n">
-        <v>4185.6904</v>
+        <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>-402068.3391996599</v>
+        <v>54.86499999999995</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>54</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2477,36 +2619,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>55.2</v>
+        <v>54.6</v>
       </c>
       <c r="C58" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="D58" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="E58" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="F58" t="n">
-        <v>15115.088</v>
+        <v>13142.5959</v>
       </c>
       <c r="G58" t="n">
-        <v>-386953.2511996599</v>
+        <v>54.86999999999995</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2516,6 +2661,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2525,27 +2671,29 @@
         <v>54.6</v>
       </c>
       <c r="C59" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="D59" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="E59" t="n">
         <v>54.6</v>
       </c>
       <c r="F59" t="n">
-        <v>19.7967</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>-386973.04789966</v>
+        <v>54.87999999999994</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>54</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2555,36 +2703,39 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C60" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="D60" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="E60" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>7800</v>
       </c>
       <c r="G60" t="n">
-        <v>-386963.04789966</v>
+        <v>54.88499999999993</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2594,36 +2745,39 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="C61" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="D61" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="E61" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="F61" t="n">
-        <v>1952.0548</v>
+        <v>1107.77</v>
       </c>
       <c r="G61" t="n">
-        <v>-388915.1026996599</v>
+        <v>54.87499999999993</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>55.2</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2633,36 +2787,39 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="C62" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="D62" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="E62" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>911.7141</v>
       </c>
       <c r="G62" t="n">
-        <v>-388904.1026996599</v>
+        <v>54.88499999999993</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2672,36 +2829,39 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13046.3749</v>
+      </c>
+      <c r="G63" t="n">
+        <v>54.86499999999993</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>55.2</v>
       </c>
-      <c r="C63" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1149.2697</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-390053.3723996599</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2711,36 +2871,39 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1478</v>
+      </c>
+      <c r="G64" t="n">
+        <v>54.85999999999994</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>55.4</v>
       </c>
-      <c r="C64" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="D64" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E64" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3416</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-386637.3723996599</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2750,6 +2913,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2759,27 +2923,29 @@
         <v>55.5</v>
       </c>
       <c r="C65" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="D65" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="E65" t="n">
         <v>55.5</v>
       </c>
       <c r="F65" t="n">
-        <v>1972</v>
+        <v>22894.0086</v>
       </c>
       <c r="G65" t="n">
-        <v>-384665.3723996599</v>
+        <v>54.85499999999994</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>55.5</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2789,28 +2955,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="C66" t="n">
-        <v>55.5</v>
+        <v>56.2</v>
       </c>
       <c r="D66" t="n">
-        <v>55.5</v>
+        <v>56.2</v>
       </c>
       <c r="E66" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="F66" t="n">
-        <v>796</v>
+        <v>11503.64307635</v>
       </c>
       <c r="G66" t="n">
-        <v>-384665.3723996599</v>
+        <v>54.86999999999995</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2828,28 +2995,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>55.4</v>
+        <v>56.2</v>
       </c>
       <c r="C67" t="n">
-        <v>55.4</v>
+        <v>54.7</v>
       </c>
       <c r="D67" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="E67" t="n">
-        <v>55.4</v>
+        <v>54.7</v>
       </c>
       <c r="F67" t="n">
-        <v>2688</v>
+        <v>21305.0836</v>
       </c>
       <c r="G67" t="n">
-        <v>-387353.3723996599</v>
+        <v>54.94999999999995</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2867,28 +3035,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="C68" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="D68" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="E68" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="F68" t="n">
-        <v>6265.1555</v>
+        <v>11</v>
       </c>
       <c r="G68" t="n">
-        <v>-387353.3723996599</v>
+        <v>55.00499999999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2906,28 +3075,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="C69" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="D69" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="E69" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="F69" t="n">
-        <v>2661.6829</v>
+        <v>10.7054</v>
       </c>
       <c r="G69" t="n">
-        <v>-387353.3723996599</v>
+        <v>55.06999999999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2945,28 +3115,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>55.3</v>
+        <v>56.7</v>
       </c>
       <c r="C70" t="n">
-        <v>55.1</v>
+        <v>57.2</v>
       </c>
       <c r="D70" t="n">
-        <v>55.4</v>
+        <v>57.2</v>
       </c>
       <c r="E70" t="n">
-        <v>54.5</v>
+        <v>56.7</v>
       </c>
       <c r="F70" t="n">
-        <v>48976.9015</v>
+        <v>413.2946</v>
       </c>
       <c r="G70" t="n">
-        <v>-436330.2738996599</v>
+        <v>55.18499999999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2984,67 +3155,67 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>55.4</v>
+        <v>57.3</v>
       </c>
       <c r="C71" t="n">
-        <v>55.5</v>
+        <v>56.4</v>
       </c>
       <c r="D71" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="E71" t="n">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="F71" t="n">
-        <v>13055.5084</v>
+        <v>1637.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>-423274.7654996599</v>
+        <v>55.32999999999995</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="C72" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="D72" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="E72" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="F72" t="n">
-        <v>15982.0787</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>-423274.7654996599</v>
+        <v>55.47999999999995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3054,153 +3225,141 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="C73" t="n">
-        <v>55.5</v>
+        <v>57.2</v>
       </c>
       <c r="D73" t="n">
-        <v>55.5</v>
+        <v>57.2</v>
       </c>
       <c r="E73" t="n">
-        <v>55.5</v>
+        <v>56.2</v>
       </c>
       <c r="F73" t="n">
-        <v>1458.2386</v>
+        <v>7580</v>
       </c>
       <c r="G73" t="n">
-        <v>-423274.7654996599</v>
+        <v>55.57999999999995</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="C74" t="n">
-        <v>55.5</v>
+        <v>57.4</v>
       </c>
       <c r="D74" t="n">
-        <v>55.5</v>
+        <v>57.4</v>
       </c>
       <c r="E74" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="F74" t="n">
-        <v>713.7686</v>
+        <v>340</v>
       </c>
       <c r="G74" t="n">
-        <v>-423274.7654996599</v>
+        <v>55.72999999999995</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>55.5</v>
+        <v>56.2</v>
       </c>
       <c r="C75" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="D75" t="n">
-        <v>55.5</v>
+        <v>57.4</v>
       </c>
       <c r="E75" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>6095.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>-423274.7654996599</v>
+        <v>55.79999999999995</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="C76" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="D76" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="E76" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
-        <v>-423263.7654996599</v>
+        <v>55.91999999999996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3210,36 +3369,33 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>54.9</v>
+        <v>55.9</v>
       </c>
       <c r="C77" t="n">
-        <v>54.9</v>
+        <v>56.2</v>
       </c>
       <c r="D77" t="n">
-        <v>54.9</v>
+        <v>56.3</v>
       </c>
       <c r="E77" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="F77" t="n">
-        <v>5263.67</v>
+        <v>22036</v>
       </c>
       <c r="G77" t="n">
-        <v>-428527.4354996599</v>
+        <v>55.97499999999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3249,36 +3405,33 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="C78" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="D78" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="E78" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="F78" t="n">
-        <v>13798.8271</v>
+        <v>6932</v>
       </c>
       <c r="G78" t="n">
-        <v>-442326.2625996599</v>
+        <v>56.05499999999997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3288,36 +3441,33 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="C79" t="n">
-        <v>55.1</v>
+        <v>56.6</v>
       </c>
       <c r="D79" t="n">
-        <v>55.1</v>
+        <v>56.6</v>
       </c>
       <c r="E79" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="F79" t="n">
-        <v>5186</v>
+        <v>12834.5873</v>
       </c>
       <c r="G79" t="n">
-        <v>-437140.2625996599</v>
+        <v>56.13999999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3327,36 +3477,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>54.5</v>
+        <v>56.4</v>
       </c>
       <c r="C80" t="n">
-        <v>54.5</v>
+        <v>56.4</v>
       </c>
       <c r="D80" t="n">
-        <v>54.5</v>
+        <v>56.4</v>
       </c>
       <c r="E80" t="n">
-        <v>54.5</v>
+        <v>56.4</v>
       </c>
       <c r="F80" t="n">
-        <v>1855</v>
+        <v>3227</v>
       </c>
       <c r="G80" t="n">
-        <v>-438995.2625996599</v>
+        <v>56.23499999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3366,36 +3513,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>54.4</v>
+        <v>56.4</v>
       </c>
       <c r="C81" t="n">
-        <v>54.4</v>
+        <v>56.4</v>
       </c>
       <c r="D81" t="n">
-        <v>54.4</v>
+        <v>56.4</v>
       </c>
       <c r="E81" t="n">
-        <v>54.4</v>
+        <v>56.4</v>
       </c>
       <c r="F81" t="n">
-        <v>15921.3639</v>
+        <v>1076</v>
       </c>
       <c r="G81" t="n">
-        <v>-454916.6264996599</v>
+        <v>56.29999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3405,36 +3549,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>54.4</v>
+        <v>56.5</v>
       </c>
       <c r="C82" t="n">
-        <v>54.4</v>
+        <v>56.5</v>
       </c>
       <c r="D82" t="n">
-        <v>54.4</v>
+        <v>56.5</v>
       </c>
       <c r="E82" t="n">
-        <v>54.4</v>
+        <v>56.5</v>
       </c>
       <c r="F82" t="n">
-        <v>36714.3224</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>-454916.6264996599</v>
+        <v>56.36499999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3444,36 +3585,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>55.3</v>
+        <v>56.6</v>
       </c>
       <c r="C83" t="n">
-        <v>55.3</v>
+        <v>56.7</v>
       </c>
       <c r="D83" t="n">
-        <v>55.3</v>
+        <v>56.7</v>
       </c>
       <c r="E83" t="n">
-        <v>55.3</v>
+        <v>56.6</v>
       </c>
       <c r="F83" t="n">
-        <v>10.11</v>
+        <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>-454906.5164996599</v>
+        <v>56.42999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3483,36 +3621,33 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>55</v>
+        <v>56.7</v>
       </c>
       <c r="C84" t="n">
-        <v>54.9</v>
+        <v>57.3</v>
       </c>
       <c r="D84" t="n">
-        <v>55.8</v>
+        <v>57.3</v>
       </c>
       <c r="E84" t="n">
-        <v>54.6</v>
+        <v>56.7</v>
       </c>
       <c r="F84" t="n">
-        <v>60682.99692365</v>
+        <v>12257.7801</v>
       </c>
       <c r="G84" t="n">
-        <v>-515589.5134233099</v>
+        <v>56.48999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3522,36 +3657,33 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C85" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="D85" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="E85" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="F85" t="n">
-        <v>10.18</v>
+        <v>4147.7967</v>
       </c>
       <c r="G85" t="n">
-        <v>-515579.3334233099</v>
+        <v>56.53499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3561,77 +3693,69 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>55.6</v>
+        <v>57.1</v>
       </c>
       <c r="C86" t="n">
-        <v>54.9</v>
+        <v>57.2</v>
       </c>
       <c r="D86" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="E86" t="n">
-        <v>54.9</v>
+        <v>56.3</v>
       </c>
       <c r="F86" t="n">
-        <v>3590.0397</v>
+        <v>8612</v>
       </c>
       <c r="G86" t="n">
-        <v>-519169.3731233099</v>
+        <v>56.59499999999998</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>55.7</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="C87" t="n">
-        <v>55.6</v>
+        <v>57</v>
       </c>
       <c r="D87" t="n">
-        <v>55.6</v>
+        <v>57</v>
       </c>
       <c r="E87" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="F87" t="n">
-        <v>10.11</v>
+        <v>6555.5205</v>
       </c>
       <c r="G87" t="n">
-        <v>-519159.2631233099</v>
+        <v>56.59999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3641,77 +3765,69 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>55.6</v>
+        <v>56.1</v>
       </c>
       <c r="C88" t="n">
-        <v>55.6</v>
+        <v>56.1</v>
       </c>
       <c r="D88" t="n">
-        <v>55.6</v>
+        <v>56.1</v>
       </c>
       <c r="E88" t="n">
-        <v>55.6</v>
+        <v>56.1</v>
       </c>
       <c r="F88" t="n">
-        <v>120.3237</v>
+        <v>822.8908</v>
       </c>
       <c r="G88" t="n">
-        <v>-519159.2631233099</v>
+        <v>56.56999999999997</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>55.6</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="C89" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="D89" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="E89" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="F89" t="n">
-        <v>947.9999</v>
+        <v>4264.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>-520107.2630233099</v>
+        <v>56.52999999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3721,36 +3837,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="C90" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="D90" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="E90" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="F90" t="n">
-        <v>11.18</v>
+        <v>800</v>
       </c>
       <c r="G90" t="n">
-        <v>-520096.0830233099</v>
+        <v>56.48999999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3760,36 +3873,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="C91" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
       <c r="D91" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
       <c r="E91" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="F91" t="n">
-        <v>10.1</v>
+        <v>400</v>
       </c>
       <c r="G91" t="n">
-        <v>-520106.1830233099</v>
+        <v>56.41999999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3799,36 +3909,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="C92" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="D92" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="E92" t="n">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="F92" t="n">
-        <v>3106.3249</v>
+        <v>5916.8841</v>
       </c>
       <c r="G92" t="n">
-        <v>-523212.5079233099</v>
+        <v>56.33999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3838,36 +3945,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>54.4</v>
+        <v>57.3</v>
       </c>
       <c r="C93" t="n">
-        <v>54.4</v>
+        <v>57.3</v>
       </c>
       <c r="D93" t="n">
-        <v>54.4</v>
+        <v>57.3</v>
       </c>
       <c r="E93" t="n">
-        <v>54.4</v>
+        <v>57.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3567.326</v>
+        <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>-523212.5079233099</v>
+        <v>56.38999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3877,77 +3981,69 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="C94" t="n">
-        <v>54.3</v>
+        <v>57.3</v>
       </c>
       <c r="D94" t="n">
-        <v>54.3</v>
+        <v>57.3</v>
       </c>
       <c r="E94" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="F94" t="n">
-        <v>5836.932</v>
+        <v>1369.7575</v>
       </c>
       <c r="G94" t="n">
-        <v>-529049.43992331</v>
+        <v>56.31999999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>54.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="C95" t="n">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="D95" t="n">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="E95" t="n">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="F95" t="n">
-        <v>966.9999</v>
+        <v>857.2066</v>
       </c>
       <c r="G95" t="n">
-        <v>-529049.43992331</v>
+        <v>56.31999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3957,506 +4053,443 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54.3</v>
+        <v>57.2</v>
       </c>
       <c r="C96" t="n">
-        <v>54.3</v>
+        <v>57.2</v>
       </c>
       <c r="D96" t="n">
-        <v>54.3</v>
+        <v>57.2</v>
       </c>
       <c r="E96" t="n">
-        <v>54.3</v>
+        <v>57.2</v>
       </c>
       <c r="F96" t="n">
-        <v>967</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>-529049.43992331</v>
+        <v>56.34499999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="C97" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="D97" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="E97" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>6188</v>
       </c>
       <c r="G97" t="n">
-        <v>-529038.43992331</v>
+        <v>56.34999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54.3</v>
+        <v>56.7</v>
       </c>
       <c r="C98" t="n">
-        <v>54</v>
+        <v>56.7</v>
       </c>
       <c r="D98" t="n">
-        <v>54.3</v>
+        <v>56.7</v>
       </c>
       <c r="E98" t="n">
-        <v>54</v>
+        <v>56.7</v>
       </c>
       <c r="F98" t="n">
-        <v>15456.3147</v>
+        <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>-544494.7546233099</v>
+        <v>56.37499999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>54.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="C99" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="D99" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="E99" t="n">
-        <v>54.8</v>
+        <v>57.1</v>
       </c>
       <c r="F99" t="n">
         <v>11</v>
       </c>
       <c r="G99" t="n">
-        <v>-544483.7546233099</v>
+        <v>56.41499999999998</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="C100" t="n">
-        <v>54</v>
+        <v>57.2</v>
       </c>
       <c r="D100" t="n">
-        <v>54.6</v>
+        <v>57.2</v>
       </c>
       <c r="E100" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F100" t="n">
-        <v>13142.5959</v>
+        <v>7468.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>-557626.3505233099</v>
+        <v>56.39499999999998</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>54.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>54.6</v>
+        <v>56.3</v>
       </c>
       <c r="C101" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D101" t="n">
-        <v>55.1</v>
+        <v>57.1</v>
       </c>
       <c r="E101" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>60408.2792</v>
       </c>
       <c r="G101" t="n">
-        <v>-557615.3505233099</v>
+        <v>56.38999999999997</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>54.5</v>
+        <v>56</v>
       </c>
       <c r="C102" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="D102" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="E102" t="n">
-        <v>54.5</v>
+        <v>56</v>
       </c>
       <c r="F102" t="n">
-        <v>7800</v>
+        <v>353</v>
       </c>
       <c r="G102" t="n">
-        <v>-549815.3505233099</v>
+        <v>56.36499999999997</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>55.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="C103" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D103" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="E103" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F103" t="n">
-        <v>1107.77</v>
+        <v>4665.3723</v>
       </c>
       <c r="G103" t="n">
-        <v>-550923.1205233099</v>
+        <v>56.33499999999998</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>55.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="C104" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="D104" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="E104" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="F104" t="n">
-        <v>911.7141</v>
+        <v>2827.5994</v>
       </c>
       <c r="G104" t="n">
-        <v>-550011.4064233099</v>
+        <v>56.29999999999998</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>55.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="C105" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="D105" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="E105" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="F105" t="n">
-        <v>13046.3749</v>
+        <v>6051.5</v>
       </c>
       <c r="G105" t="n">
-        <v>-536965.0315233099</v>
+        <v>56.27499999999998</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>55.2</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="C106" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="D106" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="E106" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="F106" t="n">
-        <v>1478</v>
+        <v>3436</v>
       </c>
       <c r="G106" t="n">
-        <v>-535487.0315233099</v>
+        <v>56.21999999999998</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>55.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="C107" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="D107" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="E107" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="F107" t="n">
-        <v>22894.0086</v>
+        <v>590</v>
       </c>
       <c r="G107" t="n">
-        <v>-512593.0229233099</v>
+        <v>56.20499999999998</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>55.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4466,231 +4499,232 @@
         <v>55.9</v>
       </c>
       <c r="C108" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="D108" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="E108" t="n">
         <v>55.9</v>
       </c>
       <c r="F108" t="n">
-        <v>11503.64307635</v>
+        <v>8749</v>
       </c>
       <c r="G108" t="n">
-        <v>-501089.3798469599</v>
+        <v>56.19499999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>55.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="C109" t="n">
-        <v>54.7</v>
+        <v>55.7</v>
       </c>
       <c r="D109" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="E109" t="n">
-        <v>54.7</v>
+        <v>55.7</v>
       </c>
       <c r="F109" t="n">
-        <v>21305.0836</v>
+        <v>1222.9999</v>
       </c>
       <c r="G109" t="n">
-        <v>-522394.4634469599</v>
+        <v>56.19499999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>56.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="C110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="D110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="E110" t="n">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G110" t="n">
-        <v>-522383.4634469599</v>
+        <v>56.19999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>55.7</v>
+      </c>
+      <c r="K110" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="C111" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="D111" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="E111" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="F111" t="n">
-        <v>10.7054</v>
+        <v>1160.7682</v>
       </c>
       <c r="G111" t="n">
-        <v>-522383.4634469599</v>
+        <v>56.18999999999998</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="K111" t="n">
+        <v>55.7</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>56.7</v>
+        <v>55.5</v>
       </c>
       <c r="C112" t="n">
-        <v>57.2</v>
+        <v>51.7</v>
       </c>
       <c r="D112" t="n">
-        <v>57.2</v>
+        <v>55.5</v>
       </c>
       <c r="E112" t="n">
-        <v>56.7</v>
+        <v>51.7</v>
       </c>
       <c r="F112" t="n">
-        <v>413.2946</v>
+        <v>39716.7932</v>
       </c>
       <c r="G112" t="n">
-        <v>-521970.1688469599</v>
+        <v>56.17999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="K112" t="n">
+        <v>55.7</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>57.3</v>
+        <v>55.2</v>
       </c>
       <c r="C113" t="n">
-        <v>56.4</v>
+        <v>55.2</v>
       </c>
       <c r="D113" t="n">
-        <v>57.3</v>
+        <v>55.2</v>
       </c>
       <c r="E113" t="n">
-        <v>56.4</v>
+        <v>55.2</v>
       </c>
       <c r="F113" t="n">
-        <v>1637.9999</v>
+        <v>3028</v>
       </c>
       <c r="G113" t="n">
-        <v>-523608.1687469599</v>
+        <v>56.07499999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K113" t="n">
+        <v>55.7</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,37 +4733,42 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>57.3</v>
+        <v>53</v>
       </c>
       <c r="C114" t="n">
-        <v>57.3</v>
+        <v>51.7</v>
       </c>
       <c r="D114" t="n">
-        <v>57.3</v>
+        <v>53</v>
       </c>
       <c r="E114" t="n">
-        <v>57.3</v>
+        <v>51.7</v>
       </c>
       <c r="F114" t="n">
-        <v>11</v>
+        <v>13594.236</v>
       </c>
       <c r="G114" t="n">
-        <v>-523597.1687469599</v>
+        <v>55.92999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>55.7</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,1486 +4777,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="C115" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>7580</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-531177.1687469599</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>340</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-530837.1687469599</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>56</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6095.9999</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-536933.1686469599</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>31</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-536964.1686469599</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22036</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-559000.1686469599</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6932</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-552068.1686469599</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E121" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>12834.5873</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-539233.5813469599</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="D122" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3227</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-542460.5813469599</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1076</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-542460.5813469599</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-542449.5813469599</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F125" t="n">
-        <v>11</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-542438.5813469599</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>12257.7801</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-530180.8012469599</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4147.7967</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-534328.5979469599</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>8612</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-525716.5979469599</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>57</v>
-      </c>
-      <c r="D129" t="n">
-        <v>57</v>
-      </c>
-      <c r="E129" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6555.5205</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-532272.1184469599</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>822.8908</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-533095.0092469599</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4264.9999</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-537360.00914696</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>800</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-537360.00914696</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>56</v>
-      </c>
-      <c r="D133" t="n">
-        <v>56</v>
-      </c>
-      <c r="E133" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F133" t="n">
-        <v>400</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-536960.00914696</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>5916.8841</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-542876.89324696</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C135" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E135" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>11</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-542865.89324696</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D136" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E136" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1369.7575</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-542865.89324696</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>857.2066</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-543723.09984696</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>11</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-543712.09984696</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>56</v>
-      </c>
-      <c r="C139" t="n">
-        <v>56</v>
-      </c>
-      <c r="D139" t="n">
-        <v>56</v>
-      </c>
-      <c r="E139" t="n">
-        <v>56</v>
-      </c>
-      <c r="F139" t="n">
-        <v>6188</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-549900.09984696</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>11</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-549889.09984696</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>11</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-549878.09984696</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>56</v>
-      </c>
-      <c r="C142" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>56</v>
-      </c>
-      <c r="F142" t="n">
-        <v>7468.9999</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-542409.09994696</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="C143" t="n">
-        <v>56</v>
-      </c>
-      <c r="D143" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>56</v>
-      </c>
-      <c r="F143" t="n">
-        <v>60408.2792</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>56</v>
-      </c>
-      <c r="C144" t="n">
-        <v>56</v>
-      </c>
-      <c r="D144" t="n">
-        <v>56</v>
-      </c>
-      <c r="E144" t="n">
-        <v>56</v>
-      </c>
-      <c r="F144" t="n">
-        <v>353</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>56</v>
-      </c>
-      <c r="C145" t="n">
-        <v>56</v>
-      </c>
-      <c r="D145" t="n">
-        <v>56</v>
-      </c>
-      <c r="E145" t="n">
-        <v>56</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4665.3723</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>56</v>
-      </c>
-      <c r="C146" t="n">
-        <v>56</v>
-      </c>
-      <c r="D146" t="n">
-        <v>56</v>
-      </c>
-      <c r="E146" t="n">
-        <v>56</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2827.5994</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6051.5</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-608868.87914696</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>56</v>
-      </c>
-      <c r="C148" t="n">
-        <v>56</v>
-      </c>
-      <c r="D148" t="n">
-        <v>56</v>
-      </c>
-      <c r="E148" t="n">
-        <v>56</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3436</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-605432.87914696</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>56</v>
-      </c>
-      <c r="C149" t="n">
-        <v>56</v>
-      </c>
-      <c r="D149" t="n">
-        <v>56</v>
-      </c>
-      <c r="E149" t="n">
-        <v>56</v>
-      </c>
-      <c r="F149" t="n">
-        <v>590</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-605432.87914696</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D150" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>8749</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-614181.87914696</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C151" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1222.9999</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-615404.87904696</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>56</v>
-      </c>
-      <c r="C152" t="n">
-        <v>56</v>
-      </c>
-      <c r="D152" t="n">
-        <v>56</v>
-      </c>
-      <c r="E152" t="n">
-        <v>56</v>
-      </c>
-      <c r="F152" t="n">
-        <v>316</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-615088.87904696</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C153" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E153" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1160.7682</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-616249.6472469601</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>39716.7932</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-655966.44044696</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3028</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-652938.44044696</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>53</v>
-      </c>
-      <c r="C156" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D156" t="n">
-        <v>53</v>
-      </c>
-      <c r="E156" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>13594.236</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-666532.6764469601</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="C2" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="D2" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="E2" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>27474.5636</v>
       </c>
       <c r="G2" t="n">
-        <v>55.25499999999997</v>
+        <v>-349069.2402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54.3</v>
+        <v>52.8</v>
       </c>
       <c r="C3" t="n">
-        <v>55.7</v>
+        <v>52.8</v>
       </c>
       <c r="D3" t="n">
-        <v>55.8</v>
+        <v>52.8</v>
       </c>
       <c r="E3" t="n">
-        <v>54.3</v>
+        <v>52.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4555.2091</v>
+        <v>1686.1835</v>
       </c>
       <c r="G3" t="n">
-        <v>55.19499999999997</v>
+        <v>-349069.2402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55.3</v>
+        <v>52.9</v>
       </c>
       <c r="C4" t="n">
-        <v>55.3</v>
+        <v>52.9</v>
       </c>
       <c r="D4" t="n">
-        <v>55.3</v>
+        <v>52.9</v>
       </c>
       <c r="E4" t="n">
-        <v>55.3</v>
+        <v>52.9</v>
       </c>
       <c r="F4" t="n">
-        <v>39.6925</v>
+        <v>15074.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>55.18499999999997</v>
+        <v>-333994.2403</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,31 +546,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="C5" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="D5" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="E5" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="F5" t="n">
-        <v>19.7966</v>
+        <v>2187</v>
       </c>
       <c r="G5" t="n">
-        <v>55.13499999999997</v>
+        <v>-333994.2403</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -582,22 +586,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55.3</v>
+        <v>52.1</v>
       </c>
       <c r="C6" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="D6" t="n">
-        <v>55.3</v>
+        <v>52.8</v>
       </c>
       <c r="E6" t="n">
-        <v>55.3</v>
+        <v>52.1</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>19517.6861</v>
       </c>
       <c r="G6" t="n">
-        <v>55.12499999999996</v>
+        <v>-353511.9264</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +610,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +628,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="C7" t="n">
-        <v>55.4</v>
+        <v>52.9</v>
       </c>
       <c r="D7" t="n">
-        <v>55.4</v>
+        <v>52.9</v>
       </c>
       <c r="E7" t="n">
-        <v>55.3</v>
+        <v>52.4</v>
       </c>
       <c r="F7" t="n">
-        <v>18254.0001</v>
+        <v>8558.394899999999</v>
       </c>
       <c r="G7" t="n">
-        <v>55.09499999999996</v>
+        <v>-344953.5315</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +672,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55.7</v>
+        <v>52.6</v>
       </c>
       <c r="C8" t="n">
-        <v>55.7</v>
+        <v>52.6</v>
       </c>
       <c r="D8" t="n">
-        <v>55.7</v>
+        <v>52.6</v>
       </c>
       <c r="E8" t="n">
-        <v>55.7</v>
+        <v>52.6</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>8105.6423</v>
       </c>
       <c r="G8" t="n">
-        <v>55.08499999999996</v>
+        <v>-353059.1738</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +716,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54.9</v>
+        <v>52.6</v>
       </c>
       <c r="C9" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="E9" t="n">
-        <v>54.1</v>
+        <v>52.6</v>
       </c>
       <c r="F9" t="n">
-        <v>41148.7903</v>
+        <v>11980</v>
       </c>
       <c r="G9" t="n">
-        <v>55.01499999999997</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +760,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>54.8</v>
+        <v>52.9</v>
       </c>
       <c r="C10" t="n">
-        <v>54.7</v>
+        <v>52.9</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8</v>
+        <v>52.9</v>
       </c>
       <c r="E10" t="n">
-        <v>54.7</v>
+        <v>52.9</v>
       </c>
       <c r="F10" t="n">
-        <v>6249.154</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="n">
-        <v>54.97499999999997</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +804,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="C11" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="D11" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="E11" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="F11" t="n">
-        <v>58269.4272</v>
+        <v>1580</v>
       </c>
       <c r="G11" t="n">
-        <v>54.89999999999996</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +848,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="C12" t="n">
-        <v>54.8</v>
+        <v>52.9</v>
       </c>
       <c r="D12" t="n">
-        <v>54.8</v>
+        <v>52.9</v>
       </c>
       <c r="E12" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="F12" t="n">
-        <v>6503.988</v>
+        <v>14497</v>
       </c>
       <c r="G12" t="n">
-        <v>54.86999999999997</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +892,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="C13" t="n">
-        <v>55.5</v>
+        <v>52.9</v>
       </c>
       <c r="D13" t="n">
-        <v>55.5</v>
+        <v>52.9</v>
       </c>
       <c r="E13" t="n">
-        <v>54.9</v>
+        <v>52.9</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>100.4</v>
       </c>
       <c r="G13" t="n">
-        <v>54.93999999999998</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +936,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55.6</v>
+        <v>52.9</v>
       </c>
       <c r="C14" t="n">
-        <v>55.6</v>
+        <v>52.9</v>
       </c>
       <c r="D14" t="n">
-        <v>55.6</v>
+        <v>52.9</v>
       </c>
       <c r="E14" t="n">
-        <v>55.6</v>
+        <v>52.9</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>100.4</v>
       </c>
       <c r="G14" t="n">
-        <v>54.99499999999997</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +980,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>52.9</v>
       </c>
       <c r="C15" t="n">
-        <v>55.1</v>
+        <v>52.9</v>
       </c>
       <c r="D15" t="n">
-        <v>55.1</v>
+        <v>52.9</v>
       </c>
       <c r="E15" t="n">
-        <v>55</v>
+        <v>52.9</v>
       </c>
       <c r="F15" t="n">
-        <v>4185.6904</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>55.00499999999997</v>
+        <v>-341079.1738</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1024,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55.2</v>
+        <v>52.5</v>
       </c>
       <c r="C16" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="D16" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="E16" t="n">
-        <v>55.2</v>
+        <v>52.5</v>
       </c>
       <c r="F16" t="n">
-        <v>15115.088</v>
+        <v>4291.8749</v>
       </c>
       <c r="G16" t="n">
-        <v>55.03999999999998</v>
+        <v>-345371.0487</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1068,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>54.6</v>
+        <v>52.8</v>
       </c>
       <c r="C17" t="n">
-        <v>54.6</v>
+        <v>52.8</v>
       </c>
       <c r="D17" t="n">
-        <v>54.6</v>
+        <v>52.8</v>
       </c>
       <c r="E17" t="n">
-        <v>54.6</v>
+        <v>52.8</v>
       </c>
       <c r="F17" t="n">
-        <v>19.7967</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>55.07999999999997</v>
+        <v>-345351.0487</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1112,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55.6</v>
+        <v>52.5</v>
       </c>
       <c r="C18" t="n">
-        <v>55.6</v>
+        <v>52.5</v>
       </c>
       <c r="D18" t="n">
-        <v>55.6</v>
+        <v>52.5</v>
       </c>
       <c r="E18" t="n">
-        <v>55.6</v>
+        <v>52.5</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="n">
-        <v>55.06999999999997</v>
+        <v>-350351.0487</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1156,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54.6</v>
+        <v>52.5</v>
       </c>
       <c r="C19" t="n">
-        <v>54.6</v>
+        <v>52.4</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6</v>
+        <v>52.5</v>
       </c>
       <c r="E19" t="n">
-        <v>54.6</v>
+        <v>52.4</v>
       </c>
       <c r="F19" t="n">
-        <v>1952.0548</v>
+        <v>20730.5437</v>
       </c>
       <c r="G19" t="n">
-        <v>55.00499999999996</v>
+        <v>-371081.5924</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1200,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>55.4</v>
+        <v>52.4</v>
       </c>
       <c r="C20" t="n">
-        <v>55.4</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>55.4</v>
+        <v>54.1</v>
       </c>
       <c r="E20" t="n">
-        <v>55.4</v>
+        <v>52.4</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>23708.6192</v>
       </c>
       <c r="G20" t="n">
-        <v>54.98499999999997</v>
+        <v>-347372.9731999999</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1110,12 +1224,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>54.6</v>
+        <v>52.4</v>
       </c>
       <c r="K20" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1126,36 +1244,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
-        <v>55.2</v>
+        <v>57.4</v>
       </c>
       <c r="D21" t="n">
-        <v>55.2</v>
+        <v>57.4</v>
       </c>
       <c r="E21" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="F21" t="n">
-        <v>1149.2697</v>
+        <v>84814.849</v>
       </c>
       <c r="G21" t="n">
-        <v>55.02499999999996</v>
+        <v>-262558.1242</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>54</v>
+      </c>
       <c r="K21" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1168,22 +1288,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>55.4</v>
+        <v>57.4</v>
       </c>
       <c r="C22" t="n">
-        <v>55.4</v>
+        <v>57.4</v>
       </c>
       <c r="D22" t="n">
-        <v>55.4</v>
+        <v>57.4</v>
       </c>
       <c r="E22" t="n">
-        <v>55.4</v>
+        <v>57.4</v>
       </c>
       <c r="F22" t="n">
-        <v>3416</v>
+        <v>15989.0557</v>
       </c>
       <c r="G22" t="n">
-        <v>54.99999999999996</v>
+        <v>-262558.1242</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1193,11 +1313,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1210,22 +1330,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="C23" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="D23" t="n">
-        <v>55.5</v>
+        <v>57.4</v>
       </c>
       <c r="E23" t="n">
-        <v>55.5</v>
+        <v>57.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1972</v>
+        <v>12391.324</v>
       </c>
       <c r="G23" t="n">
-        <v>55.05999999999997</v>
+        <v>-274949.4482</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1234,8 +1354,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1372,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.5</v>
+        <v>57.2</v>
       </c>
       <c r="C24" t="n">
-        <v>55.5</v>
+        <v>57.2</v>
       </c>
       <c r="D24" t="n">
-        <v>55.5</v>
+        <v>57.2</v>
       </c>
       <c r="E24" t="n">
-        <v>55.5</v>
+        <v>57.2</v>
       </c>
       <c r="F24" t="n">
-        <v>796</v>
+        <v>2721.3811</v>
       </c>
       <c r="G24" t="n">
-        <v>55.06999999999997</v>
+        <v>-277670.8293</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1270,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1414,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.4</v>
+        <v>57.1</v>
       </c>
       <c r="C25" t="n">
-        <v>55.4</v>
+        <v>57.2</v>
       </c>
       <c r="D25" t="n">
-        <v>55.4</v>
+        <v>57.2</v>
       </c>
       <c r="E25" t="n">
-        <v>55.4</v>
+        <v>57.1</v>
       </c>
       <c r="F25" t="n">
-        <v>2688</v>
+        <v>147679.048</v>
       </c>
       <c r="G25" t="n">
-        <v>55.12499999999998</v>
+        <v>-277670.8293</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1306,8 +1438,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1318,22 +1456,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="C26" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="D26" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="E26" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F26" t="n">
-        <v>6265.1555</v>
+        <v>36839.3941</v>
       </c>
       <c r="G26" t="n">
-        <v>55.12999999999998</v>
+        <v>-314510.2234</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1342,8 +1480,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1354,22 +1498,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.4</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>55.4</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>55.4</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>55.4</v>
+        <v>57</v>
       </c>
       <c r="F27" t="n">
-        <v>2661.6829</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>55.13499999999999</v>
+        <v>-314500.2234</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1378,8 +1522,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1390,36 +1540,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.3</v>
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>55.1</v>
+        <v>57.1</v>
       </c>
       <c r="D28" t="n">
-        <v>55.4</v>
+        <v>57.1</v>
       </c>
       <c r="E28" t="n">
-        <v>54.5</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
-        <v>48976.9015</v>
+        <v>2429.4921</v>
       </c>
       <c r="G28" t="n">
-        <v>55.11499999999999</v>
+        <v>-312070.7313</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1432,33 +1582,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="C29" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="D29" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="E29" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="F29" t="n">
-        <v>13055.5084</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>55.13999999999999</v>
+        <v>-312080.7313</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1474,33 +1624,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="C30" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="D30" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="E30" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="F30" t="n">
-        <v>15982.0787</v>
+        <v>2721.3811</v>
       </c>
       <c r="G30" t="n">
-        <v>55.17499999999999</v>
+        <v>-314802.1124</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1516,33 +1666,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
       <c r="C31" t="n">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
       <c r="D31" t="n">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
       <c r="E31" t="n">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
       <c r="F31" t="n">
-        <v>1458.2386</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>55.22999999999998</v>
+        <v>-314792.1124</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1558,33 +1708,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="C32" t="n">
-        <v>55.5</v>
+        <v>58.1</v>
       </c>
       <c r="D32" t="n">
-        <v>55.5</v>
+        <v>58.1</v>
       </c>
       <c r="E32" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="F32" t="n">
-        <v>713.7686</v>
+        <v>70723.5903</v>
       </c>
       <c r="G32" t="n">
-        <v>55.29499999999998</v>
+        <v>-244068.5221</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,33 +1750,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="C33" t="n">
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="D33" t="n">
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="E33" t="n">
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32499999999997</v>
+        <v>-244118.5221</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1642,33 +1792,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>55.6</v>
+        <v>57.1</v>
       </c>
       <c r="C34" t="n">
-        <v>55.6</v>
+        <v>57.4</v>
       </c>
       <c r="D34" t="n">
-        <v>55.6</v>
+        <v>57.4</v>
       </c>
       <c r="E34" t="n">
-        <v>55.6</v>
+        <v>57.1</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>6323.2071</v>
       </c>
       <c r="G34" t="n">
-        <v>55.32499999999997</v>
+        <v>-250441.7292</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1684,33 +1834,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54.9</v>
+        <v>57.9</v>
       </c>
       <c r="C35" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D35" t="n">
-        <v>54.9</v>
+        <v>57.9</v>
       </c>
       <c r="E35" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="F35" t="n">
-        <v>5263.67</v>
+        <v>11862.9568</v>
       </c>
       <c r="G35" t="n">
-        <v>55.31999999999998</v>
+        <v>-262304.686</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1726,33 +1876,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="C36" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="D36" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="E36" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="F36" t="n">
-        <v>13798.8271</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>55.28499999999998</v>
+        <v>-261304.686</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,33 +1918,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="C37" t="n">
-        <v>55.1</v>
+        <v>56.4</v>
       </c>
       <c r="D37" t="n">
-        <v>55.1</v>
+        <v>57.9</v>
       </c>
       <c r="E37" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="F37" t="n">
-        <v>5186</v>
+        <v>16002.2997</v>
       </c>
       <c r="G37" t="n">
-        <v>55.27999999999999</v>
+        <v>-245302.3863</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1810,33 +1960,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="C38" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="D38" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="E38" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1855</v>
+        <v>5037.25</v>
       </c>
       <c r="G38" t="n">
-        <v>55.22499999999999</v>
+        <v>-250339.6363</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1852,33 +2002,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
       <c r="C39" t="n">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
       <c r="D39" t="n">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
       <c r="E39" t="n">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
       <c r="F39" t="n">
-        <v>15921.3639</v>
+        <v>17733.3968</v>
       </c>
       <c r="G39" t="n">
-        <v>55.215</v>
+        <v>-250339.6363</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,33 +2044,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="C40" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="D40" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="E40" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="F40" t="n">
-        <v>36714.3224</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="n">
-        <v>55.165</v>
+        <v>-251839.6363</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,33 +2086,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="C41" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="D41" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="E41" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="F41" t="n">
-        <v>10.11</v>
+        <v>35544.3761</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16999999999999</v>
+        <v>-287384.0124</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1978,22 +2128,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="C42" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="D42" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="E42" t="n">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="F42" t="n">
-        <v>60682.99692365</v>
+        <v>5905.8618</v>
       </c>
       <c r="G42" t="n">
-        <v>55.14999999999999</v>
+        <v>-293289.8742</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2002,7 +2152,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2018,22 +2170,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="C43" t="n">
-        <v>55.7</v>
+        <v>57.9</v>
       </c>
       <c r="D43" t="n">
-        <v>55.7</v>
+        <v>57.9</v>
       </c>
       <c r="E43" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="F43" t="n">
-        <v>10.18</v>
+        <v>25016.88530034</v>
       </c>
       <c r="G43" t="n">
-        <v>55.15999999999999</v>
+        <v>-268272.98889966</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2042,7 +2194,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,22 +2212,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="C44" t="n">
-        <v>54.9</v>
+        <v>55.9</v>
       </c>
       <c r="D44" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="E44" t="n">
-        <v>54.9</v>
+        <v>55.9</v>
       </c>
       <c r="F44" t="n">
-        <v>3590.0397</v>
+        <v>1600</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16499999999998</v>
+        <v>-269872.98889966</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2082,7 +2236,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,22 +2254,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>55.6</v>
+        <v>56.4</v>
       </c>
       <c r="C45" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="D45" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="E45" t="n">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="F45" t="n">
-        <v>10.11</v>
+        <v>9099.128699999999</v>
       </c>
       <c r="G45" t="n">
-        <v>55.17499999999998</v>
+        <v>-260773.86019966</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2122,7 +2278,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,22 +2296,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="C46" t="n">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="D46" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="E46" t="n">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="F46" t="n">
-        <v>120.3237</v>
+        <v>3313.8145</v>
       </c>
       <c r="G46" t="n">
-        <v>55.18499999999997</v>
+        <v>-264087.67469966</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2162,7 +2320,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2178,22 +2338,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>54.6</v>
+        <v>56.9</v>
       </c>
       <c r="C47" t="n">
-        <v>54.6</v>
+        <v>56.9</v>
       </c>
       <c r="D47" t="n">
-        <v>54.6</v>
+        <v>56.9</v>
       </c>
       <c r="E47" t="n">
-        <v>54.6</v>
+        <v>56.9</v>
       </c>
       <c r="F47" t="n">
-        <v>947.9999</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>55.14499999999996</v>
+        <v>-264077.67469966</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2202,7 +2362,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2218,22 +2380,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55.6</v>
+        <v>56.4</v>
       </c>
       <c r="C48" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="D48" t="n">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="E48" t="n">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="F48" t="n">
-        <v>11.18</v>
+        <v>1897.208</v>
       </c>
       <c r="G48" t="n">
-        <v>55.15999999999995</v>
+        <v>-262180.46669966</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2242,7 +2404,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2258,22 +2422,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55.4</v>
+        <v>56.2</v>
       </c>
       <c r="C49" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="D49" t="n">
-        <v>55.4</v>
+        <v>56.2</v>
       </c>
       <c r="E49" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="F49" t="n">
-        <v>10.1</v>
+        <v>28607.5437</v>
       </c>
       <c r="G49" t="n">
-        <v>55.15999999999995</v>
+        <v>-290788.01039966</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2282,7 +2446,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,22 +2464,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>54.4</v>
+        <v>56.6</v>
       </c>
       <c r="C50" t="n">
-        <v>54.4</v>
+        <v>57.2</v>
       </c>
       <c r="D50" t="n">
-        <v>54.4</v>
+        <v>57.2</v>
       </c>
       <c r="E50" t="n">
-        <v>54.4</v>
+        <v>56.1</v>
       </c>
       <c r="F50" t="n">
-        <v>3106.3249</v>
+        <v>12974.9434</v>
       </c>
       <c r="G50" t="n">
-        <v>55.10499999999996</v>
+        <v>-277813.06699966</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2322,7 +2488,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2338,22 +2506,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>54.4</v>
+        <v>56.1</v>
       </c>
       <c r="C51" t="n">
-        <v>54.4</v>
+        <v>56.2</v>
       </c>
       <c r="D51" t="n">
-        <v>54.4</v>
+        <v>56.2</v>
       </c>
       <c r="E51" t="n">
-        <v>54.4</v>
+        <v>56.1</v>
       </c>
       <c r="F51" t="n">
-        <v>3567.326</v>
+        <v>8124.6412</v>
       </c>
       <c r="G51" t="n">
-        <v>55.04999999999997</v>
+        <v>-285937.70819966</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2362,7 +2530,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,22 +2548,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>54.3</v>
+        <v>56.1</v>
       </c>
       <c r="C52" t="n">
-        <v>54.3</v>
+        <v>56.1</v>
       </c>
       <c r="D52" t="n">
-        <v>54.3</v>
+        <v>56.1</v>
       </c>
       <c r="E52" t="n">
-        <v>54.3</v>
+        <v>56.1</v>
       </c>
       <c r="F52" t="n">
-        <v>5836.932</v>
+        <v>12812.0228</v>
       </c>
       <c r="G52" t="n">
-        <v>54.98999999999997</v>
+        <v>-298749.73099966</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2402,7 +2572,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2418,22 +2590,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>54.3</v>
+        <v>55.7</v>
       </c>
       <c r="C53" t="n">
-        <v>54.3</v>
+        <v>55.7</v>
       </c>
       <c r="D53" t="n">
-        <v>54.3</v>
+        <v>55.7</v>
       </c>
       <c r="E53" t="n">
-        <v>54.3</v>
+        <v>55.7</v>
       </c>
       <c r="F53" t="n">
-        <v>966.9999</v>
+        <v>300</v>
       </c>
       <c r="G53" t="n">
-        <v>54.92999999999996</v>
+        <v>-299049.73099966</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2442,7 +2614,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,33 +2632,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="C54" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="D54" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="E54" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="F54" t="n">
-        <v>967</v>
+        <v>959.6482</v>
       </c>
       <c r="G54" t="n">
-        <v>54.86499999999997</v>
+        <v>-300009.37919966</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,33 +2674,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="C55" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="D55" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="E55" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>820.9999</v>
       </c>
       <c r="G55" t="n">
-        <v>54.85999999999996</v>
+        <v>-300009.37919966</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,40 +2716,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>54.3</v>
+        <v>55.3</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="D56" t="n">
-        <v>54.3</v>
+        <v>55.5</v>
       </c>
       <c r="E56" t="n">
-        <v>54</v>
+        <v>55.3</v>
       </c>
       <c r="F56" t="n">
-        <v>15456.3147</v>
+        <v>6472.9956</v>
       </c>
       <c r="G56" t="n">
-        <v>54.84999999999995</v>
+        <v>-300009.37919966</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>1.044149338374291</v>
       </c>
       <c r="N56" t="inlineStr"/>
     </row>
@@ -2584,38 +2758,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="C57" t="n">
-        <v>54.8</v>
+        <v>55.6</v>
       </c>
       <c r="D57" t="n">
-        <v>54.8</v>
+        <v>55.7</v>
       </c>
       <c r="E57" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>8873.730799999999</v>
       </c>
       <c r="G57" t="n">
-        <v>54.86499999999995</v>
+        <v>-291135.64839966</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2626,38 +2794,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="C58" t="n">
-        <v>54</v>
+        <v>55.9</v>
       </c>
       <c r="D58" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="E58" t="n">
-        <v>54</v>
+        <v>55.9</v>
       </c>
       <c r="F58" t="n">
-        <v>13142.5959</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>54.86999999999995</v>
+        <v>-291124.64839966</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>54.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2668,38 +2830,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="C59" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="D59" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="E59" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>54.87999999999994</v>
+        <v>-291124.64839966</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>54</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2710,38 +2866,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="C60" t="n">
-        <v>55.2</v>
+        <v>56.3</v>
       </c>
       <c r="D60" t="n">
-        <v>55.2</v>
+        <v>56.3</v>
       </c>
       <c r="E60" t="n">
-        <v>54.5</v>
+        <v>56.3</v>
       </c>
       <c r="F60" t="n">
-        <v>7800</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>54.88499999999993</v>
+        <v>-291114.64839966</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>55.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2752,38 +2902,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="C61" t="n">
-        <v>55.1</v>
+        <v>53.4</v>
       </c>
       <c r="D61" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="E61" t="n">
-        <v>55.1</v>
+        <v>53.4</v>
       </c>
       <c r="F61" t="n">
-        <v>1107.77</v>
+        <v>11127.0958</v>
       </c>
       <c r="G61" t="n">
-        <v>54.87499999999993</v>
+        <v>-302241.74419966</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>55.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2794,38 +2938,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="C62" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="D62" t="n">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="E62" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="F62" t="n">
-        <v>911.7141</v>
+        <v>231</v>
       </c>
       <c r="G62" t="n">
-        <v>54.88499999999993</v>
+        <v>-302010.74419966</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>55.1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2836,38 +2974,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="C63" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="D63" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="E63" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F63" t="n">
-        <v>13046.3749</v>
+        <v>14536.1276</v>
       </c>
       <c r="G63" t="n">
-        <v>54.86499999999993</v>
+        <v>-316546.87179966</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>55.2</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2878,38 +3010,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>55.5</v>
+        <v>53.5</v>
       </c>
       <c r="C64" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="D64" t="n">
-        <v>55.5</v>
+        <v>54.8</v>
       </c>
       <c r="E64" t="n">
-        <v>55.5</v>
+        <v>53.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1478</v>
+        <v>59.875</v>
       </c>
       <c r="G64" t="n">
-        <v>54.85999999999994</v>
+        <v>-316546.87179966</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>55.4</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2920,38 +3046,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="C65" t="n">
-        <v>55.9</v>
+        <v>53.8</v>
       </c>
       <c r="D65" t="n">
-        <v>55.9</v>
+        <v>54.8</v>
       </c>
       <c r="E65" t="n">
-        <v>55.5</v>
+        <v>53.8</v>
       </c>
       <c r="F65" t="n">
-        <v>22894.0086</v>
+        <v>5616.363</v>
       </c>
       <c r="G65" t="n">
-        <v>54.85499999999994</v>
+        <v>-322163.23479966</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>55.5</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2962,22 +3082,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>55.9</v>
+        <v>54.8</v>
       </c>
       <c r="C66" t="n">
-        <v>56.2</v>
+        <v>54.8</v>
       </c>
       <c r="D66" t="n">
-        <v>56.2</v>
+        <v>54.8</v>
       </c>
       <c r="E66" t="n">
-        <v>55.9</v>
+        <v>54.8</v>
       </c>
       <c r="F66" t="n">
-        <v>11503.64307635</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>54.86999999999995</v>
+        <v>-322152.23479966</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2987,11 +3107,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3002,22 +3118,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56.2</v>
+        <v>54.5</v>
       </c>
       <c r="C67" t="n">
-        <v>54.7</v>
+        <v>55.7</v>
       </c>
       <c r="D67" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="E67" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="F67" t="n">
-        <v>21305.0836</v>
+        <v>1153.4317</v>
       </c>
       <c r="G67" t="n">
-        <v>54.94999999999995</v>
+        <v>-320998.80309966</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3027,11 +3143,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3042,22 +3154,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56.7</v>
+        <v>53.8</v>
       </c>
       <c r="C68" t="n">
-        <v>56.7</v>
+        <v>53.8</v>
       </c>
       <c r="D68" t="n">
-        <v>56.7</v>
+        <v>53.8</v>
       </c>
       <c r="E68" t="n">
-        <v>56.7</v>
+        <v>53.8</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>671.735</v>
       </c>
       <c r="G68" t="n">
-        <v>55.00499999999996</v>
+        <v>-321670.53809966</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3067,11 +3179,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +3190,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C69" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="D69" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="E69" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="F69" t="n">
-        <v>10.7054</v>
+        <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>55.06999999999996</v>
+        <v>-321659.53809966</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3107,11 +3215,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3122,22 +3226,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="C70" t="n">
-        <v>57.2</v>
+        <v>55.9</v>
       </c>
       <c r="D70" t="n">
-        <v>57.2</v>
+        <v>55.9</v>
       </c>
       <c r="E70" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="F70" t="n">
-        <v>413.2946</v>
+        <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>55.18499999999996</v>
+        <v>-321648.53809966</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3147,11 +3251,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3162,37 +3262,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>57.3</v>
+        <v>55.8</v>
       </c>
       <c r="C71" t="n">
-        <v>56.4</v>
+        <v>55.9</v>
       </c>
       <c r="D71" t="n">
-        <v>57.3</v>
+        <v>55.9</v>
       </c>
       <c r="E71" t="n">
-        <v>56.4</v>
+        <v>55.8</v>
       </c>
       <c r="F71" t="n">
-        <v>1637.9999</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>55.32999999999995</v>
+        <v>-321648.53809966</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
       <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3200,22 +3298,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>57.3</v>
+        <v>54.4</v>
       </c>
       <c r="C72" t="n">
-        <v>57.3</v>
+        <v>54.4</v>
       </c>
       <c r="D72" t="n">
-        <v>57.3</v>
+        <v>54.4</v>
       </c>
       <c r="E72" t="n">
-        <v>57.3</v>
+        <v>54.4</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>3274.3371</v>
       </c>
       <c r="G72" t="n">
-        <v>55.47999999999995</v>
+        <v>-324922.87519966</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3236,28 +3334,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>56.3</v>
+        <v>55.9</v>
       </c>
       <c r="C73" t="n">
-        <v>57.2</v>
+        <v>55.9</v>
       </c>
       <c r="D73" t="n">
-        <v>57.2</v>
+        <v>55.9</v>
       </c>
       <c r="E73" t="n">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="F73" t="n">
-        <v>7580</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>55.57999999999995</v>
+        <v>-324911.87519966</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3272,28 +3370,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>57.3</v>
+        <v>54.3</v>
       </c>
       <c r="C74" t="n">
-        <v>57.4</v>
+        <v>55.7</v>
       </c>
       <c r="D74" t="n">
-        <v>57.4</v>
+        <v>55.8</v>
       </c>
       <c r="E74" t="n">
-        <v>57.3</v>
+        <v>54.3</v>
       </c>
       <c r="F74" t="n">
-        <v>340</v>
+        <v>4555.2091</v>
       </c>
       <c r="G74" t="n">
-        <v>55.72999999999995</v>
+        <v>-329467.0842996599</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3308,28 +3406,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="C75" t="n">
-        <v>57.3</v>
+        <v>55.3</v>
       </c>
       <c r="D75" t="n">
-        <v>57.4</v>
+        <v>55.3</v>
       </c>
       <c r="E75" t="n">
-        <v>56</v>
+        <v>55.3</v>
       </c>
       <c r="F75" t="n">
-        <v>6095.9999</v>
+        <v>39.6925</v>
       </c>
       <c r="G75" t="n">
-        <v>55.79999999999995</v>
+        <v>-329506.7767996599</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3344,22 +3442,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="C76" t="n">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="D76" t="n">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="E76" t="n">
-        <v>55.7</v>
+        <v>54.3</v>
       </c>
       <c r="F76" t="n">
-        <v>31</v>
+        <v>19.7966</v>
       </c>
       <c r="G76" t="n">
-        <v>55.91999999999996</v>
+        <v>-329526.5733996599</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3380,22 +3478,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C77" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="D77" t="n">
-        <v>56.3</v>
+        <v>55.3</v>
       </c>
       <c r="E77" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="F77" t="n">
-        <v>22036</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>55.97499999999997</v>
+        <v>-329515.5733996599</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3416,22 +3514,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="C78" t="n">
-        <v>56.3</v>
+        <v>55.4</v>
       </c>
       <c r="D78" t="n">
-        <v>56.3</v>
+        <v>55.4</v>
       </c>
       <c r="E78" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="F78" t="n">
-        <v>6932</v>
+        <v>18254.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>56.05499999999997</v>
+        <v>-311261.5732996599</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3452,22 +3550,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="C79" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="D79" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="E79" t="n">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="F79" t="n">
-        <v>12834.5873</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>56.13999999999997</v>
+        <v>-311250.5732996599</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3488,22 +3586,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>56.4</v>
+        <v>54.9</v>
       </c>
       <c r="C80" t="n">
-        <v>56.4</v>
+        <v>54.1</v>
       </c>
       <c r="D80" t="n">
-        <v>56.4</v>
+        <v>54.9</v>
       </c>
       <c r="E80" t="n">
-        <v>56.4</v>
+        <v>54.1</v>
       </c>
       <c r="F80" t="n">
-        <v>3227</v>
+        <v>41148.7903</v>
       </c>
       <c r="G80" t="n">
-        <v>56.23499999999998</v>
+        <v>-352399.3635996599</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3524,22 +3622,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="C81" t="n">
-        <v>56.4</v>
+        <v>54.7</v>
       </c>
       <c r="D81" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="E81" t="n">
-        <v>56.4</v>
+        <v>54.7</v>
       </c>
       <c r="F81" t="n">
-        <v>1076</v>
+        <v>6249.154</v>
       </c>
       <c r="G81" t="n">
-        <v>56.29999999999999</v>
+        <v>-346150.20959966</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3560,22 +3658,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>56.5</v>
+        <v>54.4</v>
       </c>
       <c r="C82" t="n">
-        <v>56.5</v>
+        <v>54.2</v>
       </c>
       <c r="D82" t="n">
-        <v>56.5</v>
+        <v>54.4</v>
       </c>
       <c r="E82" t="n">
-        <v>56.5</v>
+        <v>54.2</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>58269.4272</v>
       </c>
       <c r="G82" t="n">
-        <v>56.36499999999999</v>
+        <v>-404419.6367996599</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3596,22 +3694,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>56.6</v>
+        <v>54.2</v>
       </c>
       <c r="C83" t="n">
-        <v>56.7</v>
+        <v>54.8</v>
       </c>
       <c r="D83" t="n">
-        <v>56.7</v>
+        <v>54.8</v>
       </c>
       <c r="E83" t="n">
-        <v>56.6</v>
+        <v>54.2</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>6503.988</v>
       </c>
       <c r="G83" t="n">
-        <v>56.42999999999999</v>
+        <v>-397915.6487996599</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3632,22 +3730,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>56.7</v>
+        <v>54.9</v>
       </c>
       <c r="C84" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="D84" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="E84" t="n">
-        <v>56.7</v>
+        <v>54.9</v>
       </c>
       <c r="F84" t="n">
-        <v>12257.7801</v>
+        <v>22</v>
       </c>
       <c r="G84" t="n">
-        <v>56.48999999999999</v>
+        <v>-397893.6487996599</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3668,22 +3766,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="C85" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="D85" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="E85" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="F85" t="n">
-        <v>4147.7967</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>56.53499999999999</v>
+        <v>-397882.6487996599</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3704,22 +3802,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>57.1</v>
+        <v>55</v>
       </c>
       <c r="C86" t="n">
-        <v>57.2</v>
+        <v>55.1</v>
       </c>
       <c r="D86" t="n">
-        <v>57.3</v>
+        <v>55.1</v>
       </c>
       <c r="E86" t="n">
-        <v>56.3</v>
+        <v>55</v>
       </c>
       <c r="F86" t="n">
-        <v>8612</v>
+        <v>4185.6904</v>
       </c>
       <c r="G86" t="n">
-        <v>56.59499999999998</v>
+        <v>-402068.3391996599</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3740,22 +3838,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="C87" t="n">
-        <v>57</v>
+        <v>55.3</v>
       </c>
       <c r="D87" t="n">
-        <v>57</v>
+        <v>55.3</v>
       </c>
       <c r="E87" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="F87" t="n">
-        <v>6555.5205</v>
+        <v>15115.088</v>
       </c>
       <c r="G87" t="n">
-        <v>56.59999999999998</v>
+        <v>-386953.2511996599</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3776,22 +3874,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>56.1</v>
+        <v>54.6</v>
       </c>
       <c r="C88" t="n">
-        <v>56.1</v>
+        <v>54.6</v>
       </c>
       <c r="D88" t="n">
-        <v>56.1</v>
+        <v>54.6</v>
       </c>
       <c r="E88" t="n">
-        <v>56.1</v>
+        <v>54.6</v>
       </c>
       <c r="F88" t="n">
-        <v>822.8908</v>
+        <v>19.7967</v>
       </c>
       <c r="G88" t="n">
-        <v>56.56999999999997</v>
+        <v>-386973.04789966</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3812,22 +3910,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="C89" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="D89" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="E89" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="F89" t="n">
-        <v>4264.9999</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>56.52999999999997</v>
+        <v>-386963.04789966</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3848,22 +3946,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="C90" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="D90" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="E90" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>1952.0548</v>
       </c>
       <c r="G90" t="n">
-        <v>56.48999999999997</v>
+        <v>-388915.1026996599</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3884,22 +3982,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="C91" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="D91" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="E91" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="F91" t="n">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>56.41999999999998</v>
+        <v>-388904.1026996599</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3920,22 +4018,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
       <c r="C92" t="n">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
       <c r="D92" t="n">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
       <c r="E92" t="n">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
       <c r="F92" t="n">
-        <v>5916.8841</v>
+        <v>1149.2697</v>
       </c>
       <c r="G92" t="n">
-        <v>56.33999999999999</v>
+        <v>-390053.3723996599</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3956,22 +4054,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>57.3</v>
+        <v>55.4</v>
       </c>
       <c r="C93" t="n">
-        <v>57.3</v>
+        <v>55.4</v>
       </c>
       <c r="D93" t="n">
-        <v>57.3</v>
+        <v>55.4</v>
       </c>
       <c r="E93" t="n">
-        <v>57.3</v>
+        <v>55.4</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>3416</v>
       </c>
       <c r="G93" t="n">
-        <v>56.38999999999999</v>
+        <v>-386637.3723996599</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3992,28 +4090,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="C94" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="D94" t="n">
-        <v>57.3</v>
+        <v>55.5</v>
       </c>
       <c r="E94" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="F94" t="n">
-        <v>1369.7575</v>
+        <v>1972</v>
       </c>
       <c r="G94" t="n">
-        <v>56.31999999999999</v>
+        <v>-384665.3723996599</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4028,22 +4126,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>56.2</v>
+        <v>55.5</v>
       </c>
       <c r="C95" t="n">
-        <v>56.2</v>
+        <v>55.5</v>
       </c>
       <c r="D95" t="n">
-        <v>56.2</v>
+        <v>55.5</v>
       </c>
       <c r="E95" t="n">
-        <v>56.2</v>
+        <v>55.5</v>
       </c>
       <c r="F95" t="n">
-        <v>857.2066</v>
+        <v>796</v>
       </c>
       <c r="G95" t="n">
-        <v>56.31999999999999</v>
+        <v>-384665.3723996599</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4064,22 +4162,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>57.2</v>
+        <v>55.4</v>
       </c>
       <c r="C96" t="n">
-        <v>57.2</v>
+        <v>55.4</v>
       </c>
       <c r="D96" t="n">
-        <v>57.2</v>
+        <v>55.4</v>
       </c>
       <c r="E96" t="n">
-        <v>57.2</v>
+        <v>55.4</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>2688</v>
       </c>
       <c r="G96" t="n">
-        <v>56.34499999999999</v>
+        <v>-387353.3723996599</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4100,22 +4198,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="C97" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="D97" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="E97" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="F97" t="n">
-        <v>6188</v>
+        <v>6265.1555</v>
       </c>
       <c r="G97" t="n">
-        <v>56.34999999999999</v>
+        <v>-387353.3723996599</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4136,28 +4234,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>56.7</v>
+        <v>55.4</v>
       </c>
       <c r="C98" t="n">
-        <v>56.7</v>
+        <v>55.4</v>
       </c>
       <c r="D98" t="n">
-        <v>56.7</v>
+        <v>55.4</v>
       </c>
       <c r="E98" t="n">
-        <v>56.7</v>
+        <v>55.4</v>
       </c>
       <c r="F98" t="n">
-        <v>11</v>
+        <v>2661.6829</v>
       </c>
       <c r="G98" t="n">
-        <v>56.37499999999999</v>
+        <v>-387353.3723996599</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4172,22 +4270,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>57.1</v>
+        <v>55.3</v>
       </c>
       <c r="C99" t="n">
-        <v>57.1</v>
+        <v>55.1</v>
       </c>
       <c r="D99" t="n">
-        <v>57.1</v>
+        <v>55.4</v>
       </c>
       <c r="E99" t="n">
-        <v>57.1</v>
+        <v>54.5</v>
       </c>
       <c r="F99" t="n">
-        <v>11</v>
+        <v>48976.9015</v>
       </c>
       <c r="G99" t="n">
-        <v>56.41499999999998</v>
+        <v>-436330.2738996599</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4208,28 +4306,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="C100" t="n">
-        <v>57.2</v>
+        <v>55.5</v>
       </c>
       <c r="D100" t="n">
-        <v>57.2</v>
+        <v>55.5</v>
       </c>
       <c r="E100" t="n">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="F100" t="n">
-        <v>7468.9999</v>
+        <v>13055.5084</v>
       </c>
       <c r="G100" t="n">
-        <v>56.39499999999998</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4244,22 +4342,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C101" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="D101" t="n">
-        <v>57.1</v>
+        <v>55.5</v>
       </c>
       <c r="E101" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="F101" t="n">
-        <v>60408.2792</v>
+        <v>15982.0787</v>
       </c>
       <c r="G101" t="n">
-        <v>56.38999999999997</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4280,22 +4378,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="C102" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="D102" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="E102" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="F102" t="n">
-        <v>353</v>
+        <v>1458.2386</v>
       </c>
       <c r="G102" t="n">
-        <v>56.36499999999997</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4316,22 +4414,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="C103" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="D103" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="E103" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4665.3723</v>
+        <v>713.7686</v>
       </c>
       <c r="G103" t="n">
-        <v>56.33499999999998</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4352,28 +4450,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="C104" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="D104" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="E104" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="F104" t="n">
-        <v>2827.5994</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="n">
-        <v>56.29999999999998</v>
+        <v>-423274.7654996599</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4388,28 +4486,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="C105" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="D105" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="E105" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="F105" t="n">
-        <v>6051.5</v>
+        <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>56.27499999999998</v>
+        <v>-423263.7654996599</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4424,22 +4522,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>54.9</v>
       </c>
       <c r="C106" t="n">
-        <v>56</v>
+        <v>54.9</v>
       </c>
       <c r="D106" t="n">
-        <v>56</v>
+        <v>54.9</v>
       </c>
       <c r="E106" t="n">
-        <v>56</v>
+        <v>54.9</v>
       </c>
       <c r="F106" t="n">
-        <v>3436</v>
+        <v>5263.67</v>
       </c>
       <c r="G106" t="n">
-        <v>56.21999999999998</v>
+        <v>-428527.4354996599</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4460,22 +4558,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="C107" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="D107" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="E107" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="F107" t="n">
-        <v>590</v>
+        <v>13798.8271</v>
       </c>
       <c r="G107" t="n">
-        <v>56.20499999999998</v>
+        <v>-442326.2625996599</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4496,28 +4594,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="C108" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D108" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="E108" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="F108" t="n">
-        <v>8749</v>
+        <v>5186</v>
       </c>
       <c r="G108" t="n">
-        <v>56.19499999999999</v>
+        <v>-437140.2625996599</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4532,28 +4630,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="C109" t="n">
-        <v>55.7</v>
+        <v>54.5</v>
       </c>
       <c r="D109" t="n">
-        <v>55.9</v>
+        <v>54.5</v>
       </c>
       <c r="E109" t="n">
-        <v>55.7</v>
+        <v>54.5</v>
       </c>
       <c r="F109" t="n">
-        <v>1222.9999</v>
+        <v>1855</v>
       </c>
       <c r="G109" t="n">
-        <v>56.19499999999999</v>
+        <v>-438995.2625996599</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4568,35 +4666,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>56</v>
+        <v>54.4</v>
       </c>
       <c r="C110" t="n">
-        <v>56</v>
+        <v>54.4</v>
       </c>
       <c r="D110" t="n">
-        <v>56</v>
+        <v>54.4</v>
       </c>
       <c r="E110" t="n">
-        <v>56</v>
+        <v>54.4</v>
       </c>
       <c r="F110" t="n">
-        <v>316</v>
+        <v>15921.3639</v>
       </c>
       <c r="G110" t="n">
-        <v>56.19999999999999</v>
+        <v>-454916.6264996599</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K110" t="n">
-        <v>55.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4608,40 +4702,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="C111" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="D111" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="E111" t="n">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1160.7682</v>
+        <v>36714.3224</v>
       </c>
       <c r="G111" t="n">
-        <v>56.18999999999998</v>
+        <v>-454916.6264996599</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>56</v>
-      </c>
-      <c r="K111" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4652,40 +4738,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C112" t="n">
-        <v>51.7</v>
+        <v>55.3</v>
       </c>
       <c r="D112" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E112" t="n">
-        <v>51.7</v>
+        <v>55.3</v>
       </c>
       <c r="F112" t="n">
-        <v>39716.7932</v>
+        <v>10.11</v>
       </c>
       <c r="G112" t="n">
-        <v>56.17999999999999</v>
+        <v>-454906.5164996599</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K112" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4696,40 +4774,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="C113" t="n">
-        <v>55.2</v>
+        <v>54.9</v>
       </c>
       <c r="D113" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
       <c r="E113" t="n">
-        <v>55.2</v>
+        <v>54.6</v>
       </c>
       <c r="F113" t="n">
-        <v>3028</v>
+        <v>60682.99692365</v>
       </c>
       <c r="G113" t="n">
-        <v>56.07499999999999</v>
+        <v>-515589.5134233099</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K113" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4740,44 +4810,2592 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-515579.3334233099</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3590.0397</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-519169.3731233099</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-519159.2631233099</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>120.3237</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-519159.2631233099</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F118" t="n">
+        <v>947.9999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-520107.2630233099</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-520096.0830233099</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-520106.1830233099</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3106.3249</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-523212.5079233099</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3567.326</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-523212.5079233099</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5836.932</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-529049.43992331</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>966.9999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-529049.43992331</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>967</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-529049.43992331</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-529038.43992331</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>54</v>
+      </c>
+      <c r="D127" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>54</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15456.3147</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-544494.7546233099</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-544483.7546233099</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>54</v>
+      </c>
+      <c r="D129" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>54</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13142.5959</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-557626.3505233099</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-557615.3505233099</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-549815.3505233099</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1107.77</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-550923.1205233099</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>911.7141</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-550011.4064233099</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>13046.3749</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-536965.0315233099</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1478</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-535487.0315233099</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22894.0086</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-512593.0229233099</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11503.64307635</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-501089.3798469599</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>21305.0836</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-522394.4634469599</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-522383.4634469599</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10.7054</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-522383.4634469599</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>413.2946</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-521970.1688469599</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1637.9999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-523608.1687469599</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-523597.1687469599</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7580</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-531177.1687469599</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>340</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-530837.1687469599</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>56</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6095.9999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-536933.1686469599</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>31</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-536964.1686469599</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>22036</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-559000.1686469599</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6932</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-552068.1686469599</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12834.5873</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-539233.5813469599</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3227</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-542460.5813469599</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1076</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-542460.5813469599</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>11</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-542449.5813469599</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C154" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-542438.5813469599</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12257.7801</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-530180.8012469599</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4147.7967</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-534328.5979469599</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8612</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-525716.5979469599</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>57</v>
+      </c>
+      <c r="D158" t="n">
+        <v>57</v>
+      </c>
+      <c r="E158" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6555.5205</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-532272.1184469599</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>822.8908</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-533095.0092469599</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4264.9999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-537360.00914696</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>800</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-537360.00914696</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>56</v>
+      </c>
+      <c r="D162" t="n">
+        <v>56</v>
+      </c>
+      <c r="E162" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>400</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-536960.00914696</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5916.8841</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-542876.89324696</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-542865.89324696</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1369.7575</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-542865.89324696</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>857.2066</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-543723.09984696</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-543712.09984696</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>56</v>
+      </c>
+      <c r="C168" t="n">
+        <v>56</v>
+      </c>
+      <c r="D168" t="n">
+        <v>56</v>
+      </c>
+      <c r="E168" t="n">
+        <v>56</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6188</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-549900.09984696</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>11</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-549889.09984696</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-549878.09984696</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>56</v>
+      </c>
+      <c r="C171" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>56</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7468.9999</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-542409.09994696</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>56</v>
+      </c>
+      <c r="D172" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>56</v>
+      </c>
+      <c r="F172" t="n">
+        <v>60408.2792</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>56</v>
+      </c>
+      <c r="C173" t="n">
+        <v>56</v>
+      </c>
+      <c r="D173" t="n">
+        <v>56</v>
+      </c>
+      <c r="E173" t="n">
+        <v>56</v>
+      </c>
+      <c r="F173" t="n">
+        <v>353</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>56</v>
+      </c>
+      <c r="C174" t="n">
+        <v>56</v>
+      </c>
+      <c r="D174" t="n">
+        <v>56</v>
+      </c>
+      <c r="E174" t="n">
+        <v>56</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4665.3723</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>56</v>
+      </c>
+      <c r="C175" t="n">
+        <v>56</v>
+      </c>
+      <c r="D175" t="n">
+        <v>56</v>
+      </c>
+      <c r="E175" t="n">
+        <v>56</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2827.5994</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-602817.37914696</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6051.5</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-608868.87914696</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>56</v>
+      </c>
+      <c r="C177" t="n">
+        <v>56</v>
+      </c>
+      <c r="D177" t="n">
+        <v>56</v>
+      </c>
+      <c r="E177" t="n">
+        <v>56</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3436</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-605432.87914696</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>56</v>
+      </c>
+      <c r="C178" t="n">
+        <v>56</v>
+      </c>
+      <c r="D178" t="n">
+        <v>56</v>
+      </c>
+      <c r="E178" t="n">
+        <v>56</v>
+      </c>
+      <c r="F178" t="n">
+        <v>590</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-605432.87914696</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8749</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-614181.87914696</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C180" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1222.9999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-615404.87904696</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>56</v>
+      </c>
+      <c r="C181" t="n">
+        <v>56</v>
+      </c>
+      <c r="D181" t="n">
+        <v>56</v>
+      </c>
+      <c r="E181" t="n">
+        <v>56</v>
+      </c>
+      <c r="F181" t="n">
+        <v>316</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-615088.87904696</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1160.7682</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-616249.6472469601</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>39716.7932</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-655966.44044696</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3028</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-652938.44044696</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>53</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C185" t="n">
         <v>51.7</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D185" t="n">
         <v>53</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E185" t="n">
         <v>51.7</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F185" t="n">
         <v>13594.236</v>
       </c>
-      <c r="G114" t="n">
-        <v>55.92999999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K114" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>-666532.6764469601</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N185"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>-333994.2403</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +554,21 @@
         <v>-333994.2403</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,22 +595,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -646,26 +632,21 @@
         <v>-344953.5315</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,26 +671,21 @@
         <v>-353059.1738</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -734,26 +710,23 @@
         <v>-341079.1738</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="J9" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,26 +751,21 @@
         <v>-341079.1738</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,26 +790,21 @@
         <v>-341079.1738</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -866,26 +829,21 @@
         <v>-341079.1738</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,26 +868,23 @@
         <v>-341079.1738</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="J13" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,26 +909,23 @@
         <v>-341079.1738</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="J14" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,26 +950,23 @@
         <v>-341079.1738</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="J15" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,26 +991,23 @@
         <v>-345371.0487</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="J16" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,26 +1032,23 @@
         <v>-345351.0487</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="J17" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,26 +1073,23 @@
         <v>-350351.0487</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="J18" t="n">
         <v>52.8</v>
       </c>
-      <c r="K18" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,26 +1114,23 @@
         <v>-371081.5924</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="J19" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,26 +1155,23 @@
         <v>-347372.9731999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>52.4</v>
       </c>
       <c r="J20" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1262,26 +1196,23 @@
         <v>-262558.1242</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J21" t="n">
-        <v>54</v>
-      </c>
-      <c r="K21" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1308,22 +1239,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1350,22 +1278,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1392,22 +1317,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1434,22 +1356,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1476,22 +1395,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1518,22 +1434,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1560,22 +1473,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1602,22 +1512,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1644,22 +1551,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1686,22 +1590,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1728,22 +1629,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1770,22 +1668,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1812,22 +1707,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1854,22 +1746,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1896,22 +1785,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1938,22 +1824,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1980,22 +1863,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2022,22 +1902,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2064,22 +1941,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2106,22 +1980,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2148,22 +2019,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2190,22 +2058,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2232,22 +2097,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2274,22 +2136,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2316,22 +2175,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2358,22 +2214,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2400,22 +2253,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2442,22 +2292,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2484,22 +2331,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2526,22 +2370,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2568,22 +2409,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2610,22 +2448,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2652,22 +2487,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2694,22 +2526,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2736,22 +2565,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1.044149338374291</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2778,16 +2604,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2812,18 +2641,21 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2850,16 +2682,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2886,16 +2721,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2922,16 +2760,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2958,16 +2799,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2994,16 +2838,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3030,16 +2877,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3066,16 +2916,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3102,16 +2955,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3138,16 +2994,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3174,16 +3033,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3210,16 +3072,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3246,16 +3111,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3282,16 +3150,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3318,16 +3189,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3354,16 +3228,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3390,16 +3267,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3426,16 +3306,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3462,16 +3345,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3498,16 +3384,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3534,16 +3423,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3570,16 +3462,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3606,16 +3501,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3642,16 +3540,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3678,16 +3579,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3714,16 +3618,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3748,18 +3655,21 @@
         <v>-397893.6487996599</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3786,16 +3696,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3822,16 +3735,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3858,16 +3774,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3894,16 +3813,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3930,16 +3852,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3966,16 +3891,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4002,16 +3930,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4036,18 +3967,21 @@
         <v>-390053.3723996599</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.040454545454546</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4074,16 +4008,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4110,16 +4041,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4146,16 +4074,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4182,16 +4107,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4218,16 +4140,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4254,16 +4173,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4288,18 +4204,15 @@
         <v>-436330.2738996599</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4326,16 +4239,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4362,16 +4272,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4398,16 +4305,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4434,16 +4338,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4470,16 +4371,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4506,16 +4404,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4542,16 +4437,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4578,16 +4470,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4614,16 +4503,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4650,16 +4536,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4686,16 +4569,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4722,16 +4602,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4758,16 +4635,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4794,16 +4668,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4830,16 +4701,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4866,16 +4734,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4902,16 +4767,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4938,16 +4800,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,16 +4833,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5010,16 +4866,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5046,16 +4899,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5082,16 +4932,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5118,16 +4965,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5154,16 +4998,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5190,16 +5031,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5226,16 +5064,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5262,16 +5097,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5298,16 +5130,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5332,18 +5161,15 @@
         <v>-544483.7546233099</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5368,18 +5194,15 @@
         <v>-557626.3505233099</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5406,16 +5229,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5442,16 +5262,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5478,16 +5295,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5514,16 +5328,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5550,16 +5361,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5584,18 +5392,15 @@
         <v>-535487.0315233099</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5620,18 +5425,15 @@
         <v>-512593.0229233099</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5656,18 +5458,15 @@
         <v>-501089.3798469599</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5692,18 +5491,15 @@
         <v>-522394.4634469599</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5728,18 +5524,15 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5764,18 +5557,15 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5800,18 +5590,15 @@
         <v>-521970.1688469599</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5836,18 +5623,15 @@
         <v>-523608.1687469599</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5872,18 +5656,15 @@
         <v>-523597.1687469599</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5908,18 +5689,15 @@
         <v>-531177.1687469599</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5944,18 +5722,15 @@
         <v>-530837.1687469599</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5980,18 +5755,15 @@
         <v>-536933.1686469599</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6016,18 +5788,15 @@
         <v>-536964.1686469599</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6052,18 +5821,15 @@
         <v>-559000.1686469599</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6088,18 +5854,15 @@
         <v>-552068.1686469599</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6124,18 +5887,15 @@
         <v>-539233.5813469599</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6160,18 +5920,15 @@
         <v>-542460.5813469599</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6198,16 +5955,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6232,18 +5986,15 @@
         <v>-542449.5813469599</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6268,18 +6019,15 @@
         <v>-542438.5813469599</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6304,18 +6052,15 @@
         <v>-530180.8012469599</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6342,16 +6087,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6378,16 +6120,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6412,18 +6151,15 @@
         <v>-532272.1184469599</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6448,18 +6184,15 @@
         <v>-533095.0092469599</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6484,18 +6217,15 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6520,18 +6250,15 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6556,18 +6283,15 @@
         <v>-536960.00914696</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6594,16 +6318,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6628,18 +6349,15 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6664,18 +6382,15 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6702,16 +6417,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6738,16 +6450,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6774,16 +6483,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6810,16 +6516,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6846,16 +6549,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6882,16 +6582,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6918,16 +6615,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6954,16 +6648,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6990,16 +6681,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7026,16 +6714,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7062,16 +6747,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7098,16 +6780,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7134,16 +6813,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7170,16 +6846,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7206,16 +6879,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7242,16 +6912,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7278,16 +6945,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7314,16 +6978,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7350,16 +7011,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7386,18 +7044,15 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-333994.2403</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -596,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -635,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -674,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,17 +682,15 @@
         <v>-341079.1738</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>52.6</v>
       </c>
-      <c r="J9" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -754,9 +724,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -793,9 +761,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -832,9 +798,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -868,14 +832,10 @@
         <v>-341079.1738</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -909,14 +869,10 @@
         <v>-341079.1738</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -950,14 +906,10 @@
         <v>-341079.1738</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -991,14 +943,12 @@
         <v>-345371.0487</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>52.9</v>
       </c>
-      <c r="J16" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1032,14 +982,12 @@
         <v>-345351.0487</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>52.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1073,14 +1021,12 @@
         <v>-350351.0487</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>52.8</v>
       </c>
-      <c r="J18" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1114,14 +1060,12 @@
         <v>-371081.5924</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>52.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1155,14 +1099,12 @@
         <v>-347372.9731999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>52.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1196,14 +1138,12 @@
         <v>-262558.1242</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>54</v>
       </c>
-      <c r="J21" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,9 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1279,9 +1217,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,9 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1357,9 +1291,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1396,9 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1435,9 +1365,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1474,9 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1513,9 +1439,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,9 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1591,9 +1513,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,9 +1550,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1669,9 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,9 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,9 +1661,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,9 +1698,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,9 +1735,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,9 +1772,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,9 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,9 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,9 +1883,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,9 +1920,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2059,9 +1957,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,9 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2137,9 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,9 +2068,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,9 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,9 +2142,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2293,9 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,9 +2216,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,9 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2407,20 +2287,16 @@
         <v>-298749.73099966</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2449,14 +2325,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2485,17 +2355,11 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2391,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2424,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2457,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2641,17 +2487,11 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2680,17 +2520,11 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2719,17 +2553,11 @@
         <v>-291114.64839966</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2758,17 +2586,11 @@
         <v>-302241.74419966</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2797,17 +2619,11 @@
         <v>-302010.74419966</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2836,17 +2652,11 @@
         <v>-316546.87179966</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2875,17 +2685,11 @@
         <v>-316546.87179966</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2914,17 +2718,11 @@
         <v>-322163.23479966</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2956,14 +2754,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2995,14 +2787,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2853,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3109,17 +2883,11 @@
         <v>-321648.53809966</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3148,17 +2916,11 @@
         <v>-321648.53809966</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3187,17 +2949,11 @@
         <v>-324922.87519966</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3226,17 +2982,11 @@
         <v>-324911.87519966</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3265,17 +3015,11 @@
         <v>-329467.0842996599</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +3051,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +3084,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +3150,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3463,14 +3183,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3502,14 +3216,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3541,14 +3249,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3580,14 +3282,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3619,14 +3315,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3655,17 +3345,11 @@
         <v>-397893.6487996599</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3697,14 +3381,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3736,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3775,14 +3447,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3814,14 +3480,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3853,14 +3513,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3546,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3931,14 +3579,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3967,19 +3609,13 @@
         <v>-390053.3723996599</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>1.040454545454546</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -4204,7 +3840,7 @@
         <v>-436330.2738996599</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5161,7 +4797,7 @@
         <v>-544483.7546233099</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5194,7 +4830,7 @@
         <v>-557626.3505233099</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5359,10 +4995,14 @@
         <v>-536965.0315233099</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>55.2</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -5392,11 +5032,19 @@
         <v>-535487.0315233099</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5427,9 +5075,17 @@
       <c r="H136" t="n">
         <v>1</v>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5458,11 +5114,19 @@
         <v>-501089.3798469599</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5155,19 @@
         <v>-522394.4634469599</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5196,17 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5235,17 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +5274,17 @@
         <v>-521970.1688469599</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +5313,17 @@
         <v>-523608.1687469599</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5656,11 +5352,17 @@
         <v>-523597.1687469599</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5391,17 @@
         <v>-531177.1687469599</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5722,11 +5430,17 @@
         <v>-530837.1687469599</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5755,11 +5469,17 @@
         <v>-536933.1686469599</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +5508,17 @@
         <v>-536964.1686469599</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5547,17 @@
         <v>-559000.1686469599</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5854,11 +5586,17 @@
         <v>-552068.1686469599</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5625,17 @@
         <v>-539233.5813469599</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5664,17 @@
         <v>-542460.5813469599</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5956,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5742,19 @@
         <v>-542449.5813469599</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5783,17 @@
         <v>-542438.5813469599</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6052,11 +5822,17 @@
         <v>-530180.8012469599</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6088,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6121,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +5939,17 @@
         <v>-532272.1184469599</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6184,11 +5978,17 @@
         <v>-533095.0092469599</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6017,17 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6250,11 +6056,19 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6283,11 +6097,19 @@
         <v>-536960.00914696</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J162" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +6138,19 @@
         <v>-542876.89324696</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>56</v>
+      </c>
+      <c r="J163" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6351,9 +6181,17 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="J164" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6382,11 +6220,17 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6418,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6451,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6484,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6517,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6550,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6583,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6616,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6649,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6682,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6610,19 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>56</v>
+      </c>
+      <c r="J175" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6745,11 +6651,19 @@
         <v>-608868.87914696</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>56</v>
+      </c>
+      <c r="J176" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6778,11 +6692,19 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J177" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6733,19 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>56</v>
+      </c>
+      <c r="J178" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +6774,19 @@
         <v>-614181.87914696</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>56</v>
+      </c>
+      <c r="J179" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6877,11 +6815,19 @@
         <v>-615404.87904696</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J180" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +6856,19 @@
         <v>-615088.87904696</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="J181" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +6897,19 @@
         <v>-616249.6472469601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>56</v>
+      </c>
+      <c r="J182" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6976,11 +6938,19 @@
         <v>-655966.44044696</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="J183" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7012,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7045,14 +7021,20 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
       <c r="M185" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,17 +682,11 @@
         <v>-341079.1738</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>52.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -725,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -762,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -799,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -836,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -873,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -910,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -943,17 +913,11 @@
         <v>-345371.0487</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -982,17 +946,11 @@
         <v>-345351.0487</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1021,17 +979,11 @@
         <v>-350351.0487</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1060,17 +1012,11 @@
         <v>-371081.5924</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>52.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1099,17 +1045,11 @@
         <v>-347372.9731999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>52.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1138,17 +1078,11 @@
         <v>-262558.1242</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1181,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1218,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1255,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1329,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1366,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1403,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1440,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1477,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1514,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1551,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1588,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1736,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1773,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1810,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1847,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1884,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1958,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1995,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2032,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2069,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2106,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2143,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2180,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2217,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2287,16 +2101,14 @@
         <v>-298749.73099966</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
       <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2355,7 +2167,7 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2421,7 +2233,7 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2454,7 +2266,7 @@
         <v>-291135.64839966</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2520,7 +2332,7 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2553,7 +2365,7 @@
         <v>-291114.64839966</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2586,7 +2398,7 @@
         <v>-302241.74419966</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2619,7 +2431,7 @@
         <v>-302010.74419966</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2652,7 +2464,7 @@
         <v>-316546.87179966</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2685,7 +2497,7 @@
         <v>-316546.87179966</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2718,7 +2530,7 @@
         <v>-322163.23479966</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2883,7 +2695,7 @@
         <v>-321648.53809966</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2916,7 +2728,7 @@
         <v>-321648.53809966</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2949,7 +2761,7 @@
         <v>-324922.87519966</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2982,7 +2794,7 @@
         <v>-324911.87519966</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3015,7 +2827,7 @@
         <v>-329467.0842996599</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4632,10 +4444,14 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>54.4</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4665,11 +4481,19 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +4522,19 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J125" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4731,10 +4563,14 @@
         <v>-529038.43992331</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>54.3</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4767,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4800,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4830,11 +4678,19 @@
         <v>-557626.3505233099</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4866,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4899,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4932,8 +4800,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4836,19 @@
         <v>-550011.4064233099</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5001,9 +4883,13 @@
         <v>55.2</v>
       </c>
       <c r="J134" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+        <v>54.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5032,17 +4918,15 @@
         <v>-535487.0315233099</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>55.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5079,11 +4963,11 @@
         <v>55.5</v>
       </c>
       <c r="J136" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5120,11 +5004,11 @@
         <v>55.9</v>
       </c>
       <c r="J137" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -5161,7 +5045,7 @@
         <v>56.2</v>
       </c>
       <c r="J138" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5196,11 +5080,13 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>54.7</v>
+      </c>
       <c r="J139" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5239,7 +5125,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5278,7 +5164,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5317,7 +5203,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5356,7 +5242,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5395,7 +5281,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5434,7 +5320,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5473,7 +5359,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5512,7 +5398,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5551,7 +5437,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5590,7 +5476,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5629,7 +5515,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5668,7 +5554,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5707,7 +5593,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5742,13 +5628,11 @@
         <v>-542449.5813469599</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5787,7 +5671,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5826,7 +5710,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5865,7 +5749,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5904,7 +5788,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5943,7 +5827,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5982,7 +5866,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6021,7 +5905,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6056,13 +5940,11 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>55.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6097,13 +5979,11 @@
         <v>-536960.00914696</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>55.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6138,13 +6018,11 @@
         <v>-542876.89324696</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6179,13 +6057,11 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>55.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6224,7 +6100,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6263,7 +6139,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6302,7 +6178,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6341,7 +6217,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6380,7 +6256,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6419,7 +6295,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6458,7 +6334,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6497,7 +6373,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6536,7 +6412,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6575,7 +6451,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6610,13 +6486,11 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6651,13 +6525,11 @@
         <v>-608868.87914696</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6692,13 +6564,11 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>55.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6733,13 +6603,11 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6774,13 +6642,11 @@
         <v>-614181.87914696</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6815,13 +6681,11 @@
         <v>-615404.87904696</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>55.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6856,13 +6720,11 @@
         <v>-615088.87904696</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>55.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6897,13 +6759,11 @@
         <v>-616249.6472469601</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6938,13 +6798,11 @@
         <v>-655966.44044696</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>55.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6983,7 +6841,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7022,7 +6880,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7035,6 +6893,6 @@
       <c r="M185" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -2233,7 +2233,7 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-291135.64839966</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4444,14 +4444,10 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>54.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4481,495 +4477,435 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
         <v>54.3</v>
       </c>
-      <c r="J124" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
+      <c r="C125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>967</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-529049.43992331</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-529038.43992331</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>54</v>
+      </c>
+      <c r="D127" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>54</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15456.3147</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-544494.7546233099</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-544483.7546233099</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>54</v>
+      </c>
+      <c r="D129" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>54</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13142.5959</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-557626.3505233099</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-557615.3505233099</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-549815.3505233099</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1107.77</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-550923.1205233099</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>911.7141</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-550011.4064233099</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>13046.3749</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-536965.0315233099</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="D125" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>967</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-529049.43992331</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J125" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1478</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-535487.0315233099</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-529038.43992331</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J126" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>54</v>
-      </c>
-      <c r="D127" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>54</v>
-      </c>
-      <c r="F127" t="n">
-        <v>15456.3147</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-544494.7546233099</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22894.0086</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-512593.0229233099</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-544483.7546233099</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>54</v>
-      </c>
-      <c r="D129" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>54</v>
-      </c>
-      <c r="F129" t="n">
-        <v>13142.5959</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-557626.3505233099</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>11</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-557615.3505233099</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>7800</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-549815.3505233099</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1107.77</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-550923.1205233099</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>911.7141</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-550011.4064233099</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C134" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F134" t="n">
-        <v>13046.3749</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-536965.0315233099</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J134" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="C135" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1478</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-535487.0315233099</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>22894.0086</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-512593.0229233099</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5004,7 +4940,7 @@
         <v>55.9</v>
       </c>
       <c r="J137" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5039,13 +4975,11 @@
         <v>-522394.4634469599</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>56.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5086,7 +5020,7 @@
         <v>54.7</v>
       </c>
       <c r="J139" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5121,11 +5055,11 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5160,11 +5094,11 @@
         <v>-521970.1688469599</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5199,11 +5133,11 @@
         <v>-523608.1687469599</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5238,11 +5172,11 @@
         <v>-523597.1687469599</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5277,11 +5211,11 @@
         <v>-531177.1687469599</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5316,11 +5250,11 @@
         <v>-530837.1687469599</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5355,11 +5289,11 @@
         <v>-536933.1686469599</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5394,19 +5328,19 @@
         <v>-536964.1686469599</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>1.024038112522686</v>
       </c>
       <c r="M147" t="inlineStr"/>
     </row>
@@ -5433,17 +5367,11 @@
         <v>-559000.1686469599</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5472,17 +5400,11 @@
         <v>-552068.1686469599</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5511,17 +5433,11 @@
         <v>-539233.5813469599</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5550,17 +5466,11 @@
         <v>-542460.5813469599</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5589,17 +5499,11 @@
         <v>-542460.5813469599</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5628,17 +5532,11 @@
         <v>-542449.5813469599</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5667,17 +5565,11 @@
         <v>-542438.5813469599</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5706,17 +5598,11 @@
         <v>-530180.8012469599</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5745,17 +5631,11 @@
         <v>-534328.5979469599</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5784,17 +5664,15 @@
         <v>-525716.5979469599</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>56.2</v>
+      </c>
       <c r="J157" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>56.2</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5823,15 +5701,15 @@
         <v>-532272.1184469599</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5862,15 +5740,15 @@
         <v>-533095.0092469599</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5901,17 +5779,11 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5940,17 +5812,15 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>55.9</v>
+      </c>
       <c r="J161" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>55.9</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5979,15 +5849,17 @@
         <v>-536960.00914696</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>55.9</v>
+      </c>
       <c r="J162" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -6018,11 +5890,13 @@
         <v>-542876.89324696</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>56</v>
+      </c>
       <c r="J163" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6057,11 +5931,13 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>55.7</v>
+      </c>
       <c r="J164" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6096,11 +5972,11 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6135,11 +6011,11 @@
         <v>-543723.09984696</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6174,11 +6050,13 @@
         <v>-543712.09984696</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>56.2</v>
+      </c>
       <c r="J167" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6213,11 +6091,11 @@
         <v>-549900.09984696</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6252,11 +6130,11 @@
         <v>-549889.09984696</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6291,11 +6169,11 @@
         <v>-549878.09984696</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6330,11 +6208,11 @@
         <v>-542409.09994696</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6369,11 +6247,11 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6408,11 +6286,13 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>56</v>
+      </c>
       <c r="J173" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6447,11 +6327,13 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>56</v>
+      </c>
       <c r="J174" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6486,11 +6368,13 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>56</v>
+      </c>
       <c r="J175" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6525,11 +6409,13 @@
         <v>-608868.87914696</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>56</v>
+      </c>
       <c r="J176" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6564,11 +6450,13 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>55.9</v>
+      </c>
       <c r="J177" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6603,11 +6491,13 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>56</v>
+      </c>
       <c r="J178" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6642,11 +6532,13 @@
         <v>-614181.87914696</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>56</v>
+      </c>
       <c r="J179" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6681,11 +6573,13 @@
         <v>-615404.87904696</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>55.9</v>
+      </c>
       <c r="J180" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6720,11 +6614,13 @@
         <v>-615088.87904696</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>55.7</v>
+      </c>
       <c r="J181" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6759,11 +6655,13 @@
         <v>-616249.6472469601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>56</v>
+      </c>
       <c r="J182" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6798,11 +6696,13 @@
         <v>-655966.44044696</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>55.7</v>
+      </c>
       <c r="J183" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6837,11 +6737,13 @@
         <v>-652938.44044696</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>51.7</v>
+      </c>
       <c r="J184" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6876,11 +6778,13 @@
         <v>-666532.6764469601</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>55.2</v>
+      </c>
       <c r="J185" t="n">
-        <v>54.3</v>
+        <v>55.9</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>

--- a/BackTest/2019-10-29 BackTest ETHOS.xlsx
+++ b/BackTest/2019-10-29 BackTest ETHOS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>27474.5636</v>
       </c>
       <c r="G2" t="n">
-        <v>-349069.2402</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>1686.1835</v>
       </c>
       <c r="G3" t="n">
-        <v>-349069.2402</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>15074.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>-333994.2403</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>2187</v>
       </c>
       <c r="G5" t="n">
-        <v>-333994.2403</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>19517.6861</v>
       </c>
       <c r="G6" t="n">
-        <v>-353511.9264</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>8558.394899999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-344953.5315</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>52.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,23 @@
         <v>8105.6423</v>
       </c>
       <c r="G8" t="n">
-        <v>-353059.1738</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +697,23 @@
         <v>11980</v>
       </c>
       <c r="G9" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>52.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +735,23 @@
         <v>2000</v>
       </c>
       <c r="G10" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +773,23 @@
         <v>1580</v>
       </c>
       <c r="G11" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +811,23 @@
         <v>14497</v>
       </c>
       <c r="G12" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +849,23 @@
         <v>100.4</v>
       </c>
       <c r="G13" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +887,23 @@
         <v>100.4</v>
       </c>
       <c r="G14" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +925,23 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-341079.1738</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +963,23 @@
         <v>4291.8749</v>
       </c>
       <c r="G16" t="n">
-        <v>-345371.0487</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +1001,23 @@
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>-345351.0487</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>52.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1039,23 @@
         <v>5000</v>
       </c>
       <c r="G18" t="n">
-        <v>-350351.0487</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1077,23 @@
         <v>20730.5437</v>
       </c>
       <c r="G19" t="n">
-        <v>-371081.5924</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>52.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1115,23 @@
         <v>23708.6192</v>
       </c>
       <c r="G20" t="n">
-        <v>-347372.9731999999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>52.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1153,21 @@
         <v>84814.849</v>
       </c>
       <c r="G21" t="n">
-        <v>-262558.1242</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1189,21 @@
         <v>15989.0557</v>
       </c>
       <c r="G22" t="n">
-        <v>-262558.1242</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1225,21 @@
         <v>12391.324</v>
       </c>
       <c r="G23" t="n">
-        <v>-274949.4482</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1261,21 @@
         <v>2721.3811</v>
       </c>
       <c r="G24" t="n">
-        <v>-277670.8293</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1297,21 @@
         <v>147679.048</v>
       </c>
       <c r="G25" t="n">
-        <v>-277670.8293</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1333,21 @@
         <v>36839.3941</v>
       </c>
       <c r="G26" t="n">
-        <v>-314510.2234</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1369,23 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-314500.2234</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1.074545454545455</v>
+      </c>
       <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>1.001893939393939</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1407,15 @@
         <v>2429.4921</v>
       </c>
       <c r="G28" t="n">
-        <v>-312070.7313</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1437,15 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>-312080.7313</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1467,15 @@
         <v>2721.3811</v>
       </c>
       <c r="G30" t="n">
-        <v>-314802.1124</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1497,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-314792.1124</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1527,15 @@
         <v>70723.5903</v>
       </c>
       <c r="G32" t="n">
-        <v>-244068.5221</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1557,15 @@
         <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>-244118.5221</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1587,15 @@
         <v>6323.2071</v>
       </c>
       <c r="G34" t="n">
-        <v>-250441.7292</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1617,15 @@
         <v>11862.9568</v>
       </c>
       <c r="G35" t="n">
-        <v>-262304.686</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1647,15 @@
         <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>-261304.686</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1677,15 @@
         <v>16002.2997</v>
       </c>
       <c r="G37" t="n">
-        <v>-245302.3863</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1707,15 @@
         <v>5037.25</v>
       </c>
       <c r="G38" t="n">
-        <v>-250339.6363</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1737,15 @@
         <v>17733.3968</v>
       </c>
       <c r="G39" t="n">
-        <v>-250339.6363</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1767,15 @@
         <v>1500</v>
       </c>
       <c r="G40" t="n">
-        <v>-251839.6363</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1797,15 @@
         <v>35544.3761</v>
       </c>
       <c r="G41" t="n">
-        <v>-287384.0124</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1827,15 @@
         <v>5905.8618</v>
       </c>
       <c r="G42" t="n">
-        <v>-293289.8742</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1857,15 @@
         <v>25016.88530034</v>
       </c>
       <c r="G43" t="n">
-        <v>-268272.98889966</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1887,15 @@
         <v>1600</v>
       </c>
       <c r="G44" t="n">
-        <v>-269872.98889966</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1917,15 @@
         <v>9099.128699999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-260773.86019966</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1947,15 @@
         <v>3313.8145</v>
       </c>
       <c r="G46" t="n">
-        <v>-264087.67469966</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1977,15 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>-264077.67469966</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2007,15 @@
         <v>1897.208</v>
       </c>
       <c r="G48" t="n">
-        <v>-262180.46669966</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2037,15 @@
         <v>28607.5437</v>
       </c>
       <c r="G49" t="n">
-        <v>-290788.01039966</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2067,15 @@
         <v>12974.9434</v>
       </c>
       <c r="G50" t="n">
-        <v>-277813.06699966</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2097,15 @@
         <v>8124.6412</v>
       </c>
       <c r="G51" t="n">
-        <v>-285937.70819966</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2127,15 @@
         <v>12812.0228</v>
       </c>
       <c r="G52" t="n">
-        <v>-298749.73099966</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2157,15 @@
         <v>300</v>
       </c>
       <c r="G53" t="n">
-        <v>-299049.73099966</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2187,15 @@
         <v>959.6482</v>
       </c>
       <c r="G54" t="n">
-        <v>-300009.37919966</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2217,15 @@
         <v>820.9999</v>
       </c>
       <c r="G55" t="n">
-        <v>-300009.37919966</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2247,15 @@
         <v>6472.9956</v>
       </c>
       <c r="G56" t="n">
-        <v>-300009.37919966</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2277,15 @@
         <v>8873.730799999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-291135.64839966</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2307,15 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>-291124.64839966</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2337,15 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-291124.64839966</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2367,15 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-291114.64839966</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2397,15 @@
         <v>11127.0958</v>
       </c>
       <c r="G61" t="n">
-        <v>-302241.74419966</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2427,15 @@
         <v>231</v>
       </c>
       <c r="G62" t="n">
-        <v>-302010.74419966</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2457,15 @@
         <v>14536.1276</v>
       </c>
       <c r="G63" t="n">
-        <v>-316546.87179966</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2487,15 @@
         <v>59.875</v>
       </c>
       <c r="G64" t="n">
-        <v>-316546.87179966</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2517,15 @@
         <v>5616.363</v>
       </c>
       <c r="G65" t="n">
-        <v>-322163.23479966</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2547,15 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>-322152.23479966</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2577,15 @@
         <v>1153.4317</v>
       </c>
       <c r="G67" t="n">
-        <v>-320998.80309966</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2607,15 @@
         <v>671.735</v>
       </c>
       <c r="G68" t="n">
-        <v>-321670.53809966</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2637,15 @@
         <v>11</v>
       </c>
       <c r="G69" t="n">
-        <v>-321659.53809966</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2667,15 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>-321648.53809966</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2697,15 @@
         <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>-321648.53809966</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2727,15 @@
         <v>3274.3371</v>
       </c>
       <c r="G72" t="n">
-        <v>-324922.87519966</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2757,15 @@
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>-324911.87519966</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2787,15 @@
         <v>4555.2091</v>
       </c>
       <c r="G74" t="n">
-        <v>-329467.0842996599</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2817,15 @@
         <v>39.6925</v>
       </c>
       <c r="G75" t="n">
-        <v>-329506.7767996599</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2847,15 @@
         <v>19.7966</v>
       </c>
       <c r="G76" t="n">
-        <v>-329526.5733996599</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2877,15 @@
         <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>-329515.5733996599</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2907,15 @@
         <v>18254.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>-311261.5732996599</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2937,15 @@
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>-311250.5732996599</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2967,15 @@
         <v>41148.7903</v>
       </c>
       <c r="G80" t="n">
-        <v>-352399.3635996599</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2997,15 @@
         <v>6249.154</v>
       </c>
       <c r="G81" t="n">
-        <v>-346150.20959966</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3027,15 @@
         <v>58269.4272</v>
       </c>
       <c r="G82" t="n">
-        <v>-404419.6367996599</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3057,15 @@
         <v>6503.988</v>
       </c>
       <c r="G83" t="n">
-        <v>-397915.6487996599</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3087,15 @@
         <v>22</v>
       </c>
       <c r="G84" t="n">
-        <v>-397893.6487996599</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3117,15 @@
         <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>-397882.6487996599</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3147,15 @@
         <v>4185.6904</v>
       </c>
       <c r="G86" t="n">
-        <v>-402068.3391996599</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3177,15 @@
         <v>15115.088</v>
       </c>
       <c r="G87" t="n">
-        <v>-386953.2511996599</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3207,15 @@
         <v>19.7967</v>
       </c>
       <c r="G88" t="n">
-        <v>-386973.04789966</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3237,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-386963.04789966</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3267,15 @@
         <v>1952.0548</v>
       </c>
       <c r="G90" t="n">
-        <v>-388915.1026996599</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3297,15 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>-388904.1026996599</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3327,15 @@
         <v>1149.2697</v>
       </c>
       <c r="G92" t="n">
-        <v>-390053.3723996599</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3357,15 @@
         <v>3416</v>
       </c>
       <c r="G93" t="n">
-        <v>-386637.3723996599</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3387,15 @@
         <v>1972</v>
       </c>
       <c r="G94" t="n">
-        <v>-384665.3723996599</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3417,15 @@
         <v>796</v>
       </c>
       <c r="G95" t="n">
-        <v>-384665.3723996599</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3447,15 @@
         <v>2688</v>
       </c>
       <c r="G96" t="n">
-        <v>-387353.3723996599</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3477,15 @@
         <v>6265.1555</v>
       </c>
       <c r="G97" t="n">
-        <v>-387353.3723996599</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3507,15 @@
         <v>2661.6829</v>
       </c>
       <c r="G98" t="n">
-        <v>-387353.3723996599</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3537,15 @@
         <v>48976.9015</v>
       </c>
       <c r="G99" t="n">
-        <v>-436330.2738996599</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3567,15 @@
         <v>13055.5084</v>
       </c>
       <c r="G100" t="n">
-        <v>-423274.7654996599</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3597,15 @@
         <v>15982.0787</v>
       </c>
       <c r="G101" t="n">
-        <v>-423274.7654996599</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3627,15 @@
         <v>1458.2386</v>
       </c>
       <c r="G102" t="n">
-        <v>-423274.7654996599</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3657,15 @@
         <v>713.7686</v>
       </c>
       <c r="G103" t="n">
-        <v>-423274.7654996599</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3687,15 @@
         <v>5000</v>
       </c>
       <c r="G104" t="n">
-        <v>-423274.7654996599</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3717,15 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>-423263.7654996599</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3747,15 @@
         <v>5263.67</v>
       </c>
       <c r="G106" t="n">
-        <v>-428527.4354996599</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3777,15 @@
         <v>13798.8271</v>
       </c>
       <c r="G107" t="n">
-        <v>-442326.2625996599</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3807,15 @@
         <v>5186</v>
       </c>
       <c r="G108" t="n">
-        <v>-437140.2625996599</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3837,15 @@
         <v>1855</v>
       </c>
       <c r="G109" t="n">
-        <v>-438995.2625996599</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3867,15 @@
         <v>15921.3639</v>
       </c>
       <c r="G110" t="n">
-        <v>-454916.6264996599</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3897,15 @@
         <v>36714.3224</v>
       </c>
       <c r="G111" t="n">
-        <v>-454916.6264996599</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3927,15 @@
         <v>10.11</v>
       </c>
       <c r="G112" t="n">
-        <v>-454906.5164996599</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3957,15 @@
         <v>60682.99692365</v>
       </c>
       <c r="G113" t="n">
-        <v>-515589.5134233099</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3987,15 @@
         <v>10.18</v>
       </c>
       <c r="G114" t="n">
-        <v>-515579.3334233099</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4017,15 @@
         <v>3590.0397</v>
       </c>
       <c r="G115" t="n">
-        <v>-519169.3731233099</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4047,15 @@
         <v>10.11</v>
       </c>
       <c r="G116" t="n">
-        <v>-519159.2631233099</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4077,15 @@
         <v>120.3237</v>
       </c>
       <c r="G117" t="n">
-        <v>-519159.2631233099</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4107,15 @@
         <v>947.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>-520107.2630233099</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4137,15 @@
         <v>11.18</v>
       </c>
       <c r="G119" t="n">
-        <v>-520096.0830233099</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4167,15 @@
         <v>10.1</v>
       </c>
       <c r="G120" t="n">
-        <v>-520106.1830233099</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4197,15 @@
         <v>3106.3249</v>
       </c>
       <c r="G121" t="n">
-        <v>-523212.5079233099</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4227,15 @@
         <v>3567.326</v>
       </c>
       <c r="G122" t="n">
-        <v>-523212.5079233099</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4257,15 @@
         <v>5836.932</v>
       </c>
       <c r="G123" t="n">
-        <v>-529049.43992331</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4287,15 @@
         <v>966.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>-529049.43992331</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4317,15 @@
         <v>967</v>
       </c>
       <c r="G125" t="n">
-        <v>-529049.43992331</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4347,15 @@
         <v>11</v>
       </c>
       <c r="G126" t="n">
-        <v>-529038.43992331</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4377,15 @@
         <v>15456.3147</v>
       </c>
       <c r="G127" t="n">
-        <v>-544494.7546233099</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4407,15 @@
         <v>11</v>
       </c>
       <c r="G128" t="n">
-        <v>-544483.7546233099</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4437,15 @@
         <v>13142.5959</v>
       </c>
       <c r="G129" t="n">
-        <v>-557626.3505233099</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4467,15 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>-557615.3505233099</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4497,15 @@
         <v>7800</v>
       </c>
       <c r="G131" t="n">
-        <v>-549815.3505233099</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4527,15 @@
         <v>1107.77</v>
       </c>
       <c r="G132" t="n">
-        <v>-550923.1205233099</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,22 +4557,15 @@
         <v>911.7141</v>
       </c>
       <c r="G133" t="n">
-        <v>-550011.4064233099</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4808,26 +4587,15 @@
         <v>13046.3749</v>
       </c>
       <c r="G134" t="n">
-        <v>-536965.0315233099</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J134" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4849,26 +4617,15 @@
         <v>1478</v>
       </c>
       <c r="G135" t="n">
-        <v>-535487.0315233099</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4890,26 +4647,15 @@
         <v>22894.0086</v>
       </c>
       <c r="G136" t="n">
-        <v>-512593.0229233099</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4931,26 +4677,15 @@
         <v>11503.64307635</v>
       </c>
       <c r="G137" t="n">
-        <v>-501089.3798469599</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J137" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4972,24 +4707,15 @@
         <v>21305.0836</v>
       </c>
       <c r="G138" t="n">
-        <v>-522394.4634469599</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5011,26 +4737,15 @@
         <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>-522383.4634469599</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J139" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5052,24 +4767,15 @@
         <v>10.7054</v>
       </c>
       <c r="G140" t="n">
-        <v>-522383.4634469599</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5091,24 +4797,15 @@
         <v>413.2946</v>
       </c>
       <c r="G141" t="n">
-        <v>-521970.1688469599</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5130,24 +4827,15 @@
         <v>1637.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>-523608.1687469599</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5169,24 +4857,15 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>-523597.1687469599</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5208,24 +4887,15 @@
         <v>7580</v>
       </c>
       <c r="G144" t="n">
-        <v>-531177.1687469599</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5247,24 +4917,15 @@
         <v>340</v>
       </c>
       <c r="G145" t="n">
-        <v>-530837.1687469599</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5286,24 +4947,15 @@
         <v>6095.9999</v>
       </c>
       <c r="G146" t="n">
-        <v>-536933.1686469599</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5325,24 +4977,15 @@
         <v>31</v>
       </c>
       <c r="G147" t="n">
-        <v>-536964.1686469599</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1.024038112522686</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5364,18 +5007,15 @@
         <v>22036</v>
       </c>
       <c r="G148" t="n">
-        <v>-559000.1686469599</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5397,18 +5037,15 @@
         <v>6932</v>
       </c>
       <c r="G149" t="n">
-        <v>-552068.1686469599</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5430,18 +5067,15 @@
         <v>12834.5873</v>
       </c>
       <c r="G150" t="n">
-        <v>-539233.5813469599</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5463,18 +5097,15 @@
         <v>3227</v>
       </c>
       <c r="G151" t="n">
-        <v>-542460.5813469599</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5496,18 +5127,15 @@
         <v>1076</v>
       </c>
       <c r="G152" t="n">
-        <v>-542460.5813469599</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5529,18 +5157,15 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>-542449.5813469599</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5562,18 +5187,15 @@
         <v>11</v>
       </c>
       <c r="G154" t="n">
-        <v>-542438.5813469599</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5595,18 +5217,15 @@
         <v>12257.7801</v>
       </c>
       <c r="G155" t="n">
-        <v>-530180.8012469599</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5628,18 +5247,15 @@
         <v>4147.7967</v>
       </c>
       <c r="G156" t="n">
-        <v>-534328.5979469599</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5661,22 +5277,15 @@
         <v>8612</v>
       </c>
       <c r="G157" t="n">
-        <v>-525716.5979469599</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="J157" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5698,24 +5307,15 @@
         <v>6555.5205</v>
       </c>
       <c r="G158" t="n">
-        <v>-532272.1184469599</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5737,24 +5337,15 @@
         <v>822.8908</v>
       </c>
       <c r="G159" t="n">
-        <v>-533095.0092469599</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5776,18 +5367,15 @@
         <v>4264.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>-537360.00914696</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5809,22 +5397,15 @@
         <v>800</v>
       </c>
       <c r="G161" t="n">
-        <v>-537360.00914696</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J161" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5846,26 +5427,15 @@
         <v>400</v>
       </c>
       <c r="G162" t="n">
-        <v>-536960.00914696</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J162" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5887,26 +5457,15 @@
         <v>5916.8841</v>
       </c>
       <c r="G163" t="n">
-        <v>-542876.89324696</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>56</v>
-      </c>
-      <c r="J163" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5928,26 +5487,15 @@
         <v>11</v>
       </c>
       <c r="G164" t="n">
-        <v>-542865.89324696</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5969,24 +5517,15 @@
         <v>1369.7575</v>
       </c>
       <c r="G165" t="n">
-        <v>-542865.89324696</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6008,24 +5547,15 @@
         <v>857.2066</v>
       </c>
       <c r="G166" t="n">
-        <v>-543723.09984696</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6047,26 +5577,15 @@
         <v>11</v>
       </c>
       <c r="G167" t="n">
-        <v>-543712.09984696</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6088,24 +5607,15 @@
         <v>6188</v>
       </c>
       <c r="G168" t="n">
-        <v>-549900.09984696</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6127,24 +5637,15 @@
         <v>11</v>
       </c>
       <c r="G169" t="n">
-        <v>-549889.09984696</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6166,24 +5667,15 @@
         <v>11</v>
       </c>
       <c r="G170" t="n">
-        <v>-549878.09984696</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6205,24 +5697,15 @@
         <v>7468.9999</v>
       </c>
       <c r="G171" t="n">
-        <v>-542409.09994696</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6244,24 +5727,15 @@
         <v>60408.2792</v>
       </c>
       <c r="G172" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6283,26 +5757,15 @@
         <v>353</v>
       </c>
       <c r="G173" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>56</v>
-      </c>
-      <c r="J173" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6324,26 +5787,15 @@
         <v>4665.3723</v>
       </c>
       <c r="G174" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>56</v>
-      </c>
-      <c r="J174" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6365,26 +5817,15 @@
         <v>2827.5994</v>
       </c>
       <c r="G175" t="n">
-        <v>-602817.37914696</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>56</v>
-      </c>
-      <c r="J175" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6406,26 +5847,15 @@
         <v>6051.5</v>
       </c>
       <c r="G176" t="n">
-        <v>-608868.87914696</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>56</v>
-      </c>
-      <c r="J176" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6447,26 +5877,15 @@
         <v>3436</v>
       </c>
       <c r="G177" t="n">
-        <v>-605432.87914696</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J177" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6488,26 +5907,15 @@
         <v>590</v>
       </c>
       <c r="G178" t="n">
-        <v>-605432.87914696</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>56</v>
-      </c>
-      <c r="J178" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6529,26 +5937,15 @@
         <v>8749</v>
       </c>
       <c r="G179" t="n">
-        <v>-614181.87914696</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>56</v>
-      </c>
-      <c r="J179" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6570,26 +5967,15 @@
         <v>1222.9999</v>
       </c>
       <c r="G180" t="n">
-        <v>-615404.87904696</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J180" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6611,26 +5997,15 @@
         <v>316</v>
       </c>
       <c r="G181" t="n">
-        <v>-615088.87904696</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="J181" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6652,26 +6027,15 @@
         <v>1160.7682</v>
       </c>
       <c r="G182" t="n">
-        <v>-616249.6472469601</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>56</v>
-      </c>
-      <c r="J182" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6693,26 +6057,15 @@
         <v>39716.7932</v>
       </c>
       <c r="G183" t="n">
-        <v>-655966.44044696</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="J183" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6734,26 +6087,15 @@
         <v>3028</v>
       </c>
       <c r="G184" t="n">
-        <v>-652938.44044696</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J184" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6775,26 +6117,15 @@
         <v>13594.236</v>
       </c>
       <c r="G185" t="n">
-        <v>-666532.6764469601</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="J185" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
